--- a/功能支持.xlsx
+++ b/功能支持.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12320"/>
+    <workbookView windowWidth="28800" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1332,9 +1332,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1370,22 +1370,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1402,14 +1386,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,11 +1430,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1441,14 +1455,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1456,21 +1462,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1485,7 +1477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,6 +1486,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,7 +1546,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,43 +1678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,115 +1702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,10 +1746,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1769,213 +1825,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2000,9 +2000,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2014,12 +2011,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2345,8 +2336,8 @@
   <sheetPr/>
   <dimension ref="A1:C418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="C428" sqref="C428"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -2381,91 +2372,91 @@
         <v>5</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" ht="19" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" ht="19" spans="1:3">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" ht="38" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" ht="19" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" ht="19" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" ht="19" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" ht="19" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" ht="19" spans="1:3">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" ht="38" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="38" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" ht="19" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="19" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="19" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" ht="38" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" ht="19" spans="1:1">
       <c r="A16" s="3" t="s">
@@ -2476,43 +2467,43 @@
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" ht="19" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" ht="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" ht="19" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" ht="19" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" ht="19" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" ht="19" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" ht="19" spans="1:1">
       <c r="A24" s="3" t="s">
@@ -2523,335 +2514,335 @@
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" ht="19" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" ht="19" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" ht="19" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" ht="19" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" ht="19" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" ht="19" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" ht="19" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" ht="19" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" ht="19" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" ht="19" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" ht="19" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" ht="19" spans="1:2">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" ht="19" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" ht="19" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" ht="19" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" ht="19" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" ht="19" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" ht="19" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" ht="19" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" ht="19" spans="1:2">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" ht="19" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" ht="19" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" ht="19" spans="1:2">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" ht="19" spans="1:2">
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" ht="19" spans="1:2">
       <c r="A50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" ht="19" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="10"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" ht="19" spans="1:3">
+    <row r="52" ht="38" spans="1:3">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" ht="19" spans="1:3">
+      <c r="B52" s="9"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" ht="38" spans="1:3">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" ht="19" spans="1:3">
+      <c r="B53" s="9"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" ht="38" spans="1:3">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" ht="19" spans="1:3">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" ht="19" spans="1:3">
       <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" ht="19" spans="1:3">
       <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" ht="19" spans="1:3">
       <c r="A58" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" ht="19" spans="1:2">
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" ht="19" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" ht="19" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" ht="19" spans="1:2">
       <c r="A62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" ht="19" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" ht="19" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" ht="19" spans="1:2">
       <c r="A65" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" ht="19" spans="1:2">
       <c r="A66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" ht="19" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" ht="19" spans="1:2">
       <c r="A68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" ht="19" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" ht="19" spans="1:2">
       <c r="A70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" ht="19" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" ht="19" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" ht="19" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" ht="19" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" ht="19" spans="1:2">
       <c r="A75" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" ht="19" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" ht="19" spans="1:2">
       <c r="A77" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" ht="19" spans="1:3">
       <c r="A78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="10"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="7" t="s">
         <v>82</v>
       </c>
@@ -2860,35 +2851,35 @@
       <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80" ht="19" spans="1:3">
       <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81" ht="38" spans="1:3">
       <c r="A81" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" ht="19" spans="1:3">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" ht="19" spans="1:3">
       <c r="A83" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="10"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="7" t="s">
         <v>88</v>
       </c>
@@ -2897,14 +2888,14 @@
       <c r="A84" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85" ht="19" spans="1:3">
       <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="10"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="7" t="s">
         <v>91</v>
       </c>
@@ -2913,112 +2904,112 @@
       <c r="A86" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" ht="19" spans="1:3">
       <c r="A87" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88" ht="19" spans="1:3">
       <c r="A88" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="7"/>
     </row>
     <row r="89" ht="19" spans="1:3">
       <c r="A89" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90" ht="19" spans="1:3">
       <c r="A90" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" ht="19" spans="1:3">
       <c r="A91" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" ht="19" spans="1:3">
       <c r="A92" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" ht="19" spans="1:3">
       <c r="A93" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="7"/>
     </row>
     <row r="94" ht="19" spans="1:3">
       <c r="A94" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" ht="19" spans="1:3">
       <c r="A95" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96" ht="19" spans="1:3">
       <c r="A96" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="7"/>
     </row>
     <row r="97" ht="19" spans="1:3">
       <c r="A97" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" ht="19" spans="1:3">
       <c r="A98" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" ht="19" spans="1:3">
       <c r="A99" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="8"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="7"/>
     </row>
     <row r="100" ht="19" spans="1:3">
       <c r="A100" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="7"/>
     </row>
     <row r="101" ht="19" spans="1:3">
       <c r="A101" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="7" t="s">
         <v>108</v>
       </c>
@@ -3027,126 +3018,126 @@
       <c r="A102" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="7"/>
     </row>
     <row r="103" ht="19" spans="1:3">
       <c r="A103" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="7"/>
     </row>
     <row r="104" ht="38" spans="1:3">
       <c r="A104" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="7"/>
     </row>
     <row r="105" ht="19" spans="1:3">
       <c r="A105" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="8"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="7"/>
     </row>
     <row r="106" ht="19" spans="1:3">
       <c r="A106" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="8"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="7"/>
     </row>
     <row r="107" ht="19" spans="1:3">
       <c r="A107" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="8"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="7"/>
     </row>
     <row r="108" ht="19" spans="1:3">
       <c r="A108" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="8"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109" ht="19" spans="1:3">
       <c r="A109" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="8"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="7"/>
     </row>
     <row r="110" ht="19" spans="1:3">
       <c r="A110" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="8"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111" ht="19" spans="1:3">
       <c r="A111" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="8"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="7"/>
     </row>
     <row r="112" ht="19" spans="1:3">
       <c r="A112" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="8"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="7"/>
     </row>
     <row r="113" ht="19" spans="1:3">
       <c r="A113" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="8"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="7"/>
     </row>
     <row r="114" ht="19" spans="1:3">
       <c r="A114" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="8"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="7"/>
     </row>
     <row r="115" ht="19" spans="1:3">
       <c r="A115" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="8"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="7"/>
     </row>
     <row r="116" ht="19" spans="1:3">
       <c r="A116" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="8"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="7"/>
     </row>
     <row r="117" ht="19" spans="1:3">
       <c r="A117" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B117" s="10"/>
-      <c r="C117" s="8"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="7"/>
     </row>
     <row r="118" ht="19" spans="1:3">
       <c r="A118" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="8"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="7"/>
     </row>
     <row r="119" ht="19" spans="1:3">
       <c r="A119" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B119" s="10"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="7" t="s">
         <v>127</v>
       </c>
@@ -3155,28 +3146,28 @@
       <c r="A120" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="8"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="7"/>
     </row>
     <row r="121" ht="19" spans="1:3">
       <c r="A121" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="8"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="7"/>
     </row>
     <row r="122" ht="19" spans="1:3">
       <c r="A122" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="8"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="7"/>
     </row>
     <row r="123" ht="19" spans="1:3">
       <c r="A123" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="10"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="7" t="s">
         <v>132</v>
       </c>
@@ -3185,597 +3176,597 @@
       <c r="A124" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="8"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="7"/>
     </row>
     <row r="125" ht="19" spans="1:3">
       <c r="A125" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="8"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="7"/>
     </row>
     <row r="126" ht="19" spans="1:3">
       <c r="A126" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="8"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="7"/>
     </row>
     <row r="127" ht="19" spans="1:3">
       <c r="A127" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="8"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="7"/>
     </row>
     <row r="128" ht="19" spans="1:3">
       <c r="A128" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="10"/>
-      <c r="C128" s="8"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129" ht="19" spans="1:3">
       <c r="A129" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="8"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="7"/>
     </row>
     <row r="130" ht="19" spans="1:3">
       <c r="A130" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="8"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131" ht="19" spans="1:3">
       <c r="A131" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="8"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="7"/>
     </row>
     <row r="132" ht="19" spans="1:2">
       <c r="A132" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="10"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" ht="19" spans="1:2">
       <c r="A133" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B133" s="10"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" ht="19" spans="1:2">
       <c r="A134" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" ht="19" spans="1:2">
       <c r="A135" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B135" s="10"/>
+      <c r="B135" s="9"/>
     </row>
     <row r="136" ht="19" spans="1:2">
       <c r="A136" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="9"/>
-    </row>
-    <row r="137" ht="19" spans="1:2">
+      <c r="B136" s="8"/>
+    </row>
+    <row r="137" ht="38" spans="1:2">
       <c r="A137" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B137" s="9"/>
+      <c r="B137" s="8"/>
     </row>
     <row r="138" ht="38" spans="1:2">
       <c r="A138" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="9"/>
+      <c r="B138" s="8"/>
     </row>
     <row r="139" ht="19" spans="1:2">
       <c r="A139" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="9"/>
+      <c r="B139" s="8"/>
     </row>
     <row r="140" ht="19" spans="1:2">
       <c r="A140" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="11"/>
+      <c r="B140" s="10"/>
     </row>
     <row r="141" ht="19" spans="1:2">
       <c r="A141" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="8"/>
     </row>
     <row r="142" ht="19" spans="1:2">
       <c r="A142" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="9"/>
+      <c r="B142" s="8"/>
     </row>
     <row r="143" ht="38" spans="1:2">
       <c r="A143" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B143" s="9"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" ht="19" spans="1:2">
       <c r="A144" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="9"/>
+      <c r="B144" s="8"/>
     </row>
     <row r="145" ht="19" spans="1:2">
       <c r="A145" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="9"/>
+      <c r="B145" s="8"/>
     </row>
     <row r="146" ht="38" spans="1:2">
       <c r="A146" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B146" s="9"/>
+      <c r="B146" s="8"/>
     </row>
     <row r="147" ht="19" spans="1:2">
       <c r="A147" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B147" s="10"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" ht="19" spans="1:2">
       <c r="A148" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B148" s="10"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" ht="19" spans="1:2">
       <c r="A149" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="10"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" ht="19" spans="1:2">
       <c r="A150" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="10"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" ht="19" spans="1:2">
       <c r="A151" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="10"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" ht="19" spans="1:2">
       <c r="A152" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B152" s="10"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" ht="38" spans="1:2">
       <c r="A153" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B153" s="10"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" ht="38" spans="1:2">
       <c r="A154" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B154" s="10"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" ht="19" spans="1:2">
       <c r="A155" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="10"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" ht="19" spans="1:2">
       <c r="A156" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="10"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" ht="19" spans="1:2">
       <c r="A157" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="10"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" ht="19" spans="1:2">
       <c r="A158" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="10"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" ht="19" spans="1:2">
       <c r="A159" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B159" s="10"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" ht="19" spans="1:2">
       <c r="A160" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B160" s="10"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" ht="19" spans="1:2">
       <c r="A161" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="9"/>
+      <c r="B161" s="8"/>
     </row>
     <row r="162" ht="19" spans="1:2">
       <c r="A162" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="9"/>
+      <c r="B162" s="8"/>
     </row>
     <row r="163" ht="19" spans="1:2">
       <c r="A163" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B163" s="9"/>
+      <c r="B163" s="8"/>
     </row>
     <row r="164" ht="19" spans="1:2">
       <c r="A164" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B164" s="9"/>
+      <c r="B164" s="8"/>
     </row>
     <row r="165" ht="19" spans="1:2">
       <c r="A165" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B165" s="10"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" ht="19" spans="1:2">
       <c r="A166" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B166" s="9"/>
+      <c r="B166" s="8"/>
     </row>
     <row r="167" ht="19" spans="1:2">
       <c r="A167" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B167" s="10"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" ht="19" spans="1:2">
       <c r="A168" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B168" s="10"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" ht="19" spans="1:2">
       <c r="A169" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B169" s="10"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" ht="19" spans="1:2">
       <c r="A170" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B170" s="10"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" ht="19" spans="1:2">
       <c r="A171" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B171" s="10"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" ht="19" spans="1:2">
       <c r="A172" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B172" s="10"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" ht="19" spans="1:2">
       <c r="A173" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B173" s="10"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" ht="19" spans="1:2">
       <c r="A174" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B174" s="10"/>
-    </row>
-    <row r="175" ht="19" spans="1:2">
+      <c r="B174" s="9"/>
+    </row>
+    <row r="175" ht="38" spans="1:2">
       <c r="A175" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B175" s="10"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" ht="38" spans="1:2">
       <c r="A176" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="10"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" ht="19" spans="1:2">
       <c r="A177" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="11"/>
+      <c r="B177" s="10"/>
     </row>
     <row r="178" ht="19" spans="1:2">
       <c r="A178" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="10"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" ht="19" spans="1:2">
       <c r="A179" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B179" s="10"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" ht="19" spans="1:2">
       <c r="A180" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B180" s="10"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" ht="19" spans="1:2">
       <c r="A181" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B181" s="10"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" ht="19" spans="1:2">
       <c r="A182" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B182" s="9"/>
+      <c r="B182" s="8"/>
     </row>
     <row r="183" ht="19" spans="1:2">
       <c r="A183" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="10"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" ht="19" spans="1:2">
       <c r="A184" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B184" s="10"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" ht="19" spans="1:2">
       <c r="A185" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B185" s="10"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" ht="19" spans="1:2">
       <c r="A186" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B186" s="10"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" ht="19" spans="1:2">
       <c r="A187" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B187" s="10"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" ht="19" spans="1:2">
       <c r="A188" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B188" s="10"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" ht="19" spans="1:2">
       <c r="A189" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B189" s="10"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" ht="19" spans="1:2">
       <c r="A190" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="10"/>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" ht="19" spans="1:2">
       <c r="A191" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B191" s="10"/>
+      <c r="B191" s="9"/>
     </row>
     <row r="192" ht="19" spans="1:2">
       <c r="A192" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="10"/>
+      <c r="B192" s="9"/>
     </row>
     <row r="193" ht="19" spans="1:2">
       <c r="A193" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B193" s="10"/>
+      <c r="B193" s="9"/>
     </row>
     <row r="194" ht="19" spans="1:2">
       <c r="A194" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B194" s="10"/>
+      <c r="B194" s="9"/>
     </row>
     <row r="195" ht="19" spans="1:2">
       <c r="A195" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="10"/>
+      <c r="B195" s="9"/>
     </row>
     <row r="196" ht="19" spans="1:2">
       <c r="A196" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B196" s="10"/>
+      <c r="B196" s="9"/>
     </row>
     <row r="197" ht="19" spans="1:2">
       <c r="A197" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B197" s="10"/>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" ht="19" spans="1:2">
       <c r="A198" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="10"/>
+      <c r="B198" s="9"/>
     </row>
     <row r="199" ht="19" spans="1:2">
       <c r="A199" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B199" s="10"/>
+      <c r="B199" s="9"/>
     </row>
     <row r="200" ht="19" spans="1:2">
       <c r="A200" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="10"/>
+      <c r="B200" s="9"/>
     </row>
     <row r="201" ht="38" spans="1:2">
       <c r="A201" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B201" s="10"/>
+      <c r="B201" s="9"/>
     </row>
     <row r="202" ht="19" spans="1:2">
       <c r="A202" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B202" s="10"/>
+      <c r="B202" s="9"/>
     </row>
     <row r="203" ht="38" spans="1:2">
       <c r="A203" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B203" s="9"/>
+      <c r="B203" s="8"/>
     </row>
     <row r="204" ht="38" spans="1:2">
       <c r="A204" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B204" s="9"/>
+      <c r="B204" s="8"/>
     </row>
     <row r="205" ht="19" spans="1:2">
       <c r="A205" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B205" s="9"/>
+      <c r="B205" s="8"/>
     </row>
     <row r="206" ht="38" spans="1:2">
       <c r="A206" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B206" s="9"/>
+      <c r="B206" s="8"/>
     </row>
     <row r="207" ht="19" spans="1:2">
       <c r="A207" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B207" s="9"/>
+      <c r="B207" s="8"/>
     </row>
     <row r="208" ht="19" spans="1:2">
       <c r="A208" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B208" s="9"/>
+      <c r="B208" s="8"/>
     </row>
     <row r="209" ht="19" spans="1:2">
       <c r="A209" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B209" s="10"/>
+      <c r="B209" s="9"/>
     </row>
     <row r="210" ht="19" spans="1:2">
       <c r="A210" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B210" s="10"/>
+      <c r="B210" s="9"/>
     </row>
     <row r="211" ht="38" spans="1:2">
       <c r="A211" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B211" s="9"/>
+      <c r="B211" s="8"/>
     </row>
     <row r="212" ht="19" spans="1:2">
       <c r="A212" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B212" s="10"/>
+      <c r="B212" s="9"/>
     </row>
     <row r="213" ht="19" spans="1:2">
       <c r="A213" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B213" s="9"/>
+      <c r="B213" s="8"/>
     </row>
     <row r="214" ht="19" spans="1:2">
       <c r="A214" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B214" s="10"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" ht="19" spans="1:2">
       <c r="A215" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B215" s="10"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" ht="19" spans="1:2">
       <c r="A216" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B216" s="10"/>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" ht="19" spans="1:2">
       <c r="A217" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="9"/>
+      <c r="B217" s="8"/>
     </row>
     <row r="218" ht="19" spans="1:2">
       <c r="A218" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B218" s="9"/>
+      <c r="B218" s="8"/>
     </row>
     <row r="219" ht="19" spans="1:2">
       <c r="A219" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B219" s="9"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" ht="19" spans="1:2">
       <c r="A220" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B220" s="9"/>
+      <c r="B220" s="8"/>
     </row>
     <row r="221" ht="19" spans="1:3">
       <c r="A221" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B221" s="10"/>
+      <c r="B221" s="9"/>
       <c r="C221" s="7" t="s">
         <v>231</v>
       </c>
@@ -3784,130 +3775,130 @@
       <c r="A222" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B222" s="10"/>
-      <c r="C222" s="8"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="7"/>
     </row>
     <row r="223" ht="19" spans="1:3">
       <c r="A223" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B223" s="10"/>
-      <c r="C223" s="8"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="7"/>
     </row>
     <row r="224" ht="19" spans="1:2">
       <c r="A224" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B224" s="9"/>
+      <c r="B224" s="8"/>
     </row>
     <row r="225" ht="19" spans="1:2">
       <c r="A225" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B225" s="9"/>
+      <c r="B225" s="8"/>
     </row>
     <row r="226" ht="19" spans="1:2">
       <c r="A226" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B226" s="9"/>
+      <c r="B226" s="8"/>
     </row>
     <row r="227" ht="19" spans="1:2">
       <c r="A227" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B227" s="9"/>
+      <c r="B227" s="8"/>
     </row>
     <row r="228" ht="19" spans="1:2">
       <c r="A228" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B228" s="10"/>
+      <c r="B228" s="9"/>
     </row>
     <row r="229" ht="19" spans="1:2">
       <c r="A229" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B229" s="10"/>
+      <c r="B229" s="9"/>
     </row>
     <row r="230" ht="19" spans="1:2">
       <c r="A230" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B230" s="9"/>
+      <c r="B230" s="8"/>
     </row>
     <row r="231" ht="19" spans="1:2">
       <c r="A231" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B231" s="9"/>
+      <c r="B231" s="8"/>
     </row>
     <row r="232" ht="19" spans="1:2">
       <c r="A232" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B232" s="9"/>
+      <c r="B232" s="8"/>
     </row>
     <row r="233" ht="19" spans="1:2">
       <c r="A233" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B233" s="9"/>
+      <c r="B233" s="8"/>
     </row>
     <row r="234" ht="19" spans="1:2">
       <c r="A234" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B234" s="9"/>
+      <c r="B234" s="8"/>
     </row>
     <row r="235" ht="19" spans="1:2">
       <c r="A235" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B235" s="9"/>
+      <c r="B235" s="8"/>
     </row>
     <row r="236" ht="19" spans="1:2">
       <c r="A236" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B236" s="9"/>
+      <c r="B236" s="8"/>
     </row>
     <row r="237" ht="19" spans="1:2">
       <c r="A237" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B237" s="10"/>
+      <c r="B237" s="9"/>
     </row>
     <row r="238" ht="19" spans="1:2">
       <c r="A238" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B238" s="10"/>
+      <c r="B238" s="9"/>
     </row>
     <row r="239" ht="19" spans="1:2">
       <c r="A239" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B239" s="9"/>
+      <c r="B239" s="8"/>
     </row>
     <row r="240" ht="19" spans="1:2">
       <c r="A240" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B240" s="9"/>
+      <c r="B240" s="8"/>
     </row>
     <row r="241" ht="19" spans="1:2">
       <c r="A241" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="9"/>
+      <c r="B241" s="8"/>
     </row>
     <row r="242" ht="19" spans="1:3">
       <c r="A242" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B242" s="10"/>
-      <c r="C242" s="12" t="s">
+      <c r="B242" s="9"/>
+      <c r="C242" s="11" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3915,21 +3906,21 @@
       <c r="A243" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B243" s="10"/>
-      <c r="C243" s="13"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="11"/>
     </row>
     <row r="244" ht="19" spans="1:3">
       <c r="A244" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B244" s="10"/>
-      <c r="C244" s="13"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="11"/>
     </row>
     <row r="245" ht="19" spans="1:3">
       <c r="A245" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B245" s="10"/>
+      <c r="B245" s="9"/>
       <c r="C245" s="7" t="s">
         <v>257</v>
       </c>
@@ -3938,88 +3929,88 @@
       <c r="A246" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B246" s="10"/>
-      <c r="C246" s="8"/>
+      <c r="B246" s="9"/>
+      <c r="C246" s="7"/>
     </row>
     <row r="247" ht="19" spans="1:3">
       <c r="A247" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B247" s="10"/>
-      <c r="C247" s="8"/>
+      <c r="B247" s="9"/>
+      <c r="C247" s="7"/>
     </row>
     <row r="248" ht="19" spans="1:3">
       <c r="A248" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B248" s="10"/>
-      <c r="C248" s="8"/>
+      <c r="B248" s="9"/>
+      <c r="C248" s="7"/>
     </row>
     <row r="249" ht="19" spans="1:2">
       <c r="A249" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B249" s="9"/>
+      <c r="B249" s="8"/>
     </row>
     <row r="250" ht="19" spans="1:2">
       <c r="A250" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="9"/>
+      <c r="B250" s="8"/>
     </row>
     <row r="251" ht="19" spans="1:2">
       <c r="A251" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B251" s="9"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" ht="19" spans="1:2">
       <c r="A252" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B252" s="9"/>
+      <c r="B252" s="8"/>
     </row>
     <row r="253" ht="19" spans="1:2">
       <c r="A253" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B253" s="10"/>
+      <c r="B253" s="9"/>
     </row>
     <row r="254" ht="19" spans="1:2">
       <c r="A254" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B254" s="9"/>
+      <c r="B254" s="8"/>
     </row>
     <row r="255" ht="19" spans="1:2">
       <c r="A255" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B255" s="10"/>
+      <c r="B255" s="9"/>
     </row>
     <row r="256" ht="19" spans="1:2">
       <c r="A256" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B256" s="10"/>
+      <c r="B256" s="9"/>
     </row>
     <row r="257" ht="38" spans="1:2">
       <c r="A257" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B257" s="10"/>
+      <c r="B257" s="9"/>
     </row>
     <row r="258" ht="19" spans="1:2">
       <c r="A258" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B258" s="10"/>
+      <c r="B258" s="9"/>
     </row>
     <row r="259" ht="19" spans="1:3">
       <c r="A259" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B259" s="10"/>
+      <c r="B259" s="9"/>
       <c r="C259" s="7" t="s">
         <v>272</v>
       </c>
@@ -4028,72 +4019,72 @@
       <c r="A260" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B260" s="10"/>
-      <c r="C260" s="8"/>
-    </row>
-    <row r="261" ht="19" spans="1:3">
+      <c r="B260" s="9"/>
+      <c r="C260" s="7"/>
+    </row>
+    <row r="261" ht="38" spans="1:3">
       <c r="A261" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B261" s="10"/>
-      <c r="C261" s="8"/>
-    </row>
-    <row r="262" ht="19" spans="1:3">
+      <c r="B261" s="9"/>
+      <c r="C261" s="7"/>
+    </row>
+    <row r="262" ht="38" spans="1:3">
       <c r="A262" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B262" s="10"/>
-      <c r="C262" s="8"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="7"/>
     </row>
     <row r="263" ht="19" spans="1:3">
       <c r="A263" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B263" s="10"/>
-      <c r="C263" s="8"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="7"/>
     </row>
     <row r="264" ht="19" spans="1:3">
       <c r="A264" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B264" s="10"/>
-      <c r="C264" s="8"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="7"/>
     </row>
     <row r="265" ht="19" spans="1:2">
       <c r="A265" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B265" s="9"/>
+      <c r="B265" s="8"/>
     </row>
     <row r="266" ht="19" spans="1:2">
       <c r="A266" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B266" s="9"/>
+      <c r="B266" s="8"/>
     </row>
     <row r="267" ht="19" spans="1:2">
       <c r="A267" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B267" s="9"/>
+      <c r="B267" s="8"/>
     </row>
     <row r="268" ht="19" spans="1:2">
       <c r="A268" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B268" s="9"/>
+      <c r="B268" s="8"/>
     </row>
     <row r="269" ht="19" spans="1:2">
       <c r="A269" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B269" s="9"/>
+      <c r="B269" s="8"/>
     </row>
     <row r="270" ht="19" spans="1:3">
       <c r="A270" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B270" s="10"/>
+      <c r="B270" s="9"/>
       <c r="C270" s="7" t="s">
         <v>284</v>
       </c>
@@ -4102,119 +4093,119 @@
       <c r="A271" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B271" s="10"/>
-      <c r="C271" s="8"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="7"/>
     </row>
     <row r="272" ht="38" spans="1:3">
       <c r="A272" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B272" s="10"/>
-      <c r="C272" s="8"/>
+      <c r="B272" s="9"/>
+      <c r="C272" s="7"/>
     </row>
     <row r="273" ht="19" spans="1:3">
       <c r="A273" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B273" s="10"/>
-      <c r="C273" s="8"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="7"/>
     </row>
     <row r="274" ht="19" spans="1:3">
       <c r="A274" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B274" s="10"/>
-      <c r="C274" s="8"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="7"/>
     </row>
     <row r="275" ht="19" spans="1:2">
       <c r="A275" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B275" s="10"/>
+      <c r="B275" s="9"/>
     </row>
     <row r="276" ht="19" spans="1:2">
       <c r="A276" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B276" s="10"/>
+      <c r="B276" s="9"/>
     </row>
     <row r="277" ht="19" spans="1:2">
       <c r="A277" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B277" s="10"/>
+      <c r="B277" s="9"/>
     </row>
     <row r="278" ht="19" spans="1:2">
       <c r="A278" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B278" s="9"/>
+      <c r="B278" s="8"/>
     </row>
     <row r="279" ht="19" spans="1:2">
       <c r="A279" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B279" s="9"/>
+      <c r="B279" s="8"/>
     </row>
     <row r="280" ht="19" spans="1:2">
       <c r="A280" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B280" s="10"/>
+      <c r="B280" s="9"/>
     </row>
     <row r="281" ht="19" spans="1:2">
       <c r="A281" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B281" s="10"/>
+      <c r="B281" s="9"/>
     </row>
     <row r="282" ht="19" spans="1:2">
       <c r="A282" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B282" s="9"/>
+      <c r="B282" s="8"/>
     </row>
     <row r="283" ht="19" spans="1:2">
       <c r="A283" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B283" s="10"/>
+      <c r="B283" s="9"/>
     </row>
     <row r="284" ht="19" spans="1:2">
       <c r="A284" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B284" s="10"/>
+      <c r="B284" s="9"/>
     </row>
     <row r="285" ht="19" spans="1:2">
       <c r="A285" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B285" s="11"/>
+      <c r="B285" s="10"/>
     </row>
     <row r="286" ht="19" spans="1:2">
       <c r="A286" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B286" s="10"/>
+      <c r="B286" s="9"/>
     </row>
     <row r="287" ht="19" spans="1:2">
       <c r="A287" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B287" s="10"/>
+      <c r="B287" s="9"/>
     </row>
     <row r="288" ht="19" spans="1:2">
       <c r="A288" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B288" s="10"/>
+      <c r="B288" s="9"/>
     </row>
     <row r="289" ht="19" spans="1:3">
       <c r="A289" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B289" s="10"/>
+      <c r="B289" s="9"/>
       <c r="C289" s="7" t="s">
         <v>304</v>
       </c>
@@ -4223,33 +4214,33 @@
       <c r="A290" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B290" s="10"/>
-      <c r="C290" s="8"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="7"/>
     </row>
     <row r="291" ht="19" spans="1:3">
       <c r="A291" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B291" s="10"/>
-      <c r="C291" s="8"/>
+      <c r="B291" s="9"/>
+      <c r="C291" s="7"/>
     </row>
     <row r="292" ht="19" spans="1:2">
       <c r="A292" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B292" s="10"/>
+      <c r="B292" s="9"/>
     </row>
     <row r="293" ht="19" spans="1:2">
       <c r="A293" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B293" s="10"/>
+      <c r="B293" s="9"/>
     </row>
     <row r="294" ht="19" spans="1:2">
       <c r="A294" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B294" s="10"/>
+      <c r="B294" s="9"/>
     </row>
     <row r="295" ht="19" spans="1:1">
       <c r="A295" s="3" t="s">
@@ -4260,97 +4251,97 @@
       <c r="A296" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B296" s="9"/>
+      <c r="B296" s="8"/>
     </row>
     <row r="297" ht="19" spans="1:2">
       <c r="A297" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B297" s="9"/>
+      <c r="B297" s="8"/>
     </row>
     <row r="298" ht="19" spans="1:2">
       <c r="A298" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B298" s="9"/>
+      <c r="B298" s="8"/>
     </row>
     <row r="299" ht="19" spans="1:2">
       <c r="A299" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B299" s="9"/>
+      <c r="B299" s="8"/>
     </row>
     <row r="300" ht="19" spans="1:2">
       <c r="A300" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B300" s="9"/>
+      <c r="B300" s="8"/>
     </row>
     <row r="301" ht="19" spans="1:2">
       <c r="A301" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B301" s="9"/>
+      <c r="B301" s="8"/>
     </row>
     <row r="302" ht="19" spans="1:2">
       <c r="A302" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B302" s="9"/>
+      <c r="B302" s="8"/>
     </row>
     <row r="303" ht="38" spans="1:2">
       <c r="A303" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B303" s="9"/>
+      <c r="B303" s="8"/>
     </row>
     <row r="304" ht="38" spans="1:2">
       <c r="A304" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B304" s="9"/>
+      <c r="B304" s="8"/>
     </row>
     <row r="305" ht="19" spans="1:2">
       <c r="A305" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B305" s="10"/>
+      <c r="B305" s="9"/>
     </row>
     <row r="306" ht="38" spans="1:2">
       <c r="A306" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B306" s="10"/>
+      <c r="B306" s="9"/>
     </row>
     <row r="307" ht="38" spans="1:2">
       <c r="A307" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B307" s="10"/>
+      <c r="B307" s="9"/>
     </row>
     <row r="308" ht="19" spans="1:2">
       <c r="A308" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B308" s="10"/>
+      <c r="B308" s="9"/>
     </row>
     <row r="309" ht="19" spans="1:2">
       <c r="A309" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B309" s="9"/>
+      <c r="B309" s="8"/>
     </row>
     <row r="310" ht="19" spans="1:2">
       <c r="A310" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B310" s="9"/>
+      <c r="B310" s="8"/>
     </row>
     <row r="311" ht="19" spans="1:3">
       <c r="A311" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B311" s="10"/>
+      <c r="B311" s="9"/>
       <c r="C311" s="7" t="s">
         <v>253</v>
       </c>
@@ -4359,47 +4350,47 @@
       <c r="A312" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B312" s="10"/>
-      <c r="C312" s="8"/>
+      <c r="B312" s="9"/>
+      <c r="C312" s="7"/>
     </row>
     <row r="313" ht="19" spans="1:3">
       <c r="A313" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B313" s="10"/>
-      <c r="C313" s="8"/>
-    </row>
-    <row r="314" ht="19" spans="1:3">
+      <c r="B313" s="9"/>
+      <c r="C313" s="7"/>
+    </row>
+    <row r="314" ht="38" spans="1:3">
       <c r="A314" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B314" s="10"/>
-      <c r="C314" s="8"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="7"/>
     </row>
     <row r="315" ht="19" spans="1:3">
       <c r="A315" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B315" s="10"/>
-      <c r="C315" s="8"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="7"/>
     </row>
     <row r="316" ht="38" spans="1:2">
       <c r="A316" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B316" s="9"/>
-    </row>
-    <row r="317" ht="19" spans="1:2">
+      <c r="B316" s="8"/>
+    </row>
+    <row r="317" ht="38" spans="1:2">
       <c r="A317" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B317" s="9"/>
+      <c r="B317" s="8"/>
     </row>
     <row r="318" ht="19" spans="1:3">
       <c r="A318" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B318" s="10"/>
+      <c r="B318" s="9"/>
       <c r="C318" s="7" t="s">
         <v>334</v>
       </c>
@@ -4408,39 +4399,39 @@
       <c r="A319" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B319" s="10"/>
-      <c r="C319" s="8"/>
+      <c r="B319" s="9"/>
+      <c r="C319" s="7"/>
     </row>
     <row r="320" ht="19" spans="1:2">
       <c r="A320" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B320" s="10"/>
+      <c r="B320" s="9"/>
     </row>
     <row r="321" ht="38" spans="1:2">
       <c r="A321" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B321" s="9"/>
+      <c r="B321" s="8"/>
     </row>
     <row r="322" ht="38" spans="1:2">
       <c r="A322" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B322" s="9"/>
+      <c r="B322" s="8"/>
     </row>
     <row r="323" ht="19" spans="1:2">
       <c r="A323" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B323" s="9"/>
+      <c r="B323" s="8"/>
     </row>
     <row r="324" ht="19" spans="1:3">
       <c r="A324" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B324" s="10"/>
-      <c r="C324" s="14" t="s">
+      <c r="B324" s="9"/>
+      <c r="C324" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4448,51 +4439,51 @@
       <c r="A325" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C325" s="15"/>
+      <c r="C325" s="12"/>
     </row>
     <row r="326" ht="19" spans="1:3">
       <c r="A326" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B326" s="10"/>
+      <c r="B326" s="9"/>
       <c r="C326" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="327" ht="19" spans="1:3">
+    <row r="327" ht="38" spans="1:3">
       <c r="A327" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B327" s="10"/>
-      <c r="C327" s="8"/>
+      <c r="B327" s="9"/>
+      <c r="C327" s="7"/>
     </row>
     <row r="328" ht="19" spans="1:3">
       <c r="A328" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B328" s="10"/>
-      <c r="C328" s="8"/>
+      <c r="B328" s="9"/>
+      <c r="C328" s="7"/>
     </row>
     <row r="329" ht="19" spans="1:3">
       <c r="A329" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B329" s="10"/>
-      <c r="C329" s="8"/>
+      <c r="B329" s="9"/>
+      <c r="C329" s="7"/>
     </row>
     <row r="330" ht="19" spans="1:3">
       <c r="A330" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B330" s="10"/>
-      <c r="C330" s="8"/>
+      <c r="B330" s="9"/>
+      <c r="C330" s="7"/>
     </row>
     <row r="331" ht="19" spans="1:3">
       <c r="A331" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B331" s="10"/>
-      <c r="C331" s="8"/>
+      <c r="B331" s="9"/>
+      <c r="C331" s="7"/>
     </row>
     <row r="332" ht="19" spans="1:1">
       <c r="A332" s="3" t="s">
@@ -4503,145 +4494,145 @@
       <c r="A333" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B333" s="9"/>
+      <c r="B333" s="8"/>
     </row>
     <row r="334" ht="19" spans="1:2">
       <c r="A334" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B334" s="9"/>
+      <c r="B334" s="8"/>
     </row>
     <row r="335" ht="19" spans="1:2">
       <c r="A335" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B335" s="9"/>
+      <c r="B335" s="8"/>
     </row>
     <row r="336" ht="19" spans="1:2">
       <c r="A336" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B336" s="9"/>
+      <c r="B336" s="8"/>
     </row>
     <row r="337" ht="19" spans="1:2">
       <c r="A337" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B337" s="9"/>
+      <c r="B337" s="8"/>
     </row>
     <row r="338" ht="19" spans="1:2">
       <c r="A338" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B338" s="9"/>
+      <c r="B338" s="8"/>
     </row>
     <row r="339" ht="19" spans="1:2">
       <c r="A339" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B339" s="9"/>
+      <c r="B339" s="8"/>
     </row>
     <row r="340" ht="19" spans="1:2">
       <c r="A340" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B340" s="9"/>
+      <c r="B340" s="8"/>
     </row>
     <row r="341" ht="19" spans="1:2">
       <c r="A341" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B341" s="9"/>
+      <c r="B341" s="8"/>
     </row>
     <row r="342" ht="19" spans="1:2">
       <c r="A342" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B342" s="9"/>
+      <c r="B342" s="8"/>
     </row>
     <row r="343" ht="19" spans="1:2">
       <c r="A343" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B343" s="9"/>
+      <c r="B343" s="8"/>
     </row>
     <row r="344" ht="19" spans="1:2">
       <c r="A344" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B344" s="9"/>
+      <c r="B344" s="8"/>
     </row>
     <row r="345" ht="19" spans="1:2">
       <c r="A345" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B345" s="10"/>
+      <c r="B345" s="9"/>
     </row>
     <row r="346" ht="19" spans="1:2">
       <c r="A346" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B346" s="10"/>
+      <c r="B346" s="9"/>
     </row>
     <row r="347" ht="19" spans="1:2">
       <c r="A347" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B347" s="10"/>
+      <c r="B347" s="9"/>
     </row>
     <row r="348" ht="19" spans="1:2">
       <c r="A348" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B348" s="10"/>
+      <c r="B348" s="9"/>
     </row>
     <row r="349" ht="19" spans="1:2">
       <c r="A349" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B349" s="10"/>
+      <c r="B349" s="9"/>
     </row>
     <row r="350" ht="19" spans="1:2">
       <c r="A350" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B350" s="10"/>
+      <c r="B350" s="9"/>
     </row>
     <row r="351" ht="19" spans="1:2">
       <c r="A351" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B351" s="10"/>
+      <c r="B351" s="9"/>
     </row>
     <row r="352" ht="19" spans="1:2">
       <c r="A352" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B352" s="10"/>
+      <c r="B352" s="9"/>
     </row>
     <row r="353" ht="19" spans="1:2">
       <c r="A353" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B353" s="10"/>
+      <c r="B353" s="9"/>
     </row>
     <row r="354" ht="19" spans="1:2">
       <c r="A354" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B354" s="10"/>
+      <c r="B354" s="9"/>
     </row>
     <row r="355" ht="19" spans="1:2">
       <c r="A355" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B355" s="10"/>
+      <c r="B355" s="9"/>
     </row>
     <row r="356" ht="19" spans="1:2">
       <c r="A356" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B356" s="10"/>
+      <c r="B356" s="9"/>
     </row>
     <row r="357" ht="19" spans="1:1">
       <c r="A357" s="5" t="s">
@@ -4657,7 +4648,7 @@
       <c r="A359" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B359" s="10"/>
+      <c r="B359" s="9"/>
       <c r="C359" s="7" t="s">
         <v>377</v>
       </c>
@@ -4666,414 +4657,414 @@
       <c r="A360" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B360" s="10"/>
-      <c r="C360" s="8"/>
+      <c r="B360" s="9"/>
+      <c r="C360" s="7"/>
     </row>
     <row r="361" ht="19" spans="1:3">
       <c r="A361" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B361" s="10"/>
-      <c r="C361" s="8"/>
+      <c r="B361" s="9"/>
+      <c r="C361" s="7"/>
     </row>
     <row r="362" ht="19" spans="1:3">
       <c r="A362" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B362" s="10"/>
-      <c r="C362" s="8"/>
+      <c r="B362" s="9"/>
+      <c r="C362" s="7"/>
     </row>
     <row r="363" ht="19" spans="1:3">
       <c r="A363" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B363" s="10"/>
-      <c r="C363" s="8"/>
+      <c r="B363" s="9"/>
+      <c r="C363" s="7"/>
     </row>
     <row r="364" ht="19" spans="1:3">
       <c r="A364" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B364" s="10"/>
-      <c r="C364" s="8"/>
+      <c r="B364" s="9"/>
+      <c r="C364" s="7"/>
     </row>
     <row r="365" ht="19" spans="1:3">
       <c r="A365" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B365" s="10"/>
-      <c r="C365" s="8"/>
+      <c r="B365" s="9"/>
+      <c r="C365" s="7"/>
     </row>
     <row r="366" ht="19" spans="1:3">
       <c r="A366" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B366" s="10"/>
-      <c r="C366" s="8"/>
+      <c r="B366" s="9"/>
+      <c r="C366" s="7"/>
     </row>
     <row r="367" ht="19" spans="1:3">
       <c r="A367" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B367" s="10"/>
-      <c r="C367" s="8"/>
+      <c r="B367" s="9"/>
+      <c r="C367" s="7"/>
     </row>
     <row r="368" ht="19" spans="1:3">
       <c r="A368" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B368" s="10"/>
-      <c r="C368" s="8"/>
+      <c r="B368" s="9"/>
+      <c r="C368" s="7"/>
     </row>
     <row r="369" ht="19" spans="1:3">
       <c r="A369" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B369" s="10"/>
-      <c r="C369" s="8"/>
+      <c r="B369" s="9"/>
+      <c r="C369" s="7"/>
     </row>
     <row r="370" ht="19" spans="1:3">
       <c r="A370" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B370" s="10"/>
-      <c r="C370" s="8"/>
+      <c r="B370" s="9"/>
+      <c r="C370" s="7"/>
     </row>
     <row r="371" ht="19" spans="1:3">
       <c r="A371" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B371" s="10"/>
-      <c r="C371" s="8"/>
+      <c r="B371" s="9"/>
+      <c r="C371" s="7"/>
     </row>
     <row r="372" ht="19" spans="1:3">
       <c r="A372" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B372" s="10"/>
-      <c r="C372" s="8"/>
+      <c r="B372" s="9"/>
+      <c r="C372" s="7"/>
     </row>
     <row r="373" ht="19" spans="1:3">
       <c r="A373" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B373" s="10"/>
-      <c r="C373" s="8"/>
+      <c r="B373" s="9"/>
+      <c r="C373" s="7"/>
     </row>
     <row r="374" ht="19" spans="1:3">
       <c r="A374" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B374" s="10"/>
-      <c r="C374" s="8"/>
+      <c r="B374" s="9"/>
+      <c r="C374" s="7"/>
     </row>
     <row r="375" ht="19" spans="1:3">
       <c r="A375" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B375" s="10"/>
-      <c r="C375" s="8"/>
+      <c r="B375" s="9"/>
+      <c r="C375" s="7"/>
     </row>
     <row r="376" ht="19" spans="1:3">
       <c r="A376" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B376" s="10"/>
-      <c r="C376" s="8"/>
+      <c r="B376" s="9"/>
+      <c r="C376" s="7"/>
     </row>
     <row r="377" ht="19" spans="1:3">
       <c r="A377" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B377" s="10"/>
-      <c r="C377" s="8"/>
+      <c r="B377" s="9"/>
+      <c r="C377" s="7"/>
     </row>
     <row r="378" ht="19" spans="1:3">
       <c r="A378" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B378" s="10"/>
-      <c r="C378" s="8"/>
+      <c r="B378" s="9"/>
+      <c r="C378" s="7"/>
     </row>
     <row r="379" ht="19" spans="1:3">
       <c r="A379" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B379" s="10"/>
-      <c r="C379" s="8"/>
+      <c r="B379" s="9"/>
+      <c r="C379" s="7"/>
     </row>
     <row r="380" ht="19" spans="1:3">
       <c r="A380" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B380" s="10"/>
-      <c r="C380" s="8"/>
+      <c r="B380" s="9"/>
+      <c r="C380" s="7"/>
     </row>
     <row r="381" ht="19" spans="1:3">
       <c r="A381" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B381" s="10"/>
-      <c r="C381" s="8"/>
+      <c r="B381" s="9"/>
+      <c r="C381" s="7"/>
     </row>
     <row r="382" ht="19" spans="1:3">
       <c r="A382" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B382" s="10"/>
-      <c r="C382" s="8"/>
+      <c r="B382" s="9"/>
+      <c r="C382" s="7"/>
     </row>
     <row r="383" ht="19" spans="1:3">
       <c r="A383" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B383" s="10"/>
-      <c r="C383" s="8"/>
+      <c r="B383" s="9"/>
+      <c r="C383" s="7"/>
     </row>
     <row r="384" ht="19" spans="1:3">
       <c r="A384" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B384" s="10"/>
-      <c r="C384" s="8"/>
+      <c r="B384" s="9"/>
+      <c r="C384" s="7"/>
     </row>
     <row r="385" ht="19" spans="1:3">
       <c r="A385" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B385" s="10"/>
-      <c r="C385" s="8"/>
+      <c r="B385" s="9"/>
+      <c r="C385" s="7"/>
     </row>
     <row r="386" ht="19" spans="1:3">
       <c r="A386" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B386" s="10"/>
-      <c r="C386" s="8"/>
+      <c r="B386" s="9"/>
+      <c r="C386" s="7"/>
     </row>
     <row r="387" ht="19" spans="1:3">
       <c r="A387" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B387" s="10"/>
-      <c r="C387" s="8"/>
+      <c r="B387" s="9"/>
+      <c r="C387" s="7"/>
     </row>
     <row r="388" ht="19" spans="1:3">
       <c r="A388" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B388" s="10"/>
-      <c r="C388" s="8"/>
+      <c r="B388" s="9"/>
+      <c r="C388" s="7"/>
     </row>
     <row r="389" ht="19" spans="1:3">
       <c r="A389" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B389" s="10"/>
-      <c r="C389" s="8"/>
+      <c r="B389" s="9"/>
+      <c r="C389" s="7"/>
     </row>
     <row r="390" ht="19" spans="1:3">
       <c r="A390" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B390" s="10"/>
-      <c r="C390" s="8"/>
+      <c r="B390" s="9"/>
+      <c r="C390" s="7"/>
     </row>
     <row r="391" ht="19" spans="1:3">
       <c r="A391" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B391" s="10"/>
-      <c r="C391" s="8"/>
+      <c r="B391" s="9"/>
+      <c r="C391" s="7"/>
     </row>
     <row r="392" ht="19" spans="1:3">
       <c r="A392" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B392" s="10"/>
-      <c r="C392" s="8"/>
+      <c r="B392" s="9"/>
+      <c r="C392" s="7"/>
     </row>
     <row r="393" ht="19" spans="1:3">
       <c r="A393" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B393" s="10"/>
-      <c r="C393" s="8"/>
+      <c r="B393" s="9"/>
+      <c r="C393" s="7"/>
     </row>
     <row r="394" ht="19" spans="1:3">
       <c r="A394" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B394" s="10"/>
-      <c r="C394" s="8"/>
+      <c r="B394" s="9"/>
+      <c r="C394" s="7"/>
     </row>
     <row r="395" ht="19" spans="1:3">
       <c r="A395" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B395" s="10"/>
-      <c r="C395" s="8"/>
+      <c r="B395" s="9"/>
+      <c r="C395" s="7"/>
     </row>
     <row r="396" ht="38" spans="1:3">
       <c r="A396" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B396" s="10"/>
-      <c r="C396" s="8"/>
+      <c r="B396" s="9"/>
+      <c r="C396" s="7"/>
     </row>
     <row r="397" ht="19" spans="1:3">
       <c r="A397" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B397" s="10"/>
-      <c r="C397" s="8"/>
+      <c r="B397" s="9"/>
+      <c r="C397" s="7"/>
     </row>
     <row r="398" ht="19" spans="1:3">
       <c r="A398" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B398" s="10"/>
-      <c r="C398" s="8"/>
+      <c r="B398" s="9"/>
+      <c r="C398" s="7"/>
     </row>
     <row r="399" ht="19" spans="1:3">
       <c r="A399" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B399" s="10"/>
-      <c r="C399" s="8"/>
+      <c r="B399" s="9"/>
+      <c r="C399" s="7"/>
     </row>
     <row r="400" ht="19" spans="1:3">
       <c r="A400" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B400" s="10"/>
-      <c r="C400" s="8"/>
+      <c r="B400" s="9"/>
+      <c r="C400" s="7"/>
     </row>
     <row r="401" ht="19" spans="1:3">
       <c r="A401" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B401" s="10"/>
-      <c r="C401" s="8"/>
+      <c r="B401" s="9"/>
+      <c r="C401" s="7"/>
     </row>
     <row r="402" ht="19" spans="1:3">
       <c r="A402" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B402" s="10"/>
-      <c r="C402" s="8"/>
+      <c r="B402" s="9"/>
+      <c r="C402" s="7"/>
     </row>
     <row r="403" ht="19" spans="1:3">
       <c r="A403" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B403" s="10"/>
-      <c r="C403" s="8"/>
+      <c r="B403" s="9"/>
+      <c r="C403" s="7"/>
     </row>
     <row r="404" ht="19" spans="1:3">
       <c r="A404" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B404" s="10"/>
-      <c r="C404" s="8"/>
+      <c r="B404" s="9"/>
+      <c r="C404" s="7"/>
     </row>
     <row r="405" ht="19" spans="1:3">
       <c r="A405" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B405" s="10"/>
-      <c r="C405" s="8"/>
+      <c r="B405" s="9"/>
+      <c r="C405" s="7"/>
     </row>
     <row r="406" ht="19" spans="1:3">
       <c r="A406" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B406" s="10"/>
-      <c r="C406" s="8"/>
+      <c r="B406" s="9"/>
+      <c r="C406" s="7"/>
     </row>
     <row r="407" ht="19" spans="1:3">
       <c r="A407" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B407" s="10"/>
-      <c r="C407" s="8"/>
+      <c r="B407" s="9"/>
+      <c r="C407" s="7"/>
     </row>
     <row r="408" ht="19" spans="1:3">
       <c r="A408" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B408" s="10"/>
-      <c r="C408" s="8"/>
+      <c r="B408" s="9"/>
+      <c r="C408" s="7"/>
     </row>
     <row r="409" ht="19" spans="1:3">
       <c r="A409" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B409" s="10"/>
-      <c r="C409" s="8"/>
+      <c r="B409" s="9"/>
+      <c r="C409" s="7"/>
     </row>
     <row r="410" ht="19" spans="1:3">
       <c r="A410" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B410" s="10"/>
-      <c r="C410" s="8"/>
+      <c r="B410" s="9"/>
+      <c r="C410" s="7"/>
     </row>
     <row r="411" ht="19" spans="1:3">
       <c r="A411" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B411" s="10"/>
-      <c r="C411" s="8"/>
+      <c r="B411" s="9"/>
+      <c r="C411" s="7"/>
     </row>
     <row r="412" ht="19" spans="1:3">
       <c r="A412" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B412" s="10"/>
-      <c r="C412" s="8"/>
+      <c r="B412" s="9"/>
+      <c r="C412" s="7"/>
     </row>
     <row r="413" ht="19" spans="1:3">
       <c r="A413" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B413" s="10"/>
-      <c r="C413" s="8"/>
+      <c r="B413" s="9"/>
+      <c r="C413" s="7"/>
     </row>
     <row r="414" ht="19" spans="1:3">
       <c r="A414" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B414" s="10"/>
-      <c r="C414" s="8"/>
+      <c r="B414" s="9"/>
+      <c r="C414" s="7"/>
     </row>
     <row r="415" ht="19" spans="1:3">
       <c r="A415" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B415" s="10"/>
-      <c r="C415" s="8"/>
+      <c r="B415" s="9"/>
+      <c r="C415" s="7"/>
     </row>
     <row r="416" ht="19" spans="1:3">
       <c r="A416" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B416" s="10"/>
-      <c r="C416" s="8"/>
+      <c r="B416" s="9"/>
+      <c r="C416" s="7"/>
     </row>
     <row r="417" ht="19" spans="1:3">
       <c r="A417" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B417" s="10"/>
-      <c r="C417" s="8"/>
+      <c r="B417" s="9"/>
+      <c r="C417" s="7"/>
     </row>
     <row r="418" ht="19" spans="1:3">
       <c r="A418" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B418" s="10"/>
-      <c r="C418" s="8"/>
+      <c r="B418" s="9"/>
+      <c r="C418" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/功能支持.xlsx
+++ b/功能支持.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12320"/>
+    <workbookView windowWidth="30240" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="api" sheetId="1" r:id="rId1"/>
+    <sheet name="event" sheetId="2" r:id="rId2"/>
+    <sheet name="下一步计划" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="643">
   <si>
     <t>//IMediaEngine</t>
   </si>
@@ -193,6 +195,9 @@
     <t>enableVirtualBackground(enabled: boolean, backgroundSource: agorartc.VirtualBackgroundSource): number;</t>
   </si>
   <si>
+    <t>虚拟背景需要额外继承，先暂时不支持，如有必要，可以支持</t>
+  </si>
+  <si>
     <t>enableRemoteSuperResolution(userId: agorartc.uid_t, enable: boolean): number;</t>
   </si>
   <si>
@@ -1325,6 +1330,621 @@
   </si>
   <si>
     <t>setSoundPositionParams(playerId: number, pan: number, gain: number): number;</t>
+  </si>
+  <si>
+    <t>//IAudioEncodedFrameObserver</t>
+  </si>
+  <si>
+    <t>无法支持</t>
+  </si>
+  <si>
+    <t>void OnRecordAudioEncodedFrame(int const* frameBuffer, int length, agora::rtc::EncodedAudioFrameInfo const&amp; audioEncodedFrameInfo)</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>void OnPlaybackAudioEncodedFrame(int const* frameBuffer, int length, agora::rtc::EncodedAudioFrameInfo const&amp; audioEncodedFrameInfo)</t>
+  </si>
+  <si>
+    <t>可以触发，但是部分参数不是真实的值</t>
+  </si>
+  <si>
+    <t>void OnMixedAudioEncodedFrame(int const* frameBuffer, int length, agora::rtc::EncodedAudioFrameInfo const&amp; audioEncodedFrameInfo)</t>
+  </si>
+  <si>
+    <t>//IAudioFrameObserver</t>
+  </si>
+  <si>
+    <t>或许可以支持，但是目前没有支持</t>
+  </si>
+  <si>
+    <t>void onFrame(agora::media::base::AudioPcmFrame* frame)</t>
+  </si>
+  <si>
+    <t>//IVideoFrameObserver</t>
+  </si>
+  <si>
+    <t>触发带ex的</t>
+  </si>
+  <si>
+    <t>void onFrame(agora::media::base::VideoFrame const* frame)</t>
+  </si>
+  <si>
+    <t>bool isExternal()</t>
+  </si>
+  <si>
+    <t>bool onPlaybackAudioFrameBeforeMixing(char const* channelId, rtc::uid_t uid, agora::media::IAudioFrameObserverBase::AudioFrame&amp; audioFrame)</t>
+  </si>
+  <si>
+    <t>//IAudioSpectrumObserver</t>
+  </si>
+  <si>
+    <t>bool onLocalAudioSpectrum(agora::media::AudioSpectrumData const&amp; data)</t>
+  </si>
+  <si>
+    <t>bool onRemoteAudioSpectrum(agora::media::UserAudioSpectrumInfo const* spectrums, unsigned int spectrumNumber)</t>
+  </si>
+  <si>
+    <t>//IVideoEncodedFrameObserver</t>
+  </si>
+  <si>
+    <t>bool OnEncodedVideoFrame(rtc::uid_t uid, int const* imageBuffer, size_t length, rtc::EncodedVideoFrameInfo const&amp; videoEncodedFrameInfo)</t>
+  </si>
+  <si>
+    <t>bool onCaptureVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onPreEncodeVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onSecondaryCameraCaptureVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onSecondaryPreEncodeCameraVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onScreenCaptureVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onPreEncodeScreenVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onMediaPlayerVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame, int mediaPlayerId)</t>
+  </si>
+  <si>
+    <t>bool onSecondaryScreenCaptureVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onSecondaryPreEncodeScreenVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onRenderVideoFrame(char const* channelId, rtc::uid_t remoteUid, agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>bool onTranscodedVideoFrame(agora::media::IVideoFrameObserver::VideoFrame&amp; videoFrame)</t>
+  </si>
+  <si>
+    <t>agora::media::IVideoFrameObserver::VIDEO_FRAME_PROCESS_MODE getVideoFrameProcessMode()</t>
+  </si>
+  <si>
+    <t>base::VIDEO_PIXEL_FORMAT getVideoPixelFormatPreference()</t>
+  </si>
+  <si>
+    <t>bool getRotationApplied()</t>
+  </si>
+  <si>
+    <t>bool getMirrorApplied()</t>
+  </si>
+  <si>
+    <t>int getObservedFramePosition()</t>
+  </si>
+  <si>
+    <t>//IMediaPlayerCustomDataProvider</t>
+  </si>
+  <si>
+    <t>int onReadData(unsigned char* buf, int buf_size)</t>
+  </si>
+  <si>
+    <t>int64_t onSeek(int64_t offset, int whence)</t>
+  </si>
+  <si>
+    <t>//IMediaPlayerSourceObserver</t>
+  </si>
+  <si>
+    <t>void onPlayerSourceStateChanged(media::base::MEDIA_PLAYER_STATE state, media::base::MEDIA_PLAYER_ERROR ec)</t>
+  </si>
+  <si>
+    <t>void onPositionChanged(int64_t position)</t>
+  </si>
+  <si>
+    <t>void onPlayerEvent(media::base::MEDIA_PLAYER_EVENT eventCode, int64_t elapsedTime, char const* message)</t>
+  </si>
+  <si>
+    <t>void onMetaData(void const* data, int length)</t>
+  </si>
+  <si>
+    <t>void onPlayBufferUpdated(int64_t playCachedBuffer)</t>
+  </si>
+  <si>
+    <t>void onPreloadEvent(char const* src, media::base::PLAYER_PRELOAD_EVENT event)</t>
+  </si>
+  <si>
+    <t>void onCompleted()</t>
+  </si>
+  <si>
+    <t>void onAgoraCDNTokenWillExpire()</t>
+  </si>
+  <si>
+    <t>void onPlayerSrcInfoChanged(media::base::SrcInfo const&amp; from, media::base::SrcInfo const&amp; to)</t>
+  </si>
+  <si>
+    <t>void onPlayerInfoUpdated(media::base::PlayerUpdatedInfo const&amp; info)</t>
+  </si>
+  <si>
+    <t>void onAudioVolumeIndication(int volume)</t>
+  </si>
+  <si>
+    <t>//IRtcEngineEventHandler</t>
+  </si>
+  <si>
+    <t>void onJoinChannelSuccess(char const* channel, agora::rtc::uid_t uid, int elapsed)</t>
+  </si>
+  <si>
+    <t>触发的是带ex</t>
+  </si>
+  <si>
+    <t>void onRejoinChannelSuccess(char const* channel, agora::rtc::uid_t uid, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onWarning(int warn, char const* msg)</t>
+  </si>
+  <si>
+    <t>void onError(int err, char const* msg)</t>
+  </si>
+  <si>
+    <t>void onAudioQuality(agora::rtc::uid_t uid, int quality, unsigned short delay, unsigned short lost)</t>
+  </si>
+  <si>
+    <t>void onLastmileProbeResult(agora::rtc::LastmileProbeResult const&amp; result)</t>
+  </si>
+  <si>
+    <t>void onAudioVolumeIndication(agora::rtc::AudioVolumeInfo const* speakers, unsigned int speakerNumber, int totalVolume)</t>
+  </si>
+  <si>
+    <t>void onLeaveChannel(agora::rtc::RtcStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onRtcStats(agora::rtc::RtcStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onAudioDeviceStateChanged(char const* deviceId, int deviceType, int deviceState)</t>
+  </si>
+  <si>
+    <t>void onAudioMixingFinished()</t>
+  </si>
+  <si>
+    <t>void onAudioEffectFinished(int soundId)</t>
+  </si>
+  <si>
+    <t>void onVideoDeviceStateChanged(char const* deviceId, int deviceType, int deviceState)</t>
+  </si>
+  <si>
+    <t>void onMediaDeviceChanged(int deviceType)</t>
+  </si>
+  <si>
+    <t>void onNetworkQuality(agora::rtc::uid_t uid, int txQuality, int rxQuality)</t>
+  </si>
+  <si>
+    <t>void onIntraRequestReceived()</t>
+  </si>
+  <si>
+    <t>void onUplinkNetworkInfoUpdated(agora::rtc::UplinkNetworkInfo const&amp; info)</t>
+  </si>
+  <si>
+    <t>void onDownlinkNetworkInfoUpdated(agora::rtc::DownlinkNetworkInfo const&amp; info)</t>
+  </si>
+  <si>
+    <t>void onLastmileQuality(int quality)</t>
+  </si>
+  <si>
+    <t>void onFirstLocalVideoFrame(int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onFirstLocalVideoFramePublished(int elapsed)</t>
+  </si>
+  <si>
+    <t>void onVideoSourceFrameSizeChanged(agora::rtc::VIDEO_SOURCE_TYPE sourceType, int width, int height)</t>
+  </si>
+  <si>
+    <t>void onFirstRemoteVideoDecoded(agora::rtc::uid_t uid, int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onVideoSizeChanged(agora::rtc::uid_t uid, int width, int height, int rotation)</t>
+  </si>
+  <si>
+    <t>void onLocalVideoStateChanged(agora::rtc::LOCAL_VIDEO_STREAM_STATE state, agora::rtc::LOCAL_VIDEO_STREAM_ERROR error)</t>
+  </si>
+  <si>
+    <t>void onRemoteVideoStateChanged(agora::rtc::uid_t uid, agora::rtc::REMOTE_VIDEO_STATE state, agora::rtc::REMOTE_VIDEO_STATE_REASON reason, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onFirstRemoteVideoFrame(agora::rtc::uid_t userId, int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onUserJoined(agora::rtc::uid_t uid, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onUserOffline(agora::rtc::uid_t uid, agora::rtc::USER_OFFLINE_REASON_TYPE reason)</t>
+  </si>
+  <si>
+    <t>void onUserMuteAudio(agora::rtc::uid_t uid, bool muted)</t>
+  </si>
+  <si>
+    <t>void onUserMuteVideo(agora::rtc::uid_t userId, bool muted)</t>
+  </si>
+  <si>
+    <t>void onUserEnableVideo(agora::rtc::uid_t uid, bool enabled)</t>
+  </si>
+  <si>
+    <t>void onUserStateChanged(agora::rtc::uid_t uid, int state)</t>
+  </si>
+  <si>
+    <t>void onUserEnableLocalVideo(agora::rtc::uid_t uid, bool enabled)</t>
+  </si>
+  <si>
+    <t>void onApiCallExecuted(int err, char const* api, char const* result)</t>
+  </si>
+  <si>
+    <t>void onLocalAudioStats(agora::rtc::LocalAudioStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onRemoteAudioStats(agora::rtc::RemoteAudioStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onLocalVideoStats(agora::rtc::LocalVideoStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onRemoteVideoStats(agora::rtc::RemoteVideoStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onCameraReady()</t>
+  </si>
+  <si>
+    <t>void onCameraFocusAreaChanged(int x, int y, int width, int height)</t>
+  </si>
+  <si>
+    <t>void onCameraExposureAreaChanged(int x, int y, int width, int height)</t>
+  </si>
+  <si>
+    <t>void onFacePositionChanged(int imageWidth, int imageHeight, agora::rtc::Rectangle const* vecRectangle, int const* vecDistance, int numFaces)</t>
+  </si>
+  <si>
+    <t>void onVideoStopped()</t>
+  </si>
+  <si>
+    <t>void onAudioMixingStateChanged(agora::rtc::AUDIO_MIXING_STATE_TYPE state, agora::rtc::AUDIO_MIXING_ERROR_TYPE errorCode)</t>
+  </si>
+  <si>
+    <t>void onRhythmPlayerStateChanged(agora::rtc::RHYTHM_PLAYER_STATE_TYPE state, agora::rtc::RHYTHM_PLAYER_ERROR_TYPE errorCode)</t>
+  </si>
+  <si>
+    <t>void onConnectionLost()</t>
+  </si>
+  <si>
+    <t>void onConnectionInterrupted()</t>
+  </si>
+  <si>
+    <t>void onConnectionBanned()</t>
+  </si>
+  <si>
+    <t>void onStreamMessage(agora::rtc::uid_t userId, int streamId, char const* data, size_t length, int sentTs)</t>
+  </si>
+  <si>
+    <t>void onStreamMessageError(agora::rtc::uid_t userId, int streamId, int code, int missed, int cached)</t>
+  </si>
+  <si>
+    <t>void onRequestToken()</t>
+  </si>
+  <si>
+    <t>void onTokenPrivilegeWillExpire(char const* token)</t>
+  </si>
+  <si>
+    <t>void onFirstLocalAudioFramePublished(int elapsed)</t>
+  </si>
+  <si>
+    <t>void onFirstRemoteAudioFrame(agora::rtc::uid_t uid, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onFirstRemoteAudioDecoded(agora::rtc::uid_t uid, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onLocalAudioStateChanged(agora::rtc::LOCAL_AUDIO_STREAM_STATE state, agora::rtc::LOCAL_AUDIO_STREAM_ERROR error)</t>
+  </si>
+  <si>
+    <t>void onRemoteAudioStateChanged(agora::rtc::uid_t uid, agora::rtc::REMOTE_AUDIO_STATE state, agora::rtc::REMOTE_AUDIO_STATE_REASON reason, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onActiveSpeaker(agora::rtc::uid_t userId)</t>
+  </si>
+  <si>
+    <t>void onContentInspectResult(media::CONTENT_INSPECT_RESULT result)</t>
+  </si>
+  <si>
+    <t>void onSnapshotTaken(char const* channel, agora::rtc::uid_t uid, char const* filePath, int width, int height, int errCode)</t>
+  </si>
+  <si>
+    <t>void onClientRoleChanged(agora::rtc::CLIENT_ROLE_TYPE oldRole, agora::rtc::CLIENT_ROLE_TYPE newRole)</t>
+  </si>
+  <si>
+    <t>void onClientRoleChangeFailed(agora::rtc::CLIENT_ROLE_CHANGE_FAILED_REASON reason, agora::rtc::CLIENT_ROLE_TYPE currentRole)</t>
+  </si>
+  <si>
+    <t>void onAudioDeviceVolumeChanged(agora::rtc::MEDIA_DEVICE_TYPE deviceType, int volume, bool muted)</t>
+  </si>
+  <si>
+    <t>void onRtmpStreamingStateChanged(char const* url, agora::rtc::RTMP_STREAM_PUBLISH_STATE state, agora::rtc::RTMP_STREAM_PUBLISH_ERROR_TYPE errCode)</t>
+  </si>
+  <si>
+    <t>void onRtmpStreamingEvent(char const* url, agora::rtc::RTMP_STREAMING_EVENT eventCode)</t>
+  </si>
+  <si>
+    <t>void onStreamPublished(char const* url, int error)</t>
+  </si>
+  <si>
+    <t>void onStreamUnpublished(char const* url)</t>
+  </si>
+  <si>
+    <t>void onTranscodingUpdated()</t>
+  </si>
+  <si>
+    <t>void onAudioRoutingChanged(int routing)</t>
+  </si>
+  <si>
+    <t>void onChannelMediaRelayStateChanged(int state, int code)</t>
+  </si>
+  <si>
+    <t>void onChannelMediaRelayEvent(int code)</t>
+  </si>
+  <si>
+    <t>void onLocalPublishFallbackToAudioOnly(bool isFallbackOrRecover)</t>
+  </si>
+  <si>
+    <t>void onRemoteSubscribeFallbackToAudioOnly(agora::rtc::uid_t uid, bool isFallbackOrRecover)</t>
+  </si>
+  <si>
+    <t>void onRemoteAudioTransportStats(agora::rtc::uid_t uid, unsigned short delay, unsigned short lost, unsigned short rxKBitRate)</t>
+  </si>
+  <si>
+    <t>void onRemoteVideoTransportStats(agora::rtc::uid_t uid, unsigned short delay, unsigned short lost, unsigned short rxKBitRate)</t>
+  </si>
+  <si>
+    <t>void onConnectionStateChanged(agora::rtc::CONNECTION_STATE_TYPE state, agora::rtc::CONNECTION_CHANGED_REASON_TYPE reason)</t>
+  </si>
+  <si>
+    <t>void onNetworkTypeChanged(agora::rtc::NETWORK_TYPE type)</t>
+  </si>
+  <si>
+    <t>void onEncryptionError(agora::rtc::ENCRYPTION_ERROR_TYPE errorType)</t>
+  </si>
+  <si>
+    <t>void onPermissionError(agora::rtc::PERMISSION_TYPE permissionType)</t>
+  </si>
+  <si>
+    <t>void onLocalUserRegistered(agora::rtc::uid_t uid, char const* userAccount)</t>
+  </si>
+  <si>
+    <t>因为不支持String uid</t>
+  </si>
+  <si>
+    <t>void onUserInfoUpdated(agora::rtc::uid_t uid, agora::rtc::UserInfo const&amp; info)</t>
+  </si>
+  <si>
+    <t>void onUploadLogResult(char const* requestId, bool success, agora::rtc::UPLOAD_ERROR_REASON reason)</t>
+  </si>
+  <si>
+    <t>void onAudioSubscribeStateChanged(char const* channel, agora::rtc::uid_t uid, agora::rtc::STREAM_SUBSCRIBE_STATE oldState, agora::rtc::STREAM_SUBSCRIBE_STATE newState, int elapseSinceLastState)</t>
+  </si>
+  <si>
+    <t>void onVideoSubscribeStateChanged(char const* channel, agora::rtc::uid_t uid, agora::rtc::STREAM_SUBSCRIBE_STATE oldState, agora::rtc::STREAM_SUBSCRIBE_STATE newState, int elapseSinceLastState)</t>
+  </si>
+  <si>
+    <t>void onAudioPublishStateChanged(char const* channel, agora::rtc::STREAM_PUBLISH_STATE oldState, agora::rtc::STREAM_PUBLISH_STATE newState, int elapseSinceLastState)</t>
+  </si>
+  <si>
+    <t>void onVideoPublishStateChanged(char const* channel, agora::rtc::STREAM_PUBLISH_STATE oldState, agora::rtc::STREAM_PUBLISH_STATE newState, int elapseSinceLastState)</t>
+  </si>
+  <si>
+    <t>void onExtensionEvent(char const* provider, char const* ext_name, char const* key, char const* value)</t>
+  </si>
+  <si>
+    <t>void onExtensionStarted(char const* provider, char const* ext_name)</t>
+  </si>
+  <si>
+    <t>void onExtensionStopped(char const* provider, char const* ext_name)</t>
+  </si>
+  <si>
+    <t>void onExtensionErrored(char const* provider, char const* ext_name, int error, char const* msg)</t>
+  </si>
+  <si>
+    <t>void onUserAccountUpdated(agora::rtc::uid_t uid, char const* userAccount)</t>
+  </si>
+  <si>
+    <t>//IRtcEngineEventHandlerEx</t>
+  </si>
+  <si>
+    <t>void onJoinChannelSuccessEx(agora::rtc::RtcConnection const&amp; connection, int elapsed)</t>
+  </si>
+  <si>
+    <t>elapsed始终为0</t>
+  </si>
+  <si>
+    <t>void onRejoinChannelSuccessEx(agora::rtc::RtcConnection const&amp; connection, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onAudioQualityEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, int quality, unsigned short delay, unsigned short lost)</t>
+  </si>
+  <si>
+    <t>void onAudioVolumeIndicationEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::AudioVolumeInfo const* speakers, unsigned int speakerNumber, int totalVolume)</t>
+  </si>
+  <si>
+    <t>totalVolume 参数始终为0</t>
+  </si>
+  <si>
+    <t>void onLeaveChannelEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::RtcStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>stats里的数据都是空值</t>
+  </si>
+  <si>
+    <t>void onRtcStatsEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::RtcStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onNetworkQualityEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, int txQuality, int rxQuality)</t>
+  </si>
+  <si>
+    <t>void onIntraRequestReceivedEx(agora::rtc::RtcConnection const&amp; connection)</t>
+  </si>
+  <si>
+    <t>void onFirstLocalVideoFrameEx(agora::rtc::RtcConnection const&amp; connection, int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onFirstLocalVideoFramePublishedEx(agora::rtc::RtcConnection const&amp; connection, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onVideoSourceFrameSizeChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::VIDEO_SOURCE_TYPE sourceType, int width, int height)</t>
+  </si>
+  <si>
+    <t>void onFirstRemoteVideoDecodedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onVideoSizeChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t uid, int width, int height, int rotation)</t>
+  </si>
+  <si>
+    <t>void onSnapshotTakenEx(agora::rtc::RtcConnection const&amp; connection, char const* filePath, int width, int height, int errCode)</t>
+  </si>
+  <si>
+    <t>网页截图下载在download上</t>
+  </si>
+  <si>
+    <t>void onLocalVideoStateChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::LOCAL_VIDEO_STREAM_STATE state, agora::rtc::LOCAL_VIDEO_STREAM_ERROR errorCode)</t>
+  </si>
+  <si>
+    <t>void onRemoteVideoStateChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, agora::rtc::REMOTE_VIDEO_STATE state, agora::rtc::REMOTE_VIDEO_STATE_REASON reason, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onFirstRemoteVideoFrameEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onUserJoinedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onUserOfflineEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, agora::rtc::USER_OFFLINE_REASON_TYPE reason)</t>
+  </si>
+  <si>
+    <t>void onUserMuteAudioEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, bool muted)</t>
+  </si>
+  <si>
+    <t>void onUserMuteVideoEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, bool muted)</t>
+  </si>
+  <si>
+    <t>void onUserEnableVideoEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, bool enabled)</t>
+  </si>
+  <si>
+    <t>void onUserEnableLocalVideoEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, bool enabled)</t>
+  </si>
+  <si>
+    <t>void onUserStateChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, int state)</t>
+  </si>
+  <si>
+    <t>void onLocalAudioStatsEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::LocalAudioStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onRemoteAudioStatsEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::RemoteAudioStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onLocalVideoStatsEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::LocalVideoStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onRemoteVideoStatsEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::RemoteVideoStats const&amp; stats)</t>
+  </si>
+  <si>
+    <t>void onConnectionLostEx(agora::rtc::RtcConnection const&amp; connection)</t>
+  </si>
+  <si>
+    <t>void onConnectionInterruptedEx(agora::rtc::RtcConnection const&amp; connection)</t>
+  </si>
+  <si>
+    <t>void onConnectionBannedEx(agora::rtc::RtcConnection const&amp; connection)</t>
+  </si>
+  <si>
+    <t>void onStreamMessageEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, int streamId, char const* data, size_t length, int sentTs)</t>
+  </si>
+  <si>
+    <t>void onStreamMessageErrorEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, int streamId, int code, int missed, int cached)</t>
+  </si>
+  <si>
+    <t>void onRequestTokenEx(agora::rtc::RtcConnection const&amp; connection)</t>
+  </si>
+  <si>
+    <t>void onTokenPrivilegeWillExpireEx(agora::rtc::RtcConnection const&amp; connection, char const* token)</t>
+  </si>
+  <si>
+    <t>void onFirstLocalAudioFramePublishedEx(agora::rtc::RtcConnection const&amp; connection, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onFirstRemoteAudioFrameEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t userId, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onFirstRemoteAudioDecodedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t uid, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onLocalAudioStateChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::LOCAL_AUDIO_STREAM_STATE state, agora::rtc::LOCAL_AUDIO_STREAM_ERROR error)</t>
+  </si>
+  <si>
+    <t>void onRemoteAudioStateChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, agora::rtc::REMOTE_AUDIO_STATE state, agora::rtc::REMOTE_AUDIO_STATE_REASON reason, int elapsed)</t>
+  </si>
+  <si>
+    <t>void onActiveSpeakerEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t uid)</t>
+  </si>
+  <si>
+    <t>void onClientRoleChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::CLIENT_ROLE_TYPE oldRole, agora::rtc::CLIENT_ROLE_TYPE newRole)</t>
+  </si>
+  <si>
+    <t>void onClientRoleChangeFailedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::CLIENT_ROLE_CHANGE_FAILED_REASON reason, agora::rtc::CLIENT_ROLE_TYPE currentRole)</t>
+  </si>
+  <si>
+    <t>void onRemoteAudioTransportStatsEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, unsigned short delay, unsigned short lost, unsigned short rxKBitRate)</t>
+  </si>
+  <si>
+    <t>void onRemoteVideoTransportStatsEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, unsigned short delay, unsigned short lost, unsigned short rxKBitRate)</t>
+  </si>
+  <si>
+    <t>void onConnectionStateChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::CONNECTION_STATE_TYPE state, agora::rtc::CONNECTION_CHANGED_REASON_TYPE reason)</t>
+  </si>
+  <si>
+    <t>void onNetworkTypeChangedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::NETWORK_TYPE type)</t>
+  </si>
+  <si>
+    <t>void onEncryptionErrorEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::ENCRYPTION_ERROR_TYPE errorType)</t>
+  </si>
+  <si>
+    <t>errorType 始终为 ENCRYPTION_ERROR_INTERNAL_FAILURE</t>
+  </si>
+  <si>
+    <t>void onUploadLogResultEx(agora::rtc::RtcConnection const&amp; connection, char const* requestId, bool success, agora::rtc::UPLOAD_ERROR_REASON reason)</t>
+  </si>
+  <si>
+    <t>void onUserAccountUpdatedEx(agora::rtc::RtcConnection const&amp; connection, agora::rtc::uid_t remoteUid, char const* userAccount)</t>
+  </si>
+  <si>
+    <t>1.重构一下代码</t>
+  </si>
+  <si>
+    <t>2.js端，C#，API ExampLe适配 4.0.0版本</t>
+  </si>
+  <si>
+    <t>3.追加UT</t>
   </si>
 </sst>
 </file>
@@ -1332,15 +1952,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1364,22 +2004,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,21 +2012,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,6 +2027,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1438,18 +2055,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1468,9 +2086,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1483,31 +2132,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1540,31 +2180,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,49 +2246,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,7 +2276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +2288,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,13 +2318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +2348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,36 +2360,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1730,9 +2376,85 @@
     <border>
       <left/>
       <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1760,259 +2482,263 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2332,2744 +3058,2747 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="148.366071428571" customWidth="1"/>
-    <col min="2" max="2" width="11.0089285714286" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.0089285714286" style="20" customWidth="1"/>
+    <col min="3" max="3" width="51.0357142857143" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="19" spans="1:3">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="20" spans="1:3">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="19" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="20" spans="1:3">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" ht="19" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" ht="20" spans="1:3">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" ht="38" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" ht="20" spans="1:3">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" ht="19" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" ht="20" spans="1:3">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" ht="19" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" ht="20" spans="1:3">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" ht="19" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" ht="20" spans="1:3">
+      <c r="A8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" ht="19" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" ht="20" spans="1:3">
+      <c r="A9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" ht="38" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" ht="40" spans="1:3">
+      <c r="A10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" ht="38" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" ht="40" spans="1:3">
+      <c r="A11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" ht="19" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" ht="20" spans="1:3">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" ht="19" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" ht="20" spans="1:3">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" ht="19" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" ht="20" spans="1:3">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" ht="38" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" ht="40" spans="1:3">
+      <c r="A15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" ht="19" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" ht="20" spans="1:1">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="19" spans="1:2">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="20" spans="1:2">
+      <c r="A17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" ht="19" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18" ht="20" spans="1:2">
+      <c r="A18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" ht="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="28"/>
+    </row>
+    <row r="19" ht="20" spans="1:2">
+      <c r="A19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" ht="19" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20" ht="20" spans="1:2">
+      <c r="A20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" ht="19" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" ht="20" spans="1:2">
+      <c r="A21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" ht="19" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" ht="20" spans="1:2">
+      <c r="A22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" ht="19" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" ht="20" spans="1:2">
+      <c r="A23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" ht="19" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" ht="20" spans="1:1">
+      <c r="A24" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" ht="19" spans="1:2">
-      <c r="A25" s="5" t="s">
+    <row r="25" ht="20" spans="1:2">
+      <c r="A25" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" ht="19" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" ht="20" spans="1:2">
+      <c r="A26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" ht="19" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" ht="20" spans="1:2">
+      <c r="A27" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" ht="19" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28" ht="20" spans="1:2">
+      <c r="A28" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" ht="19" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" ht="20" spans="1:2">
+      <c r="A29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" ht="19" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="28"/>
+    </row>
+    <row r="30" ht="20" spans="1:2">
+      <c r="A30" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" ht="19" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31" ht="20" spans="1:2">
+      <c r="A31" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" ht="19" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" ht="20" spans="1:2">
+      <c r="A32" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" ht="19" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="28"/>
+    </row>
+    <row r="33" ht="20" spans="1:2">
+      <c r="A33" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" ht="19" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="28"/>
+    </row>
+    <row r="34" ht="20" spans="1:2">
+      <c r="A34" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" ht="19" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="B34" s="28"/>
+    </row>
+    <row r="35" ht="20" spans="1:2">
+      <c r="A35" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" ht="19" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="28"/>
+    </row>
+    <row r="36" ht="20" spans="1:2">
+      <c r="A36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" ht="19" spans="1:2">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="28"/>
+    </row>
+    <row r="37" ht="20" spans="1:2">
+      <c r="A37" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" ht="19" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="28"/>
+    </row>
+    <row r="38" ht="20" spans="1:2">
+      <c r="A38" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" ht="19" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="29"/>
+    </row>
+    <row r="39" ht="20" spans="1:2">
+      <c r="A39" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" ht="19" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="29"/>
+    </row>
+    <row r="40" ht="20" spans="1:2">
+      <c r="A40" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" ht="19" spans="1:2">
-      <c r="A41" s="5" t="s">
+      <c r="B40" s="29"/>
+    </row>
+    <row r="41" ht="20" spans="1:2">
+      <c r="A41" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" ht="19" spans="1:2">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="29"/>
+    </row>
+    <row r="42" ht="20" spans="1:2">
+      <c r="A42" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" ht="19" spans="1:2">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="28"/>
+    </row>
+    <row r="43" ht="20" spans="1:2">
+      <c r="A43" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" ht="19" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="28"/>
+    </row>
+    <row r="44" ht="20" spans="1:2">
+      <c r="A44" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="8"/>
-    </row>
-    <row r="45" ht="19" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="28"/>
+    </row>
+    <row r="45" ht="20" spans="1:2">
+      <c r="A45" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" ht="19" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="28"/>
+    </row>
+    <row r="46" ht="20" spans="1:2">
+      <c r="A46" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" ht="19" spans="1:2">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="28"/>
+    </row>
+    <row r="47" ht="20" spans="1:2">
+      <c r="A47" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" ht="19" spans="1:2">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="28"/>
+    </row>
+    <row r="48" ht="20" spans="1:2">
+      <c r="A48" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" ht="19" spans="1:2">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="29"/>
+    </row>
+    <row r="49" ht="20" spans="1:2">
+      <c r="A49" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" ht="19" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="B49" s="29"/>
+    </row>
+    <row r="50" ht="20" spans="1:2">
+      <c r="A50" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" ht="19" spans="1:3">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="30"/>
+    </row>
+    <row r="51" ht="20" spans="1:3">
+      <c r="A51" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" ht="38" spans="1:3">
-      <c r="A52" s="5" t="s">
+    <row r="52" ht="40" spans="1:3">
+      <c r="A52" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" ht="38" spans="1:3">
-      <c r="A53" s="5" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="31"/>
+    </row>
+    <row r="53" ht="40" spans="1:3">
+      <c r="A53" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" ht="38" spans="1:3">
-      <c r="A54" s="5" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="32"/>
+    </row>
+    <row r="54" ht="40" spans="1:3">
+      <c r="A54" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" ht="19" spans="1:3">
-      <c r="A55" s="5" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="32"/>
+    </row>
+    <row r="55" ht="36" spans="1:3">
+      <c r="A55" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" ht="19" spans="1:3">
-      <c r="A56" s="5" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" ht="19" spans="1:3">
-      <c r="A57" s="5" t="s">
+    </row>
+    <row r="56" ht="20" spans="1:3">
+      <c r="A56" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" ht="19" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="32"/>
+    </row>
+    <row r="57" ht="20" spans="1:3">
+      <c r="A57" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" ht="19" spans="1:2">
-      <c r="A59" s="5" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="32"/>
+    </row>
+    <row r="58" ht="20" spans="1:3">
+      <c r="A58" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" ht="19" spans="1:2">
-      <c r="A60" s="5" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="32"/>
+    </row>
+    <row r="59" ht="20" spans="1:2">
+      <c r="A59" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" ht="19" spans="1:2">
-      <c r="A61" s="5" t="s">
+      <c r="B59" s="28"/>
+    </row>
+    <row r="60" ht="20" spans="1:2">
+      <c r="A60" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" ht="19" spans="1:2">
-      <c r="A62" s="5" t="s">
+      <c r="B60" s="28"/>
+    </row>
+    <row r="61" ht="20" spans="1:2">
+      <c r="A61" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" ht="19" spans="1:2">
-      <c r="A63" s="5" t="s">
+      <c r="B61" s="28"/>
+    </row>
+    <row r="62" ht="20" spans="1:2">
+      <c r="A62" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" ht="19" spans="1:2">
-      <c r="A64" s="5" t="s">
+      <c r="B62" s="28"/>
+    </row>
+    <row r="63" ht="20" spans="1:2">
+      <c r="A63" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="8"/>
-    </row>
-    <row r="65" ht="19" spans="1:2">
-      <c r="A65" s="5" t="s">
+      <c r="B63" s="28"/>
+    </row>
+    <row r="64" ht="20" spans="1:2">
+      <c r="A64" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" ht="19" spans="1:2">
-      <c r="A66" s="5" t="s">
+      <c r="B64" s="28"/>
+    </row>
+    <row r="65" ht="20" spans="1:2">
+      <c r="A65" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" ht="19" spans="1:2">
-      <c r="A67" s="5" t="s">
+      <c r="B65" s="28"/>
+    </row>
+    <row r="66" ht="20" spans="1:2">
+      <c r="A66" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="8"/>
-    </row>
-    <row r="68" ht="19" spans="1:2">
-      <c r="A68" s="5" t="s">
+      <c r="B66" s="28"/>
+    </row>
+    <row r="67" ht="20" spans="1:2">
+      <c r="A67" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="8"/>
-    </row>
-    <row r="69" ht="19" spans="1:2">
-      <c r="A69" s="5" t="s">
+      <c r="B67" s="28"/>
+    </row>
+    <row r="68" ht="20" spans="1:2">
+      <c r="A68" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" ht="19" spans="1:2">
-      <c r="A70" s="5" t="s">
+      <c r="B68" s="28"/>
+    </row>
+    <row r="69" ht="20" spans="1:2">
+      <c r="A69" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="8"/>
-    </row>
-    <row r="71" ht="19" spans="1:2">
-      <c r="A71" s="5" t="s">
+      <c r="B69" s="28"/>
+    </row>
+    <row r="70" ht="20" spans="1:2">
+      <c r="A70" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" ht="19" spans="1:2">
-      <c r="A72" s="5" t="s">
+      <c r="B70" s="28"/>
+    </row>
+    <row r="71" ht="20" spans="1:2">
+      <c r="A71" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" ht="19" spans="1:2">
-      <c r="A73" s="5" t="s">
+      <c r="B71" s="28"/>
+    </row>
+    <row r="72" ht="20" spans="1:2">
+      <c r="A72" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="8"/>
-    </row>
-    <row r="74" ht="19" spans="1:2">
-      <c r="A74" s="5" t="s">
+      <c r="B72" s="28"/>
+    </row>
+    <row r="73" ht="20" spans="1:2">
+      <c r="A73" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="8"/>
-    </row>
-    <row r="75" ht="19" spans="1:2">
-      <c r="A75" s="5" t="s">
+      <c r="B73" s="28"/>
+    </row>
+    <row r="74" ht="20" spans="1:2">
+      <c r="A74" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" ht="19" spans="1:2">
-      <c r="A76" s="5" t="s">
+      <c r="B74" s="28"/>
+    </row>
+    <row r="75" ht="20" spans="1:2">
+      <c r="A75" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" ht="19" spans="1:2">
-      <c r="A77" s="5" t="s">
+      <c r="B75" s="28"/>
+    </row>
+    <row r="76" ht="20" spans="1:2">
+      <c r="A76" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" ht="19" spans="1:3">
-      <c r="A78" s="5" t="s">
+      <c r="B76" s="28"/>
+    </row>
+    <row r="77" ht="20" spans="1:2">
+      <c r="A77" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="7" t="s">
+      <c r="B77" s="28"/>
+    </row>
+    <row r="78" ht="20" spans="1:3">
+      <c r="A78" s="25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="79" ht="19" spans="1:3">
-      <c r="A79" s="5" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" ht="19" spans="1:3">
-      <c r="A80" s="5" t="s">
+    </row>
+    <row r="79" ht="20" spans="1:3">
+      <c r="A79" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" ht="38" spans="1:3">
-      <c r="A81" s="5" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" ht="20" spans="1:3">
+      <c r="A80" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" ht="19" spans="1:3">
-      <c r="A82" s="5" t="s">
+      <c r="B80" s="29"/>
+      <c r="C80" s="27"/>
+    </row>
+    <row r="81" ht="40" spans="1:3">
+      <c r="A81" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" ht="19" spans="1:3">
-      <c r="A83" s="5" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="27"/>
+    </row>
+    <row r="82" ht="20" spans="1:3">
+      <c r="A82" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="7" t="s">
+      <c r="B82" s="29"/>
+      <c r="C82" s="27"/>
+    </row>
+    <row r="83" ht="20" spans="1:3">
+      <c r="A83" s="25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" ht="19" spans="1:3">
-      <c r="A84" s="5" t="s">
+      <c r="B83" s="29"/>
+      <c r="C83" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" ht="19" spans="1:3">
-      <c r="A85" s="5" t="s">
+    </row>
+    <row r="84" ht="20" spans="1:3">
+      <c r="A84" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="7" t="s">
+      <c r="B84" s="29"/>
+      <c r="C84" s="27"/>
+    </row>
+    <row r="85" ht="20" spans="1:3">
+      <c r="A85" s="25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" ht="19" spans="1:3">
-      <c r="A86" s="5" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" ht="19" spans="1:3">
-      <c r="A87" s="5" t="s">
+    </row>
+    <row r="86" ht="20" spans="1:3">
+      <c r="A86" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" ht="19" spans="1:3">
-      <c r="A88" s="5" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="27"/>
+    </row>
+    <row r="87" ht="20" spans="1:3">
+      <c r="A87" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" ht="19" spans="1:3">
-      <c r="A89" s="5" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="27"/>
+    </row>
+    <row r="88" ht="20" spans="1:3">
+      <c r="A88" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" ht="19" spans="1:3">
-      <c r="A90" s="5" t="s">
+      <c r="B88" s="29"/>
+      <c r="C88" s="27"/>
+    </row>
+    <row r="89" ht="20" spans="1:3">
+      <c r="A89" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="7"/>
-    </row>
-    <row r="91" ht="19" spans="1:3">
-      <c r="A91" s="5" t="s">
+      <c r="B89" s="29"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" ht="20" spans="1:3">
+      <c r="A90" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" ht="19" spans="1:3">
-      <c r="A92" s="5" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" ht="20" spans="1:3">
+      <c r="A91" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" ht="19" spans="1:3">
-      <c r="A93" s="5" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="27"/>
+    </row>
+    <row r="92" ht="20" spans="1:3">
+      <c r="A92" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" ht="19" spans="1:3">
-      <c r="A94" s="5" t="s">
+      <c r="B92" s="29"/>
+      <c r="C92" s="27"/>
+    </row>
+    <row r="93" ht="20" spans="1:3">
+      <c r="A93" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="7"/>
-    </row>
-    <row r="95" ht="19" spans="1:3">
-      <c r="A95" s="5" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="27"/>
+    </row>
+    <row r="94" ht="20" spans="1:3">
+      <c r="A94" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" ht="19" spans="1:3">
-      <c r="A96" s="5" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="27"/>
+    </row>
+    <row r="95" ht="20" spans="1:3">
+      <c r="A95" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" ht="19" spans="1:3">
-      <c r="A97" s="5" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="27"/>
+    </row>
+    <row r="96" ht="20" spans="1:3">
+      <c r="A96" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" ht="19" spans="1:3">
-      <c r="A98" s="5" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="27"/>
+    </row>
+    <row r="97" ht="20" spans="1:3">
+      <c r="A97" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" ht="19" spans="1:3">
-      <c r="A99" s="5" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="27"/>
+    </row>
+    <row r="98" ht="20" spans="1:3">
+      <c r="A98" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" ht="19" spans="1:3">
-      <c r="A100" s="5" t="s">
+      <c r="B98" s="29"/>
+      <c r="C98" s="27"/>
+    </row>
+    <row r="99" ht="20" spans="1:3">
+      <c r="A99" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" ht="19" spans="1:3">
-      <c r="A101" s="5" t="s">
+      <c r="B99" s="29"/>
+      <c r="C99" s="27"/>
+    </row>
+    <row r="100" ht="20" spans="1:3">
+      <c r="A100" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="7" t="s">
+      <c r="B100" s="29"/>
+      <c r="C100" s="27"/>
+    </row>
+    <row r="101" ht="20" spans="1:3">
+      <c r="A101" s="25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="102" ht="19" spans="1:3">
-      <c r="A102" s="5" t="s">
+      <c r="B101" s="29"/>
+      <c r="C101" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="7"/>
-    </row>
-    <row r="103" ht="19" spans="1:3">
-      <c r="A103" s="5" t="s">
+    </row>
+    <row r="102" ht="20" spans="1:3">
+      <c r="A102" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" ht="38" spans="1:3">
-      <c r="A104" s="5" t="s">
+      <c r="B102" s="29"/>
+      <c r="C102" s="27"/>
+    </row>
+    <row r="103" ht="20" spans="1:3">
+      <c r="A103" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" ht="19" spans="1:3">
-      <c r="A105" s="5" t="s">
+      <c r="B103" s="29"/>
+      <c r="C103" s="27"/>
+    </row>
+    <row r="104" ht="40" spans="1:3">
+      <c r="A104" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="7"/>
-    </row>
-    <row r="106" ht="19" spans="1:3">
-      <c r="A106" s="5" t="s">
+      <c r="B104" s="29"/>
+      <c r="C104" s="27"/>
+    </row>
+    <row r="105" ht="20" spans="1:3">
+      <c r="A105" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="7"/>
-    </row>
-    <row r="107" ht="19" spans="1:3">
-      <c r="A107" s="5" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="27"/>
+    </row>
+    <row r="106" ht="20" spans="1:3">
+      <c r="A106" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="7"/>
-    </row>
-    <row r="108" ht="19" spans="1:3">
-      <c r="A108" s="5" t="s">
+      <c r="B106" s="29"/>
+      <c r="C106" s="27"/>
+    </row>
+    <row r="107" ht="20" spans="1:3">
+      <c r="A107" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" ht="19" spans="1:3">
-      <c r="A109" s="5" t="s">
+      <c r="B107" s="29"/>
+      <c r="C107" s="27"/>
+    </row>
+    <row r="108" ht="20" spans="1:3">
+      <c r="A108" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="7"/>
-    </row>
-    <row r="110" ht="19" spans="1:3">
-      <c r="A110" s="5" t="s">
+      <c r="B108" s="29"/>
+      <c r="C108" s="27"/>
+    </row>
+    <row r="109" ht="20" spans="1:3">
+      <c r="A109" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="7"/>
-    </row>
-    <row r="111" ht="19" spans="1:3">
-      <c r="A111" s="5" t="s">
+      <c r="B109" s="29"/>
+      <c r="C109" s="27"/>
+    </row>
+    <row r="110" ht="20" spans="1:3">
+      <c r="A110" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" ht="19" spans="1:3">
-      <c r="A112" s="5" t="s">
+      <c r="B110" s="29"/>
+      <c r="C110" s="27"/>
+    </row>
+    <row r="111" ht="20" spans="1:3">
+      <c r="A111" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" ht="19" spans="1:3">
-      <c r="A113" s="5" t="s">
+      <c r="B111" s="29"/>
+      <c r="C111" s="27"/>
+    </row>
+    <row r="112" ht="20" spans="1:3">
+      <c r="A112" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" ht="19" spans="1:3">
-      <c r="A114" s="5" t="s">
+      <c r="B112" s="29"/>
+      <c r="C112" s="27"/>
+    </row>
+    <row r="113" ht="20" spans="1:3">
+      <c r="A113" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="7"/>
-    </row>
-    <row r="115" ht="19" spans="1:3">
-      <c r="A115" s="5" t="s">
+      <c r="B113" s="29"/>
+      <c r="C113" s="27"/>
+    </row>
+    <row r="114" ht="20" spans="1:3">
+      <c r="A114" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" ht="19" spans="1:3">
-      <c r="A116" s="5" t="s">
+      <c r="B114" s="29"/>
+      <c r="C114" s="27"/>
+    </row>
+    <row r="115" ht="20" spans="1:3">
+      <c r="A115" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" ht="19" spans="1:3">
-      <c r="A117" s="5" t="s">
+      <c r="B115" s="29"/>
+      <c r="C115" s="27"/>
+    </row>
+    <row r="116" ht="20" spans="1:3">
+      <c r="A116" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" ht="19" spans="1:3">
-      <c r="A118" s="5" t="s">
+      <c r="B116" s="29"/>
+      <c r="C116" s="27"/>
+    </row>
+    <row r="117" ht="20" spans="1:3">
+      <c r="A117" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" ht="19" spans="1:3">
-      <c r="A119" s="5" t="s">
+      <c r="B117" s="29"/>
+      <c r="C117" s="27"/>
+    </row>
+    <row r="118" ht="20" spans="1:3">
+      <c r="A118" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="7" t="s">
+      <c r="B118" s="29"/>
+      <c r="C118" s="27"/>
+    </row>
+    <row r="119" ht="20" spans="1:3">
+      <c r="A119" s="25" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="120" ht="19" spans="1:3">
-      <c r="A120" s="5" t="s">
+      <c r="B119" s="29"/>
+      <c r="C119" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" ht="19" spans="1:3">
-      <c r="A121" s="5" t="s">
+    </row>
+    <row r="120" ht="20" spans="1:3">
+      <c r="A120" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="7"/>
-    </row>
-    <row r="122" ht="19" spans="1:3">
-      <c r="A122" s="5" t="s">
+      <c r="B120" s="29"/>
+      <c r="C120" s="27"/>
+    </row>
+    <row r="121" ht="20" spans="1:3">
+      <c r="A121" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" ht="19" spans="1:3">
-      <c r="A123" s="5" t="s">
+      <c r="B121" s="29"/>
+      <c r="C121" s="27"/>
+    </row>
+    <row r="122" ht="20" spans="1:3">
+      <c r="A122" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="7" t="s">
+      <c r="B122" s="29"/>
+      <c r="C122" s="27"/>
+    </row>
+    <row r="123" ht="20" spans="1:3">
+      <c r="A123" s="25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="124" ht="19" spans="1:3">
-      <c r="A124" s="5" t="s">
+      <c r="B123" s="29"/>
+      <c r="C123" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" ht="19" spans="1:3">
-      <c r="A125" s="5" t="s">
+    </row>
+    <row r="124" ht="20" spans="1:3">
+      <c r="A124" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" ht="19" spans="1:3">
-      <c r="A126" s="5" t="s">
+      <c r="B124" s="29"/>
+      <c r="C124" s="27"/>
+    </row>
+    <row r="125" ht="20" spans="1:3">
+      <c r="A125" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="7"/>
-    </row>
-    <row r="127" ht="19" spans="1:3">
-      <c r="A127" s="5" t="s">
+      <c r="B125" s="29"/>
+      <c r="C125" s="27"/>
+    </row>
+    <row r="126" ht="20" spans="1:3">
+      <c r="A126" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" ht="19" spans="1:3">
-      <c r="A128" s="5" t="s">
+      <c r="B126" s="29"/>
+      <c r="C126" s="27"/>
+    </row>
+    <row r="127" ht="20" spans="1:3">
+      <c r="A127" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" ht="19" spans="1:3">
-      <c r="A129" s="5" t="s">
+      <c r="B127" s="29"/>
+      <c r="C127" s="27"/>
+    </row>
+    <row r="128" ht="20" spans="1:3">
+      <c r="A128" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="7"/>
-    </row>
-    <row r="130" ht="19" spans="1:3">
-      <c r="A130" s="5" t="s">
+      <c r="B128" s="29"/>
+      <c r="C128" s="27"/>
+    </row>
+    <row r="129" ht="20" spans="1:3">
+      <c r="A129" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="7"/>
-    </row>
-    <row r="131" ht="19" spans="1:3">
-      <c r="A131" s="5" t="s">
+      <c r="B129" s="29"/>
+      <c r="C129" s="27"/>
+    </row>
+    <row r="130" ht="20" spans="1:3">
+      <c r="A130" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="7"/>
-    </row>
-    <row r="132" ht="19" spans="1:2">
-      <c r="A132" s="5" t="s">
+      <c r="B130" s="29"/>
+      <c r="C130" s="27"/>
+    </row>
+    <row r="131" ht="20" spans="1:3">
+      <c r="A131" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="9"/>
-    </row>
-    <row r="133" ht="19" spans="1:2">
-      <c r="A133" s="5" t="s">
+      <c r="B131" s="29"/>
+      <c r="C131" s="27"/>
+    </row>
+    <row r="132" ht="20" spans="1:2">
+      <c r="A132" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B133" s="9"/>
-    </row>
-    <row r="134" ht="19" spans="1:2">
-      <c r="A134" s="5" t="s">
+      <c r="B132" s="29"/>
+    </row>
+    <row r="133" ht="20" spans="1:2">
+      <c r="A133" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B134" s="8"/>
-    </row>
-    <row r="135" ht="19" spans="1:2">
-      <c r="A135" s="5" t="s">
+      <c r="B133" s="29"/>
+    </row>
+    <row r="134" ht="20" spans="1:2">
+      <c r="A134" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B135" s="9"/>
-    </row>
-    <row r="136" ht="19" spans="1:2">
-      <c r="A136" s="5" t="s">
+      <c r="B134" s="28"/>
+    </row>
+    <row r="135" ht="20" spans="1:2">
+      <c r="A135" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="8"/>
-    </row>
-    <row r="137" ht="38" spans="1:2">
-      <c r="A137" s="5" t="s">
+      <c r="B135" s="29"/>
+    </row>
+    <row r="136" ht="20" spans="1:2">
+      <c r="A136" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B137" s="8"/>
-    </row>
-    <row r="138" ht="38" spans="1:2">
-      <c r="A138" s="5" t="s">
+      <c r="B136" s="28"/>
+    </row>
+    <row r="137" ht="20" spans="1:2">
+      <c r="A137" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="8"/>
-    </row>
-    <row r="139" ht="19" spans="1:2">
-      <c r="A139" s="5" t="s">
+      <c r="B137" s="28"/>
+    </row>
+    <row r="138" ht="40" spans="1:2">
+      <c r="A138" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="8"/>
-    </row>
-    <row r="140" ht="19" spans="1:2">
-      <c r="A140" s="5" t="s">
+      <c r="B138" s="28"/>
+    </row>
+    <row r="139" ht="20" spans="1:2">
+      <c r="A139" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="10"/>
-    </row>
-    <row r="141" ht="19" spans="1:2">
-      <c r="A141" s="5" t="s">
+      <c r="B139" s="28"/>
+    </row>
+    <row r="140" ht="20" spans="1:2">
+      <c r="A140" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B141" s="8"/>
-    </row>
-    <row r="142" ht="19" spans="1:2">
-      <c r="A142" s="5" t="s">
+      <c r="B140" s="30"/>
+    </row>
+    <row r="141" ht="20" spans="1:2">
+      <c r="A141" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="8"/>
-    </row>
-    <row r="143" ht="38" spans="1:2">
-      <c r="A143" s="5" t="s">
+      <c r="B141" s="28"/>
+    </row>
+    <row r="142" ht="20" spans="1:2">
+      <c r="A142" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B143" s="8"/>
-    </row>
-    <row r="144" ht="19" spans="1:2">
-      <c r="A144" s="5" t="s">
+      <c r="B142" s="28"/>
+    </row>
+    <row r="143" ht="40" spans="1:2">
+      <c r="A143" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="8"/>
-    </row>
-    <row r="145" ht="19" spans="1:2">
-      <c r="A145" s="5" t="s">
+      <c r="B143" s="28"/>
+    </row>
+    <row r="144" ht="20" spans="1:2">
+      <c r="A144" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="8"/>
-    </row>
-    <row r="146" ht="38" spans="1:2">
-      <c r="A146" s="5" t="s">
+      <c r="B144" s="28"/>
+    </row>
+    <row r="145" ht="20" spans="1:2">
+      <c r="A145" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B146" s="8"/>
-    </row>
-    <row r="147" ht="19" spans="1:2">
-      <c r="A147" s="5" t="s">
+      <c r="B145" s="28"/>
+    </row>
+    <row r="146" ht="40" spans="1:2">
+      <c r="A146" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B147" s="9"/>
-    </row>
-    <row r="148" ht="19" spans="1:2">
-      <c r="A148" s="5" t="s">
+      <c r="B146" s="28"/>
+    </row>
+    <row r="147" ht="20" spans="1:2">
+      <c r="A147" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B148" s="9"/>
-    </row>
-    <row r="149" ht="19" spans="1:2">
-      <c r="A149" s="5" t="s">
+      <c r="B147" s="29"/>
+    </row>
+    <row r="148" ht="20" spans="1:2">
+      <c r="A148" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="9"/>
-    </row>
-    <row r="150" ht="19" spans="1:2">
-      <c r="A150" s="5" t="s">
+      <c r="B148" s="29"/>
+    </row>
+    <row r="149" ht="20" spans="1:2">
+      <c r="A149" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="9"/>
-    </row>
-    <row r="151" ht="19" spans="1:2">
-      <c r="A151" s="5" t="s">
+      <c r="B149" s="29"/>
+    </row>
+    <row r="150" ht="20" spans="1:2">
+      <c r="A150" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="9"/>
-    </row>
-    <row r="152" ht="19" spans="1:2">
-      <c r="A152" s="5" t="s">
+      <c r="B150" s="29"/>
+    </row>
+    <row r="151" ht="20" spans="1:2">
+      <c r="A151" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B152" s="9"/>
-    </row>
-    <row r="153" ht="38" spans="1:2">
-      <c r="A153" s="5" t="s">
+      <c r="B151" s="29"/>
+    </row>
+    <row r="152" ht="20" spans="1:2">
+      <c r="A152" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B153" s="9"/>
-    </row>
-    <row r="154" ht="38" spans="1:2">
-      <c r="A154" s="5" t="s">
+      <c r="B152" s="29"/>
+    </row>
+    <row r="153" ht="40" spans="1:2">
+      <c r="A153" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B154" s="9"/>
-    </row>
-    <row r="155" ht="19" spans="1:2">
-      <c r="A155" s="5" t="s">
+      <c r="B153" s="29"/>
+    </row>
+    <row r="154" ht="40" spans="1:2">
+      <c r="A154" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="9"/>
-    </row>
-    <row r="156" ht="19" spans="1:2">
-      <c r="A156" s="5" t="s">
+      <c r="B154" s="29"/>
+    </row>
+    <row r="155" ht="20" spans="1:2">
+      <c r="A155" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="9"/>
-    </row>
-    <row r="157" ht="19" spans="1:2">
-      <c r="A157" s="5" t="s">
+      <c r="B155" s="29"/>
+    </row>
+    <row r="156" ht="20" spans="1:2">
+      <c r="A156" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="9"/>
-    </row>
-    <row r="158" ht="19" spans="1:2">
-      <c r="A158" s="5" t="s">
+      <c r="B156" s="29"/>
+    </row>
+    <row r="157" ht="20" spans="1:2">
+      <c r="A157" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="9"/>
-    </row>
-    <row r="159" ht="19" spans="1:2">
-      <c r="A159" s="5" t="s">
+      <c r="B157" s="29"/>
+    </row>
+    <row r="158" ht="20" spans="1:2">
+      <c r="A158" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B159" s="9"/>
-    </row>
-    <row r="160" ht="19" spans="1:2">
-      <c r="A160" s="5" t="s">
+      <c r="B158" s="29"/>
+    </row>
+    <row r="159" ht="20" spans="1:2">
+      <c r="A159" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B160" s="9"/>
-    </row>
-    <row r="161" ht="19" spans="1:2">
-      <c r="A161" s="5" t="s">
+      <c r="B159" s="29"/>
+    </row>
+    <row r="160" ht="20" spans="1:2">
+      <c r="A160" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="8"/>
-    </row>
-    <row r="162" ht="19" spans="1:2">
-      <c r="A162" s="5" t="s">
+      <c r="B160" s="29"/>
+    </row>
+    <row r="161" ht="20" spans="1:2">
+      <c r="A161" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="8"/>
-    </row>
-    <row r="163" ht="19" spans="1:2">
-      <c r="A163" s="5" t="s">
+      <c r="B161" s="28"/>
+    </row>
+    <row r="162" ht="20" spans="1:2">
+      <c r="A162" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B163" s="8"/>
-    </row>
-    <row r="164" ht="19" spans="1:2">
-      <c r="A164" s="5" t="s">
+      <c r="B162" s="28"/>
+    </row>
+    <row r="163" ht="20" spans="1:2">
+      <c r="A163" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B164" s="8"/>
-    </row>
-    <row r="165" ht="19" spans="1:2">
-      <c r="A165" s="5" t="s">
+      <c r="B163" s="28"/>
+    </row>
+    <row r="164" ht="20" spans="1:2">
+      <c r="A164" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B165" s="9"/>
-    </row>
-    <row r="166" ht="19" spans="1:2">
-      <c r="A166" s="5" t="s">
+      <c r="B164" s="28"/>
+    </row>
+    <row r="165" ht="20" spans="1:2">
+      <c r="A165" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B166" s="8"/>
-    </row>
-    <row r="167" ht="19" spans="1:2">
-      <c r="A167" s="5" t="s">
+      <c r="B165" s="29"/>
+    </row>
+    <row r="166" ht="20" spans="1:2">
+      <c r="A166" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" ht="19" spans="1:2">
-      <c r="A168" s="5" t="s">
+      <c r="B166" s="28"/>
+    </row>
+    <row r="167" ht="20" spans="1:2">
+      <c r="A167" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" ht="19" spans="1:2">
-      <c r="A169" s="5" t="s">
+      <c r="B167" s="29"/>
+    </row>
+    <row r="168" ht="20" spans="1:2">
+      <c r="A168" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B169" s="9"/>
-    </row>
-    <row r="170" ht="19" spans="1:2">
-      <c r="A170" s="5" t="s">
+      <c r="B168" s="29"/>
+    </row>
+    <row r="169" ht="20" spans="1:2">
+      <c r="A169" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B170" s="9"/>
-    </row>
-    <row r="171" ht="19" spans="1:2">
-      <c r="A171" s="5" t="s">
+      <c r="B169" s="29"/>
+    </row>
+    <row r="170" ht="20" spans="1:2">
+      <c r="A170" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B171" s="9"/>
-    </row>
-    <row r="172" ht="19" spans="1:2">
-      <c r="A172" s="5" t="s">
+      <c r="B170" s="29"/>
+    </row>
+    <row r="171" ht="20" spans="1:2">
+      <c r="A171" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B172" s="9"/>
-    </row>
-    <row r="173" ht="19" spans="1:2">
-      <c r="A173" s="5" t="s">
+      <c r="B171" s="29"/>
+    </row>
+    <row r="172" ht="20" spans="1:2">
+      <c r="A172" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B173" s="9"/>
-    </row>
-    <row r="174" ht="19" spans="1:2">
-      <c r="A174" s="5" t="s">
+      <c r="B172" s="29"/>
+    </row>
+    <row r="173" ht="20" spans="1:2">
+      <c r="A173" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B174" s="9"/>
-    </row>
-    <row r="175" ht="38" spans="1:2">
-      <c r="A175" s="5" t="s">
+      <c r="B173" s="29"/>
+    </row>
+    <row r="174" ht="20" spans="1:2">
+      <c r="A174" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B175" s="9"/>
-    </row>
-    <row r="176" ht="38" spans="1:2">
-      <c r="A176" s="5" t="s">
+      <c r="B174" s="29"/>
+    </row>
+    <row r="175" ht="20" spans="1:2">
+      <c r="A175" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="9"/>
-    </row>
-    <row r="177" ht="19" spans="1:2">
-      <c r="A177" s="5" t="s">
+      <c r="B175" s="29"/>
+    </row>
+    <row r="176" ht="40" spans="1:2">
+      <c r="A176" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="10"/>
-    </row>
-    <row r="178" ht="19" spans="1:2">
-      <c r="A178" s="5" t="s">
+      <c r="B176" s="29"/>
+    </row>
+    <row r="177" ht="20" spans="1:2">
+      <c r="A177" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="9"/>
-    </row>
-    <row r="179" ht="19" spans="1:2">
-      <c r="A179" s="5" t="s">
+      <c r="B177" s="30"/>
+    </row>
+    <row r="178" ht="20" spans="1:2">
+      <c r="A178" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B179" s="9"/>
-    </row>
-    <row r="180" ht="19" spans="1:2">
-      <c r="A180" s="5" t="s">
+      <c r="B178" s="29"/>
+    </row>
+    <row r="179" ht="20" spans="1:2">
+      <c r="A179" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B180" s="9"/>
-    </row>
-    <row r="181" ht="19" spans="1:2">
-      <c r="A181" s="5" t="s">
+      <c r="B179" s="29"/>
+    </row>
+    <row r="180" ht="20" spans="1:2">
+      <c r="A180" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B181" s="9"/>
-    </row>
-    <row r="182" ht="19" spans="1:2">
-      <c r="A182" s="5" t="s">
+      <c r="B180" s="29"/>
+    </row>
+    <row r="181" ht="20" spans="1:2">
+      <c r="A181" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B182" s="8"/>
-    </row>
-    <row r="183" ht="19" spans="1:2">
-      <c r="A183" s="5" t="s">
+      <c r="B181" s="29"/>
+    </row>
+    <row r="182" ht="20" spans="1:2">
+      <c r="A182" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="9"/>
-    </row>
-    <row r="184" ht="19" spans="1:2">
-      <c r="A184" s="5" t="s">
+      <c r="B182" s="28"/>
+    </row>
+    <row r="183" ht="20" spans="1:2">
+      <c r="A183" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B184" s="9"/>
-    </row>
-    <row r="185" ht="19" spans="1:2">
-      <c r="A185" s="5" t="s">
+      <c r="B183" s="29"/>
+    </row>
+    <row r="184" ht="20" spans="1:2">
+      <c r="A184" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B185" s="9"/>
-    </row>
-    <row r="186" ht="19" spans="1:2">
-      <c r="A186" s="5" t="s">
+      <c r="B184" s="29"/>
+    </row>
+    <row r="185" ht="20" spans="1:2">
+      <c r="A185" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B186" s="9"/>
-    </row>
-    <row r="187" ht="19" spans="1:2">
-      <c r="A187" s="5" t="s">
+      <c r="B185" s="29"/>
+    </row>
+    <row r="186" ht="20" spans="1:2">
+      <c r="A186" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B187" s="9"/>
-    </row>
-    <row r="188" ht="19" spans="1:2">
-      <c r="A188" s="5" t="s">
+      <c r="B186" s="29"/>
+    </row>
+    <row r="187" ht="20" spans="1:2">
+      <c r="A187" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B188" s="9"/>
-    </row>
-    <row r="189" ht="19" spans="1:2">
-      <c r="A189" s="5" t="s">
+      <c r="B187" s="29"/>
+    </row>
+    <row r="188" ht="20" spans="1:2">
+      <c r="A188" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B189" s="9"/>
-    </row>
-    <row r="190" ht="19" spans="1:2">
-      <c r="A190" s="5" t="s">
+      <c r="B188" s="29"/>
+    </row>
+    <row r="189" ht="20" spans="1:2">
+      <c r="A189" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="9"/>
-    </row>
-    <row r="191" ht="19" spans="1:2">
-      <c r="A191" s="5" t="s">
+      <c r="B189" s="29"/>
+    </row>
+    <row r="190" ht="20" spans="1:2">
+      <c r="A190" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B191" s="9"/>
-    </row>
-    <row r="192" ht="19" spans="1:2">
-      <c r="A192" s="5" t="s">
+      <c r="B190" s="29"/>
+    </row>
+    <row r="191" ht="20" spans="1:2">
+      <c r="A191" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="9"/>
-    </row>
-    <row r="193" ht="19" spans="1:2">
-      <c r="A193" s="5" t="s">
+      <c r="B191" s="29"/>
+    </row>
+    <row r="192" ht="20" spans="1:2">
+      <c r="A192" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B193" s="9"/>
-    </row>
-    <row r="194" ht="19" spans="1:2">
-      <c r="A194" s="5" t="s">
+      <c r="B192" s="29"/>
+    </row>
+    <row r="193" ht="20" spans="1:2">
+      <c r="A193" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B194" s="9"/>
-    </row>
-    <row r="195" ht="19" spans="1:2">
-      <c r="A195" s="5" t="s">
+      <c r="B193" s="29"/>
+    </row>
+    <row r="194" ht="20" spans="1:2">
+      <c r="A194" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="9"/>
-    </row>
-    <row r="196" ht="19" spans="1:2">
-      <c r="A196" s="5" t="s">
+      <c r="B194" s="29"/>
+    </row>
+    <row r="195" ht="20" spans="1:2">
+      <c r="A195" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B196" s="9"/>
-    </row>
-    <row r="197" ht="19" spans="1:2">
-      <c r="A197" s="5" t="s">
+      <c r="B195" s="29"/>
+    </row>
+    <row r="196" ht="20" spans="1:2">
+      <c r="A196" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B197" s="9"/>
-    </row>
-    <row r="198" ht="19" spans="1:2">
-      <c r="A198" s="5" t="s">
+      <c r="B196" s="29"/>
+    </row>
+    <row r="197" ht="20" spans="1:2">
+      <c r="A197" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="9"/>
-    </row>
-    <row r="199" ht="19" spans="1:2">
-      <c r="A199" s="5" t="s">
+      <c r="B197" s="29"/>
+    </row>
+    <row r="198" ht="20" spans="1:2">
+      <c r="A198" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B199" s="9"/>
-    </row>
-    <row r="200" ht="19" spans="1:2">
-      <c r="A200" s="5" t="s">
+      <c r="B198" s="29"/>
+    </row>
+    <row r="199" ht="20" spans="1:2">
+      <c r="A199" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="9"/>
-    </row>
-    <row r="201" ht="38" spans="1:2">
-      <c r="A201" s="5" t="s">
+      <c r="B199" s="29"/>
+    </row>
+    <row r="200" ht="20" spans="1:2">
+      <c r="A200" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B201" s="9"/>
-    </row>
-    <row r="202" ht="19" spans="1:2">
-      <c r="A202" s="5" t="s">
+      <c r="B200" s="29"/>
+    </row>
+    <row r="201" ht="40" spans="1:2">
+      <c r="A201" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B202" s="9"/>
-    </row>
-    <row r="203" ht="38" spans="1:2">
-      <c r="A203" s="5" t="s">
+      <c r="B201" s="29"/>
+    </row>
+    <row r="202" ht="20" spans="1:2">
+      <c r="A202" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B203" s="8"/>
-    </row>
-    <row r="204" ht="38" spans="1:2">
-      <c r="A204" s="5" t="s">
+      <c r="B202" s="29"/>
+    </row>
+    <row r="203" ht="40" spans="1:2">
+      <c r="A203" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B204" s="8"/>
-    </row>
-    <row r="205" ht="19" spans="1:2">
-      <c r="A205" s="5" t="s">
+      <c r="B203" s="28"/>
+    </row>
+    <row r="204" ht="40" spans="1:2">
+      <c r="A204" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B205" s="8"/>
-    </row>
-    <row r="206" ht="38" spans="1:2">
-      <c r="A206" s="5" t="s">
+      <c r="B204" s="28"/>
+    </row>
+    <row r="205" ht="20" spans="1:2">
+      <c r="A205" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B206" s="8"/>
-    </row>
-    <row r="207" ht="19" spans="1:2">
-      <c r="A207" s="5" t="s">
+      <c r="B205" s="28"/>
+    </row>
+    <row r="206" ht="40" spans="1:2">
+      <c r="A206" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B207" s="8"/>
-    </row>
-    <row r="208" ht="19" spans="1:2">
-      <c r="A208" s="5" t="s">
+      <c r="B206" s="28"/>
+    </row>
+    <row r="207" ht="20" spans="1:2">
+      <c r="A207" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B208" s="8"/>
-    </row>
-    <row r="209" ht="19" spans="1:2">
-      <c r="A209" s="5" t="s">
+      <c r="B207" s="28"/>
+    </row>
+    <row r="208" ht="20" spans="1:2">
+      <c r="A208" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B209" s="9"/>
-    </row>
-    <row r="210" ht="19" spans="1:2">
-      <c r="A210" s="5" t="s">
+      <c r="B208" s="28"/>
+    </row>
+    <row r="209" ht="20" spans="1:2">
+      <c r="A209" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="B210" s="9"/>
-    </row>
-    <row r="211" ht="38" spans="1:2">
-      <c r="A211" s="5" t="s">
+      <c r="B209" s="29"/>
+    </row>
+    <row r="210" ht="20" spans="1:2">
+      <c r="A210" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B211" s="8"/>
-    </row>
-    <row r="212" ht="19" spans="1:2">
-      <c r="A212" s="5" t="s">
+      <c r="B210" s="29"/>
+    </row>
+    <row r="211" ht="40" spans="1:2">
+      <c r="A211" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B212" s="9"/>
-    </row>
-    <row r="213" ht="19" spans="1:2">
-      <c r="A213" s="5" t="s">
+      <c r="B211" s="28"/>
+    </row>
+    <row r="212" ht="20" spans="1:2">
+      <c r="A212" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B213" s="8"/>
-    </row>
-    <row r="214" ht="19" spans="1:2">
-      <c r="A214" s="5" t="s">
+      <c r="B212" s="29"/>
+    </row>
+    <row r="213" ht="20" spans="1:2">
+      <c r="A213" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="B214" s="9"/>
-    </row>
-    <row r="215" ht="19" spans="1:2">
-      <c r="A215" s="5" t="s">
+      <c r="B213" s="28"/>
+    </row>
+    <row r="214" ht="20" spans="1:2">
+      <c r="A214" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="B215" s="9"/>
-    </row>
-    <row r="216" ht="19" spans="1:2">
-      <c r="A216" s="5" t="s">
+      <c r="B214" s="29"/>
+    </row>
+    <row r="215" ht="20" spans="1:2">
+      <c r="A215" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B216" s="9"/>
-    </row>
-    <row r="217" ht="19" spans="1:2">
-      <c r="A217" s="5" t="s">
+      <c r="B215" s="29"/>
+    </row>
+    <row r="216" ht="20" spans="1:2">
+      <c r="A216" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="8"/>
-    </row>
-    <row r="218" ht="19" spans="1:2">
-      <c r="A218" s="5" t="s">
+      <c r="B216" s="29"/>
+    </row>
+    <row r="217" ht="20" spans="1:2">
+      <c r="A217" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B218" s="8"/>
-    </row>
-    <row r="219" ht="19" spans="1:2">
-      <c r="A219" s="5" t="s">
+      <c r="B217" s="28"/>
+    </row>
+    <row r="218" ht="20" spans="1:2">
+      <c r="A218" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B219" s="8"/>
-    </row>
-    <row r="220" ht="19" spans="1:2">
-      <c r="A220" s="5" t="s">
+      <c r="B218" s="28"/>
+    </row>
+    <row r="219" ht="20" spans="1:2">
+      <c r="A219" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B220" s="8"/>
-    </row>
-    <row r="221" ht="19" spans="1:3">
-      <c r="A221" s="5" t="s">
+      <c r="B219" s="28"/>
+    </row>
+    <row r="220" ht="20" spans="1:2">
+      <c r="A220" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B221" s="9"/>
-      <c r="C221" s="7" t="s">
+      <c r="B220" s="28"/>
+    </row>
+    <row r="221" ht="20" spans="1:3">
+      <c r="A221" s="25" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="222" ht="19" spans="1:3">
-      <c r="A222" s="5" t="s">
+      <c r="B221" s="29"/>
+      <c r="C221" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="B222" s="9"/>
-      <c r="C222" s="7"/>
-    </row>
-    <row r="223" ht="19" spans="1:3">
-      <c r="A223" s="5" t="s">
+    </row>
+    <row r="222" ht="20" spans="1:3">
+      <c r="A222" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B223" s="9"/>
-      <c r="C223" s="7"/>
-    </row>
-    <row r="224" ht="19" spans="1:2">
-      <c r="A224" s="5" t="s">
+      <c r="B222" s="29"/>
+      <c r="C222" s="27"/>
+    </row>
+    <row r="223" ht="20" spans="1:3">
+      <c r="A223" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B224" s="8"/>
-    </row>
-    <row r="225" ht="19" spans="1:2">
-      <c r="A225" s="5" t="s">
+      <c r="B223" s="29"/>
+      <c r="C223" s="27"/>
+    </row>
+    <row r="224" ht="20" spans="1:2">
+      <c r="A224" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B225" s="8"/>
-    </row>
-    <row r="226" ht="19" spans="1:2">
-      <c r="A226" s="5" t="s">
+      <c r="B224" s="28"/>
+    </row>
+    <row r="225" ht="20" spans="1:2">
+      <c r="A225" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B226" s="8"/>
-    </row>
-    <row r="227" ht="19" spans="1:2">
-      <c r="A227" s="5" t="s">
+      <c r="B225" s="28"/>
+    </row>
+    <row r="226" ht="20" spans="1:2">
+      <c r="A226" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B227" s="8"/>
-    </row>
-    <row r="228" ht="19" spans="1:2">
-      <c r="A228" s="5" t="s">
+      <c r="B226" s="28"/>
+    </row>
+    <row r="227" ht="20" spans="1:2">
+      <c r="A227" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B228" s="9"/>
-    </row>
-    <row r="229" ht="19" spans="1:2">
-      <c r="A229" s="5" t="s">
+      <c r="B227" s="28"/>
+    </row>
+    <row r="228" ht="20" spans="1:2">
+      <c r="A228" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B229" s="9"/>
-    </row>
-    <row r="230" ht="19" spans="1:2">
-      <c r="A230" s="5" t="s">
+      <c r="B228" s="29"/>
+    </row>
+    <row r="229" ht="20" spans="1:2">
+      <c r="A229" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B230" s="8"/>
-    </row>
-    <row r="231" ht="19" spans="1:2">
-      <c r="A231" s="5" t="s">
+      <c r="B229" s="29"/>
+    </row>
+    <row r="230" ht="20" spans="1:2">
+      <c r="A230" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="B231" s="8"/>
-    </row>
-    <row r="232" ht="19" spans="1:2">
-      <c r="A232" s="5" t="s">
+      <c r="B230" s="28"/>
+    </row>
+    <row r="231" ht="20" spans="1:2">
+      <c r="A231" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B232" s="8"/>
-    </row>
-    <row r="233" ht="19" spans="1:2">
-      <c r="A233" s="5" t="s">
+      <c r="B231" s="28"/>
+    </row>
+    <row r="232" ht="20" spans="1:2">
+      <c r="A232" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B233" s="8"/>
-    </row>
-    <row r="234" ht="19" spans="1:2">
-      <c r="A234" s="5" t="s">
+      <c r="B232" s="28"/>
+    </row>
+    <row r="233" ht="20" spans="1:2">
+      <c r="A233" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B234" s="8"/>
-    </row>
-    <row r="235" ht="19" spans="1:2">
-      <c r="A235" s="5" t="s">
+      <c r="B233" s="28"/>
+    </row>
+    <row r="234" ht="20" spans="1:2">
+      <c r="A234" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="B235" s="8"/>
-    </row>
-    <row r="236" ht="19" spans="1:2">
-      <c r="A236" s="5" t="s">
+      <c r="B234" s="28"/>
+    </row>
+    <row r="235" ht="20" spans="1:2">
+      <c r="A235" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B236" s="8"/>
-    </row>
-    <row r="237" ht="19" spans="1:2">
-      <c r="A237" s="5" t="s">
+      <c r="B235" s="28"/>
+    </row>
+    <row r="236" ht="20" spans="1:2">
+      <c r="A236" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B237" s="9"/>
-    </row>
-    <row r="238" ht="19" spans="1:2">
-      <c r="A238" s="5" t="s">
+      <c r="B236" s="28"/>
+    </row>
+    <row r="237" ht="20" spans="1:2">
+      <c r="A237" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B238" s="9"/>
-    </row>
-    <row r="239" ht="19" spans="1:2">
-      <c r="A239" s="5" t="s">
+      <c r="B237" s="29"/>
+    </row>
+    <row r="238" ht="20" spans="1:2">
+      <c r="A238" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B239" s="8"/>
-    </row>
-    <row r="240" ht="19" spans="1:2">
-      <c r="A240" s="5" t="s">
+      <c r="B238" s="29"/>
+    </row>
+    <row r="239" ht="20" spans="1:2">
+      <c r="A239" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="B240" s="8"/>
-    </row>
-    <row r="241" ht="19" spans="1:2">
-      <c r="A241" s="5" t="s">
+      <c r="B239" s="28"/>
+    </row>
+    <row r="240" ht="20" spans="1:2">
+      <c r="A240" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="8"/>
-    </row>
-    <row r="242" ht="19" spans="1:3">
-      <c r="A242" s="5" t="s">
+      <c r="B240" s="28"/>
+    </row>
+    <row r="241" ht="20" spans="1:2">
+      <c r="A241" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="B242" s="9"/>
-      <c r="C242" s="11" t="s">
+      <c r="B241" s="28"/>
+    </row>
+    <row r="242" ht="20" spans="1:3">
+      <c r="A242" s="25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="243" ht="19" spans="1:3">
-      <c r="A243" s="5" t="s">
+      <c r="B242" s="29"/>
+      <c r="C242" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B243" s="9"/>
-      <c r="C243" s="11"/>
-    </row>
-    <row r="244" ht="19" spans="1:3">
-      <c r="A244" s="5" t="s">
+    </row>
+    <row r="243" ht="20" spans="1:3">
+      <c r="A243" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B244" s="9"/>
-      <c r="C244" s="11"/>
-    </row>
-    <row r="245" ht="19" spans="1:3">
-      <c r="A245" s="5" t="s">
+      <c r="B243" s="29"/>
+      <c r="C243" s="33"/>
+    </row>
+    <row r="244" ht="20" spans="1:3">
+      <c r="A244" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="B245" s="9"/>
-      <c r="C245" s="7" t="s">
+      <c r="B244" s="29"/>
+      <c r="C244" s="33"/>
+    </row>
+    <row r="245" ht="20" spans="1:3">
+      <c r="A245" s="25" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="246" ht="19" spans="1:3">
-      <c r="A246" s="5" t="s">
+      <c r="B245" s="29"/>
+      <c r="C245" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="B246" s="9"/>
-      <c r="C246" s="7"/>
-    </row>
-    <row r="247" ht="19" spans="1:3">
-      <c r="A247" s="5" t="s">
+    </row>
+    <row r="246" ht="20" spans="1:3">
+      <c r="A246" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="B247" s="9"/>
-      <c r="C247" s="7"/>
-    </row>
-    <row r="248" ht="19" spans="1:3">
-      <c r="A248" s="5" t="s">
+      <c r="B246" s="29"/>
+      <c r="C246" s="27"/>
+    </row>
+    <row r="247" ht="20" spans="1:3">
+      <c r="A247" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B248" s="9"/>
-      <c r="C248" s="7"/>
-    </row>
-    <row r="249" ht="19" spans="1:2">
-      <c r="A249" s="5" t="s">
+      <c r="B247" s="29"/>
+      <c r="C247" s="27"/>
+    </row>
+    <row r="248" ht="20" spans="1:3">
+      <c r="A248" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B249" s="8"/>
-    </row>
-    <row r="250" ht="19" spans="1:2">
-      <c r="A250" s="5" t="s">
+      <c r="B248" s="29"/>
+      <c r="C248" s="27"/>
+    </row>
+    <row r="249" ht="20" spans="1:2">
+      <c r="A249" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="8"/>
-    </row>
-    <row r="251" ht="19" spans="1:2">
-      <c r="A251" s="5" t="s">
+      <c r="B249" s="28"/>
+    </row>
+    <row r="250" ht="20" spans="1:2">
+      <c r="A250" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="B251" s="8"/>
-    </row>
-    <row r="252" ht="19" spans="1:2">
-      <c r="A252" s="5" t="s">
+      <c r="B250" s="28"/>
+    </row>
+    <row r="251" ht="20" spans="1:2">
+      <c r="A251" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B252" s="8"/>
-    </row>
-    <row r="253" ht="19" spans="1:2">
-      <c r="A253" s="5" t="s">
+      <c r="B251" s="28"/>
+    </row>
+    <row r="252" ht="20" spans="1:2">
+      <c r="A252" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="B253" s="9"/>
-    </row>
-    <row r="254" ht="19" spans="1:2">
-      <c r="A254" s="5" t="s">
+      <c r="B252" s="28"/>
+    </row>
+    <row r="253" ht="20" spans="1:2">
+      <c r="A253" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B254" s="8"/>
-    </row>
-    <row r="255" ht="19" spans="1:2">
-      <c r="A255" s="5" t="s">
+      <c r="B253" s="29"/>
+    </row>
+    <row r="254" ht="20" spans="1:2">
+      <c r="A254" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B255" s="9"/>
-    </row>
-    <row r="256" ht="19" spans="1:2">
-      <c r="A256" s="5" t="s">
+      <c r="B254" s="28"/>
+    </row>
+    <row r="255" ht="20" spans="1:2">
+      <c r="A255" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="B256" s="9"/>
-    </row>
-    <row r="257" ht="38" spans="1:2">
-      <c r="A257" s="5" t="s">
+      <c r="B255" s="29"/>
+    </row>
+    <row r="256" ht="20" spans="1:2">
+      <c r="A256" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="B257" s="9"/>
-    </row>
-    <row r="258" ht="19" spans="1:2">
-      <c r="A258" s="5" t="s">
+      <c r="B256" s="29"/>
+    </row>
+    <row r="257" ht="40" spans="1:2">
+      <c r="A257" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B258" s="9"/>
-    </row>
-    <row r="259" ht="19" spans="1:3">
-      <c r="A259" s="5" t="s">
+      <c r="B257" s="29"/>
+    </row>
+    <row r="258" ht="20" spans="1:2">
+      <c r="A258" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="B259" s="9"/>
-      <c r="C259" s="7" t="s">
+      <c r="B258" s="29"/>
+    </row>
+    <row r="259" ht="20" spans="1:3">
+      <c r="A259" s="25" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="260" ht="19" spans="1:3">
-      <c r="A260" s="5" t="s">
+      <c r="B259" s="29"/>
+      <c r="C259" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B260" s="9"/>
-      <c r="C260" s="7"/>
-    </row>
-    <row r="261" ht="38" spans="1:3">
-      <c r="A261" s="5" t="s">
+    </row>
+    <row r="260" ht="20" spans="1:3">
+      <c r="A260" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="B261" s="9"/>
-      <c r="C261" s="7"/>
-    </row>
-    <row r="262" ht="38" spans="1:3">
-      <c r="A262" s="5" t="s">
+      <c r="B260" s="29"/>
+      <c r="C260" s="27"/>
+    </row>
+    <row r="261" ht="40" spans="1:3">
+      <c r="A261" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B262" s="9"/>
-      <c r="C262" s="7"/>
-    </row>
-    <row r="263" ht="19" spans="1:3">
-      <c r="A263" s="5" t="s">
+      <c r="B261" s="29"/>
+      <c r="C261" s="27"/>
+    </row>
+    <row r="262" ht="40" spans="1:3">
+      <c r="A262" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B263" s="9"/>
-      <c r="C263" s="7"/>
-    </row>
-    <row r="264" ht="19" spans="1:3">
-      <c r="A264" s="5" t="s">
+      <c r="B262" s="29"/>
+      <c r="C262" s="27"/>
+    </row>
+    <row r="263" ht="20" spans="1:3">
+      <c r="A263" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="B264" s="9"/>
-      <c r="C264" s="7"/>
-    </row>
-    <row r="265" ht="19" spans="1:2">
-      <c r="A265" s="5" t="s">
+      <c r="B263" s="29"/>
+      <c r="C263" s="27"/>
+    </row>
+    <row r="264" ht="20" spans="1:3">
+      <c r="A264" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="B265" s="8"/>
-    </row>
-    <row r="266" ht="19" spans="1:2">
-      <c r="A266" s="5" t="s">
+      <c r="B264" s="29"/>
+      <c r="C264" s="27"/>
+    </row>
+    <row r="265" ht="20" spans="1:2">
+      <c r="A265" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B266" s="8"/>
-    </row>
-    <row r="267" ht="19" spans="1:2">
-      <c r="A267" s="5" t="s">
+      <c r="B265" s="28"/>
+    </row>
+    <row r="266" ht="20" spans="1:2">
+      <c r="A266" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="B267" s="8"/>
-    </row>
-    <row r="268" ht="19" spans="1:2">
-      <c r="A268" s="5" t="s">
+      <c r="B266" s="28"/>
+    </row>
+    <row r="267" ht="20" spans="1:2">
+      <c r="A267" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="B268" s="8"/>
-    </row>
-    <row r="269" ht="19" spans="1:2">
-      <c r="A269" s="5" t="s">
+      <c r="B267" s="28"/>
+    </row>
+    <row r="268" ht="20" spans="1:2">
+      <c r="A268" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B269" s="8"/>
-    </row>
-    <row r="270" ht="19" spans="1:3">
-      <c r="A270" s="5" t="s">
+      <c r="B268" s="28"/>
+    </row>
+    <row r="269" ht="20" spans="1:2">
+      <c r="A269" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="B270" s="9"/>
-      <c r="C270" s="7" t="s">
+      <c r="B269" s="28"/>
+    </row>
+    <row r="270" ht="20" spans="1:3">
+      <c r="A270" s="25" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="271" ht="19" spans="1:3">
-      <c r="A271" s="5" t="s">
+      <c r="B270" s="29"/>
+      <c r="C270" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B271" s="9"/>
-      <c r="C271" s="7"/>
-    </row>
-    <row r="272" ht="38" spans="1:3">
-      <c r="A272" s="5" t="s">
+    </row>
+    <row r="271" ht="20" spans="1:3">
+      <c r="A271" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="B272" s="9"/>
-      <c r="C272" s="7"/>
-    </row>
-    <row r="273" ht="19" spans="1:3">
-      <c r="A273" s="5" t="s">
+      <c r="B271" s="29"/>
+      <c r="C271" s="27"/>
+    </row>
+    <row r="272" ht="40" spans="1:3">
+      <c r="A272" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B273" s="9"/>
-      <c r="C273" s="7"/>
-    </row>
-    <row r="274" ht="19" spans="1:3">
-      <c r="A274" s="5" t="s">
+      <c r="B272" s="29"/>
+      <c r="C272" s="27"/>
+    </row>
+    <row r="273" ht="20" spans="1:3">
+      <c r="A273" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B274" s="9"/>
-      <c r="C274" s="7"/>
-    </row>
-    <row r="275" ht="19" spans="1:2">
-      <c r="A275" s="5" t="s">
+      <c r="B273" s="29"/>
+      <c r="C273" s="27"/>
+    </row>
+    <row r="274" ht="20" spans="1:3">
+      <c r="A274" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="B275" s="9"/>
-    </row>
-    <row r="276" ht="19" spans="1:2">
-      <c r="A276" s="5" t="s">
+      <c r="B274" s="29"/>
+      <c r="C274" s="27"/>
+    </row>
+    <row r="275" ht="20" spans="1:2">
+      <c r="A275" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="B276" s="9"/>
-    </row>
-    <row r="277" ht="19" spans="1:2">
-      <c r="A277" s="5" t="s">
+      <c r="B275" s="29"/>
+    </row>
+    <row r="276" ht="20" spans="1:2">
+      <c r="A276" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B277" s="9"/>
-    </row>
-    <row r="278" ht="19" spans="1:2">
-      <c r="A278" s="5" t="s">
+      <c r="B276" s="29"/>
+    </row>
+    <row r="277" ht="20" spans="1:2">
+      <c r="A277" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="B278" s="8"/>
-    </row>
-    <row r="279" ht="19" spans="1:2">
-      <c r="A279" s="5" t="s">
+      <c r="B277" s="29"/>
+    </row>
+    <row r="278" ht="20" spans="1:2">
+      <c r="A278" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B279" s="8"/>
-    </row>
-    <row r="280" ht="19" spans="1:2">
-      <c r="A280" s="5" t="s">
+      <c r="B278" s="28"/>
+    </row>
+    <row r="279" ht="20" spans="1:2">
+      <c r="A279" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B280" s="9"/>
-    </row>
-    <row r="281" ht="19" spans="1:2">
-      <c r="A281" s="5" t="s">
+      <c r="B279" s="28"/>
+    </row>
+    <row r="280" ht="20" spans="1:2">
+      <c r="A280" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="B281" s="9"/>
-    </row>
-    <row r="282" ht="19" spans="1:2">
-      <c r="A282" s="5" t="s">
+      <c r="B280" s="29"/>
+    </row>
+    <row r="281" ht="20" spans="1:2">
+      <c r="A281" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="B282" s="8"/>
-    </row>
-    <row r="283" ht="19" spans="1:2">
-      <c r="A283" s="5" t="s">
+      <c r="B281" s="29"/>
+    </row>
+    <row r="282" ht="20" spans="1:2">
+      <c r="A282" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="B283" s="9"/>
-    </row>
-    <row r="284" ht="19" spans="1:2">
-      <c r="A284" s="5" t="s">
+      <c r="B282" s="28"/>
+    </row>
+    <row r="283" ht="20" spans="1:2">
+      <c r="A283" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="B284" s="9"/>
-    </row>
-    <row r="285" ht="19" spans="1:2">
-      <c r="A285" s="5" t="s">
+      <c r="B283" s="29"/>
+    </row>
+    <row r="284" ht="20" spans="1:2">
+      <c r="A284" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="B285" s="10"/>
-    </row>
-    <row r="286" ht="19" spans="1:2">
-      <c r="A286" s="5" t="s">
+      <c r="B284" s="29"/>
+    </row>
+    <row r="285" ht="20" spans="1:2">
+      <c r="A285" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B286" s="9"/>
-    </row>
-    <row r="287" ht="19" spans="1:2">
-      <c r="A287" s="5" t="s">
+      <c r="B285" s="30"/>
+    </row>
+    <row r="286" ht="20" spans="1:2">
+      <c r="A286" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="B287" s="9"/>
-    </row>
-    <row r="288" ht="19" spans="1:2">
-      <c r="A288" s="5" t="s">
+      <c r="B286" s="29"/>
+    </row>
+    <row r="287" ht="20" spans="1:2">
+      <c r="A287" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B288" s="9"/>
-    </row>
-    <row r="289" ht="19" spans="1:3">
-      <c r="A289" s="5" t="s">
+      <c r="B287" s="29"/>
+    </row>
+    <row r="288" ht="20" spans="1:2">
+      <c r="A288" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="B289" s="9"/>
-      <c r="C289" s="7" t="s">
+      <c r="B288" s="29"/>
+    </row>
+    <row r="289" ht="20" spans="1:3">
+      <c r="A289" s="25" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="290" ht="19" spans="1:3">
-      <c r="A290" s="5" t="s">
+      <c r="B289" s="29"/>
+      <c r="C289" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="B290" s="9"/>
-      <c r="C290" s="7"/>
-    </row>
-    <row r="291" ht="19" spans="1:3">
-      <c r="A291" s="5" t="s">
+    </row>
+    <row r="290" ht="20" spans="1:3">
+      <c r="A290" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="B291" s="9"/>
-      <c r="C291" s="7"/>
-    </row>
-    <row r="292" ht="19" spans="1:2">
-      <c r="A292" s="5" t="s">
+      <c r="B290" s="29"/>
+      <c r="C290" s="27"/>
+    </row>
+    <row r="291" ht="20" spans="1:3">
+      <c r="A291" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="B292" s="9"/>
-    </row>
-    <row r="293" ht="19" spans="1:2">
-      <c r="A293" s="5" t="s">
+      <c r="B291" s="29"/>
+      <c r="C291" s="27"/>
+    </row>
+    <row r="292" ht="20" spans="1:2">
+      <c r="A292" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="B293" s="9"/>
-    </row>
-    <row r="294" ht="19" spans="1:2">
-      <c r="A294" s="5" t="s">
+      <c r="B292" s="29"/>
+    </row>
+    <row r="293" ht="20" spans="1:2">
+      <c r="A293" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B294" s="9"/>
-    </row>
-    <row r="295" ht="19" spans="1:1">
-      <c r="A295" s="3" t="s">
+      <c r="B293" s="29"/>
+    </row>
+    <row r="294" ht="20" spans="1:2">
+      <c r="A294" s="25" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="296" ht="19" spans="1:2">
-      <c r="A296" s="5" t="s">
+      <c r="B294" s="29"/>
+    </row>
+    <row r="295" ht="20" spans="1:1">
+      <c r="A295" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="B296" s="8"/>
-    </row>
-    <row r="297" ht="19" spans="1:2">
-      <c r="A297" s="5" t="s">
+    </row>
+    <row r="296" ht="20" spans="1:2">
+      <c r="A296" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B297" s="8"/>
-    </row>
-    <row r="298" ht="19" spans="1:2">
-      <c r="A298" s="5" t="s">
+      <c r="B296" s="28"/>
+    </row>
+    <row r="297" ht="20" spans="1:2">
+      <c r="A297" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="B298" s="8"/>
-    </row>
-    <row r="299" ht="19" spans="1:2">
-      <c r="A299" s="5" t="s">
+      <c r="B297" s="28"/>
+    </row>
+    <row r="298" ht="20" spans="1:2">
+      <c r="A298" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="B299" s="8"/>
-    </row>
-    <row r="300" ht="19" spans="1:2">
-      <c r="A300" s="5" t="s">
+      <c r="B298" s="28"/>
+    </row>
+    <row r="299" ht="20" spans="1:2">
+      <c r="A299" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="B300" s="8"/>
-    </row>
-    <row r="301" ht="19" spans="1:2">
-      <c r="A301" s="5" t="s">
+      <c r="B299" s="28"/>
+    </row>
+    <row r="300" ht="20" spans="1:2">
+      <c r="A300" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="B301" s="8"/>
-    </row>
-    <row r="302" ht="19" spans="1:2">
-      <c r="A302" s="5" t="s">
+      <c r="B300" s="28"/>
+    </row>
+    <row r="301" ht="20" spans="1:2">
+      <c r="A301" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="B302" s="8"/>
-    </row>
-    <row r="303" ht="38" spans="1:2">
-      <c r="A303" s="5" t="s">
+      <c r="B301" s="28"/>
+    </row>
+    <row r="302" ht="20" spans="1:2">
+      <c r="A302" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="B303" s="8"/>
-    </row>
-    <row r="304" ht="38" spans="1:2">
-      <c r="A304" s="5" t="s">
+      <c r="B302" s="28"/>
+    </row>
+    <row r="303" ht="40" spans="1:2">
+      <c r="A303" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="B304" s="8"/>
-    </row>
-    <row r="305" ht="19" spans="1:2">
-      <c r="A305" s="5" t="s">
+      <c r="B303" s="28"/>
+    </row>
+    <row r="304" ht="40" spans="1:2">
+      <c r="A304" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B305" s="9"/>
-    </row>
-    <row r="306" ht="38" spans="1:2">
-      <c r="A306" s="5" t="s">
+      <c r="B304" s="28"/>
+    </row>
+    <row r="305" ht="20" spans="1:2">
+      <c r="A305" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B306" s="9"/>
-    </row>
-    <row r="307" ht="38" spans="1:2">
-      <c r="A307" s="5" t="s">
+      <c r="B305" s="29"/>
+    </row>
+    <row r="306" ht="40" spans="1:2">
+      <c r="A306" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="B307" s="9"/>
-    </row>
-    <row r="308" ht="19" spans="1:2">
-      <c r="A308" s="5" t="s">
+      <c r="B306" s="29"/>
+    </row>
+    <row r="307" ht="40" spans="1:2">
+      <c r="A307" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="B308" s="9"/>
-    </row>
-    <row r="309" ht="19" spans="1:2">
-      <c r="A309" s="5" t="s">
+      <c r="B307" s="29"/>
+    </row>
+    <row r="308" ht="20" spans="1:2">
+      <c r="A308" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B309" s="8"/>
-    </row>
-    <row r="310" ht="19" spans="1:2">
-      <c r="A310" s="5" t="s">
+      <c r="B308" s="29"/>
+    </row>
+    <row r="309" ht="20" spans="1:2">
+      <c r="A309" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="B310" s="8"/>
-    </row>
-    <row r="311" ht="19" spans="1:3">
-      <c r="A311" s="5" t="s">
+      <c r="B309" s="28"/>
+    </row>
+    <row r="310" ht="20" spans="1:2">
+      <c r="A310" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="B311" s="9"/>
-      <c r="C311" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="312" ht="19" spans="1:3">
-      <c r="A312" s="5" t="s">
+      <c r="B310" s="28"/>
+    </row>
+    <row r="311" ht="20" spans="1:3">
+      <c r="A311" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="B312" s="9"/>
-      <c r="C312" s="7"/>
-    </row>
-    <row r="313" ht="19" spans="1:3">
-      <c r="A313" s="5" t="s">
+      <c r="B311" s="29"/>
+      <c r="C311" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="312" ht="20" spans="1:3">
+      <c r="A312" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="B313" s="9"/>
-      <c r="C313" s="7"/>
-    </row>
-    <row r="314" ht="38" spans="1:3">
-      <c r="A314" s="5" t="s">
+      <c r="B312" s="29"/>
+      <c r="C312" s="27"/>
+    </row>
+    <row r="313" ht="20" spans="1:3">
+      <c r="A313" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="B314" s="9"/>
-      <c r="C314" s="7"/>
-    </row>
-    <row r="315" ht="19" spans="1:3">
-      <c r="A315" s="5" t="s">
+      <c r="B313" s="29"/>
+      <c r="C313" s="27"/>
+    </row>
+    <row r="314" ht="20" spans="1:3">
+      <c r="A314" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="B315" s="9"/>
-      <c r="C315" s="7"/>
-    </row>
-    <row r="316" ht="38" spans="1:2">
-      <c r="A316" s="5" t="s">
+      <c r="B314" s="29"/>
+      <c r="C314" s="27"/>
+    </row>
+    <row r="315" ht="20" spans="1:3">
+      <c r="A315" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B316" s="8"/>
-    </row>
-    <row r="317" ht="38" spans="1:2">
-      <c r="A317" s="5" t="s">
+      <c r="B315" s="29"/>
+      <c r="C315" s="27"/>
+    </row>
+    <row r="316" ht="40" spans="1:2">
+      <c r="A316" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B317" s="8"/>
-    </row>
-    <row r="318" ht="19" spans="1:3">
-      <c r="A318" s="5" t="s">
+      <c r="B316" s="28"/>
+    </row>
+    <row r="317" ht="40" spans="1:2">
+      <c r="A317" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="B318" s="9"/>
-      <c r="C318" s="7" t="s">
+      <c r="B317" s="28"/>
+    </row>
+    <row r="318" ht="20" spans="1:3">
+      <c r="A318" s="25" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="319" ht="19" spans="1:3">
-      <c r="A319" s="5" t="s">
+      <c r="B318" s="29"/>
+      <c r="C318" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="B319" s="9"/>
-      <c r="C319" s="7"/>
-    </row>
-    <row r="320" ht="19" spans="1:2">
-      <c r="A320" s="5" t="s">
+    </row>
+    <row r="319" ht="20" spans="1:3">
+      <c r="A319" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="B320" s="9"/>
-    </row>
-    <row r="321" ht="38" spans="1:2">
-      <c r="A321" s="5" t="s">
+      <c r="B319" s="29"/>
+      <c r="C319" s="27"/>
+    </row>
+    <row r="320" ht="20" spans="1:2">
+      <c r="A320" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="B321" s="8"/>
-    </row>
-    <row r="322" ht="38" spans="1:2">
-      <c r="A322" s="5" t="s">
+      <c r="B320" s="29"/>
+    </row>
+    <row r="321" ht="40" spans="1:2">
+      <c r="A321" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="B322" s="8"/>
-    </row>
-    <row r="323" ht="19" spans="1:2">
-      <c r="A323" s="5" t="s">
+      <c r="B321" s="28"/>
+    </row>
+    <row r="322" ht="40" spans="1:2">
+      <c r="A322" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="B323" s="8"/>
-    </row>
-    <row r="324" ht="19" spans="1:3">
-      <c r="A324" s="5" t="s">
+      <c r="B322" s="28"/>
+    </row>
+    <row r="323" ht="20" spans="1:2">
+      <c r="A323" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B324" s="9"/>
-      <c r="C324" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="325" s="1" customFormat="1" ht="19" spans="1:3">
-      <c r="A325" s="3" t="s">
+      <c r="B323" s="28"/>
+    </row>
+    <row r="324" ht="20" spans="1:3">
+      <c r="A324" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="C325" s="12"/>
-    </row>
-    <row r="326" ht="19" spans="1:3">
-      <c r="A326" s="5" t="s">
+      <c r="B324" s="29"/>
+      <c r="C324" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="325" s="19" customFormat="1" ht="20" spans="1:3">
+      <c r="A325" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B326" s="9"/>
-      <c r="C326" s="7" t="s">
+      <c r="B325" s="34"/>
+      <c r="C325" s="35"/>
+    </row>
+    <row r="326" ht="20" spans="1:3">
+      <c r="A326" s="25" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="327" ht="38" spans="1:3">
-      <c r="A327" s="5" t="s">
+      <c r="B326" s="29"/>
+      <c r="C326" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="B327" s="9"/>
-      <c r="C327" s="7"/>
-    </row>
-    <row r="328" ht="19" spans="1:3">
-      <c r="A328" s="5" t="s">
+    </row>
+    <row r="327" ht="40" spans="1:3">
+      <c r="A327" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="B328" s="9"/>
-      <c r="C328" s="7"/>
-    </row>
-    <row r="329" ht="19" spans="1:3">
-      <c r="A329" s="5" t="s">
+      <c r="B327" s="29"/>
+      <c r="C327" s="27"/>
+    </row>
+    <row r="328" ht="20" spans="1:3">
+      <c r="A328" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B329" s="9"/>
-      <c r="C329" s="7"/>
-    </row>
-    <row r="330" ht="19" spans="1:3">
-      <c r="A330" s="5" t="s">
+      <c r="B328" s="29"/>
+      <c r="C328" s="27"/>
+    </row>
+    <row r="329" ht="20" spans="1:3">
+      <c r="A329" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="B330" s="9"/>
-      <c r="C330" s="7"/>
-    </row>
-    <row r="331" ht="19" spans="1:3">
-      <c r="A331" s="5" t="s">
+      <c r="B329" s="29"/>
+      <c r="C329" s="27"/>
+    </row>
+    <row r="330" ht="20" spans="1:3">
+      <c r="A330" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B331" s="9"/>
-      <c r="C331" s="7"/>
-    </row>
-    <row r="332" ht="19" spans="1:1">
-      <c r="A332" s="3" t="s">
+      <c r="B330" s="29"/>
+      <c r="C330" s="27"/>
+    </row>
+    <row r="331" ht="20" spans="1:3">
+      <c r="A331" s="25" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="333" ht="19" spans="1:2">
-      <c r="A333" s="5" t="s">
+      <c r="B331" s="29"/>
+      <c r="C331" s="27"/>
+    </row>
+    <row r="332" ht="20" spans="1:1">
+      <c r="A332" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="B333" s="8"/>
-    </row>
-    <row r="334" ht="19" spans="1:2">
-      <c r="A334" s="5" t="s">
+    </row>
+    <row r="333" ht="20" spans="1:2">
+      <c r="A333" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="B334" s="8"/>
-    </row>
-    <row r="335" ht="19" spans="1:2">
-      <c r="A335" s="5" t="s">
+      <c r="B333" s="28"/>
+    </row>
+    <row r="334" ht="20" spans="1:2">
+      <c r="A334" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B335" s="8"/>
-    </row>
-    <row r="336" ht="19" spans="1:2">
-      <c r="A336" s="5" t="s">
+      <c r="B334" s="28"/>
+    </row>
+    <row r="335" ht="20" spans="1:2">
+      <c r="A335" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="B336" s="8"/>
-    </row>
-    <row r="337" ht="19" spans="1:2">
-      <c r="A337" s="5" t="s">
+      <c r="B335" s="28"/>
+    </row>
+    <row r="336" ht="20" spans="1:2">
+      <c r="A336" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="B337" s="8"/>
-    </row>
-    <row r="338" ht="19" spans="1:2">
-      <c r="A338" s="5" t="s">
+      <c r="B336" s="28"/>
+    </row>
+    <row r="337" ht="20" spans="1:2">
+      <c r="A337" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="B338" s="8"/>
-    </row>
-    <row r="339" ht="19" spans="1:2">
-      <c r="A339" s="5" t="s">
+      <c r="B337" s="28"/>
+    </row>
+    <row r="338" ht="20" spans="1:2">
+      <c r="A338" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B339" s="8"/>
-    </row>
-    <row r="340" ht="19" spans="1:2">
-      <c r="A340" s="5" t="s">
+      <c r="B338" s="28"/>
+    </row>
+    <row r="339" ht="20" spans="1:2">
+      <c r="A339" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="B340" s="8"/>
-    </row>
-    <row r="341" ht="19" spans="1:2">
-      <c r="A341" s="5" t="s">
+      <c r="B339" s="28"/>
+    </row>
+    <row r="340" ht="20" spans="1:2">
+      <c r="A340" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B341" s="8"/>
-    </row>
-    <row r="342" ht="19" spans="1:2">
-      <c r="A342" s="5" t="s">
+      <c r="B340" s="28"/>
+    </row>
+    <row r="341" ht="20" spans="1:2">
+      <c r="A341" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B342" s="8"/>
-    </row>
-    <row r="343" ht="19" spans="1:2">
-      <c r="A343" s="5" t="s">
+      <c r="B341" s="28"/>
+    </row>
+    <row r="342" ht="20" spans="1:2">
+      <c r="A342" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="B343" s="8"/>
-    </row>
-    <row r="344" ht="19" spans="1:2">
-      <c r="A344" s="5" t="s">
+      <c r="B342" s="28"/>
+    </row>
+    <row r="343" ht="20" spans="1:2">
+      <c r="A343" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="B344" s="8"/>
-    </row>
-    <row r="345" ht="19" spans="1:2">
-      <c r="A345" s="5" t="s">
+      <c r="B343" s="28"/>
+    </row>
+    <row r="344" ht="20" spans="1:2">
+      <c r="A344" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B345" s="9"/>
-    </row>
-    <row r="346" ht="19" spans="1:2">
-      <c r="A346" s="5" t="s">
+      <c r="B344" s="28"/>
+    </row>
+    <row r="345" ht="20" spans="1:2">
+      <c r="A345" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B346" s="9"/>
-    </row>
-    <row r="347" ht="19" spans="1:2">
-      <c r="A347" s="5" t="s">
+      <c r="B345" s="29"/>
+    </row>
+    <row r="346" ht="20" spans="1:2">
+      <c r="A346" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="B347" s="9"/>
-    </row>
-    <row r="348" ht="19" spans="1:2">
-      <c r="A348" s="5" t="s">
+      <c r="B346" s="29"/>
+    </row>
+    <row r="347" ht="20" spans="1:2">
+      <c r="A347" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="B348" s="9"/>
-    </row>
-    <row r="349" ht="19" spans="1:2">
-      <c r="A349" s="5" t="s">
+      <c r="B347" s="29"/>
+    </row>
+    <row r="348" ht="20" spans="1:2">
+      <c r="A348" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="B349" s="9"/>
-    </row>
-    <row r="350" ht="19" spans="1:2">
-      <c r="A350" s="5" t="s">
+      <c r="B348" s="29"/>
+    </row>
+    <row r="349" ht="20" spans="1:2">
+      <c r="A349" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="B350" s="9"/>
-    </row>
-    <row r="351" ht="19" spans="1:2">
-      <c r="A351" s="5" t="s">
+      <c r="B349" s="29"/>
+    </row>
+    <row r="350" ht="20" spans="1:2">
+      <c r="A350" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B351" s="9"/>
-    </row>
-    <row r="352" ht="19" spans="1:2">
-      <c r="A352" s="5" t="s">
+      <c r="B350" s="29"/>
+    </row>
+    <row r="351" ht="20" spans="1:2">
+      <c r="A351" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="B352" s="9"/>
-    </row>
-    <row r="353" ht="19" spans="1:2">
-      <c r="A353" s="5" t="s">
+      <c r="B351" s="29"/>
+    </row>
+    <row r="352" ht="20" spans="1:2">
+      <c r="A352" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B353" s="9"/>
-    </row>
-    <row r="354" ht="19" spans="1:2">
-      <c r="A354" s="5" t="s">
+      <c r="B352" s="29"/>
+    </row>
+    <row r="353" ht="20" spans="1:2">
+      <c r="A353" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="B354" s="9"/>
-    </row>
-    <row r="355" ht="19" spans="1:2">
-      <c r="A355" s="5" t="s">
+      <c r="B353" s="29"/>
+    </row>
+    <row r="354" ht="20" spans="1:2">
+      <c r="A354" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="B355" s="9"/>
-    </row>
-    <row r="356" ht="19" spans="1:2">
-      <c r="A356" s="5" t="s">
+      <c r="B354" s="29"/>
+    </row>
+    <row r="355" ht="20" spans="1:2">
+      <c r="A355" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="B356" s="9"/>
-    </row>
-    <row r="357" ht="19" spans="1:1">
-      <c r="A357" s="5" t="s">
+      <c r="B355" s="29"/>
+    </row>
+    <row r="356" ht="20" spans="1:2">
+      <c r="A356" s="25" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="358" ht="19" spans="1:1">
-      <c r="A358" s="3" t="s">
+      <c r="B356" s="29"/>
+    </row>
+    <row r="357" ht="20" spans="1:1">
+      <c r="A357" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="359" ht="19" spans="1:3">
-      <c r="A359" s="5" t="s">
+    <row r="358" ht="20" spans="1:1">
+      <c r="A358" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="B359" s="9"/>
-      <c r="C359" s="7" t="s">
+    </row>
+    <row r="359" ht="20" spans="1:3">
+      <c r="A359" s="25" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="360" ht="19" spans="1:3">
-      <c r="A360" s="5" t="s">
+      <c r="B359" s="29"/>
+      <c r="C359" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="B360" s="9"/>
-      <c r="C360" s="7"/>
-    </row>
-    <row r="361" ht="19" spans="1:3">
-      <c r="A361" s="5" t="s">
+    </row>
+    <row r="360" ht="20" spans="1:3">
+      <c r="A360" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="B361" s="9"/>
-      <c r="C361" s="7"/>
-    </row>
-    <row r="362" ht="19" spans="1:3">
-      <c r="A362" s="5" t="s">
+      <c r="B360" s="29"/>
+      <c r="C360" s="27"/>
+    </row>
+    <row r="361" ht="20" spans="1:3">
+      <c r="A361" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="B362" s="9"/>
-      <c r="C362" s="7"/>
-    </row>
-    <row r="363" ht="19" spans="1:3">
-      <c r="A363" s="5" t="s">
+      <c r="B361" s="29"/>
+      <c r="C361" s="27"/>
+    </row>
+    <row r="362" ht="20" spans="1:3">
+      <c r="A362" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="B363" s="9"/>
-      <c r="C363" s="7"/>
-    </row>
-    <row r="364" ht="19" spans="1:3">
-      <c r="A364" s="5" t="s">
+      <c r="B362" s="29"/>
+      <c r="C362" s="27"/>
+    </row>
+    <row r="363" ht="20" spans="1:3">
+      <c r="A363" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="B364" s="9"/>
-      <c r="C364" s="7"/>
-    </row>
-    <row r="365" ht="19" spans="1:3">
-      <c r="A365" s="5" t="s">
+      <c r="B363" s="29"/>
+      <c r="C363" s="27"/>
+    </row>
+    <row r="364" ht="20" spans="1:3">
+      <c r="A364" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B365" s="9"/>
-      <c r="C365" s="7"/>
-    </row>
-    <row r="366" ht="19" spans="1:3">
-      <c r="A366" s="5" t="s">
+      <c r="B364" s="29"/>
+      <c r="C364" s="27"/>
+    </row>
+    <row r="365" ht="20" spans="1:3">
+      <c r="A365" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B366" s="9"/>
-      <c r="C366" s="7"/>
-    </row>
-    <row r="367" ht="19" spans="1:3">
-      <c r="A367" s="5" t="s">
+      <c r="B365" s="29"/>
+      <c r="C365" s="27"/>
+    </row>
+    <row r="366" ht="20" spans="1:3">
+      <c r="A366" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="B367" s="9"/>
-      <c r="C367" s="7"/>
-    </row>
-    <row r="368" ht="19" spans="1:3">
-      <c r="A368" s="5" t="s">
+      <c r="B366" s="29"/>
+      <c r="C366" s="27"/>
+    </row>
+    <row r="367" ht="20" spans="1:3">
+      <c r="A367" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B368" s="9"/>
-      <c r="C368" s="7"/>
-    </row>
-    <row r="369" ht="19" spans="1:3">
-      <c r="A369" s="5" t="s">
+      <c r="B367" s="29"/>
+      <c r="C367" s="27"/>
+    </row>
+    <row r="368" ht="20" spans="1:3">
+      <c r="A368" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B369" s="9"/>
-      <c r="C369" s="7"/>
-    </row>
-    <row r="370" ht="19" spans="1:3">
-      <c r="A370" s="5" t="s">
+      <c r="B368" s="29"/>
+      <c r="C368" s="27"/>
+    </row>
+    <row r="369" ht="20" spans="1:3">
+      <c r="A369" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B370" s="9"/>
-      <c r="C370" s="7"/>
-    </row>
-    <row r="371" ht="19" spans="1:3">
-      <c r="A371" s="5" t="s">
+      <c r="B369" s="29"/>
+      <c r="C369" s="27"/>
+    </row>
+    <row r="370" ht="20" spans="1:3">
+      <c r="A370" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="B371" s="9"/>
-      <c r="C371" s="7"/>
-    </row>
-    <row r="372" ht="19" spans="1:3">
-      <c r="A372" s="5" t="s">
+      <c r="B370" s="29"/>
+      <c r="C370" s="27"/>
+    </row>
+    <row r="371" ht="20" spans="1:3">
+      <c r="A371" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B372" s="9"/>
-      <c r="C372" s="7"/>
-    </row>
-    <row r="373" ht="19" spans="1:3">
-      <c r="A373" s="5" t="s">
+      <c r="B371" s="29"/>
+      <c r="C371" s="27"/>
+    </row>
+    <row r="372" ht="20" spans="1:3">
+      <c r="A372" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="B373" s="9"/>
-      <c r="C373" s="7"/>
-    </row>
-    <row r="374" ht="19" spans="1:3">
-      <c r="A374" s="5" t="s">
+      <c r="B372" s="29"/>
+      <c r="C372" s="27"/>
+    </row>
+    <row r="373" ht="20" spans="1:3">
+      <c r="A373" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B374" s="9"/>
-      <c r="C374" s="7"/>
-    </row>
-    <row r="375" ht="19" spans="1:3">
-      <c r="A375" s="5" t="s">
+      <c r="B373" s="29"/>
+      <c r="C373" s="27"/>
+    </row>
+    <row r="374" ht="20" spans="1:3">
+      <c r="A374" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B375" s="9"/>
-      <c r="C375" s="7"/>
-    </row>
-    <row r="376" ht="19" spans="1:3">
-      <c r="A376" s="5" t="s">
+      <c r="B374" s="29"/>
+      <c r="C374" s="27"/>
+    </row>
+    <row r="375" ht="20" spans="1:3">
+      <c r="A375" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="B376" s="9"/>
-      <c r="C376" s="7"/>
-    </row>
-    <row r="377" ht="19" spans="1:3">
-      <c r="A377" s="5" t="s">
+      <c r="B375" s="29"/>
+      <c r="C375" s="27"/>
+    </row>
+    <row r="376" ht="20" spans="1:3">
+      <c r="A376" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="B377" s="9"/>
-      <c r="C377" s="7"/>
-    </row>
-    <row r="378" ht="19" spans="1:3">
-      <c r="A378" s="5" t="s">
+      <c r="B376" s="29"/>
+      <c r="C376" s="27"/>
+    </row>
+    <row r="377" ht="20" spans="1:3">
+      <c r="A377" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="B378" s="9"/>
-      <c r="C378" s="7"/>
-    </row>
-    <row r="379" ht="19" spans="1:3">
-      <c r="A379" s="5" t="s">
+      <c r="B377" s="29"/>
+      <c r="C377" s="27"/>
+    </row>
+    <row r="378" ht="20" spans="1:3">
+      <c r="A378" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B379" s="9"/>
-      <c r="C379" s="7"/>
-    </row>
-    <row r="380" ht="19" spans="1:3">
-      <c r="A380" s="5" t="s">
+      <c r="B378" s="29"/>
+      <c r="C378" s="27"/>
+    </row>
+    <row r="379" ht="20" spans="1:3">
+      <c r="A379" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B380" s="9"/>
-      <c r="C380" s="7"/>
-    </row>
-    <row r="381" ht="19" spans="1:3">
-      <c r="A381" s="5" t="s">
+      <c r="B379" s="29"/>
+      <c r="C379" s="27"/>
+    </row>
+    <row r="380" ht="20" spans="1:3">
+      <c r="A380" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B381" s="9"/>
-      <c r="C381" s="7"/>
-    </row>
-    <row r="382" ht="19" spans="1:3">
-      <c r="A382" s="5" t="s">
+      <c r="B380" s="29"/>
+      <c r="C380" s="27"/>
+    </row>
+    <row r="381" ht="20" spans="1:3">
+      <c r="A381" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B382" s="9"/>
-      <c r="C382" s="7"/>
-    </row>
-    <row r="383" ht="19" spans="1:3">
-      <c r="A383" s="5" t="s">
+      <c r="B381" s="29"/>
+      <c r="C381" s="27"/>
+    </row>
+    <row r="382" ht="20" spans="1:3">
+      <c r="A382" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B383" s="9"/>
-      <c r="C383" s="7"/>
-    </row>
-    <row r="384" ht="19" spans="1:3">
-      <c r="A384" s="5" t="s">
+      <c r="B382" s="29"/>
+      <c r="C382" s="27"/>
+    </row>
+    <row r="383" ht="20" spans="1:3">
+      <c r="A383" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B384" s="9"/>
-      <c r="C384" s="7"/>
-    </row>
-    <row r="385" ht="19" spans="1:3">
-      <c r="A385" s="5" t="s">
+      <c r="B383" s="29"/>
+      <c r="C383" s="27"/>
+    </row>
+    <row r="384" ht="20" spans="1:3">
+      <c r="A384" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B385" s="9"/>
-      <c r="C385" s="7"/>
-    </row>
-    <row r="386" ht="19" spans="1:3">
-      <c r="A386" s="5" t="s">
+      <c r="B384" s="29"/>
+      <c r="C384" s="27"/>
+    </row>
+    <row r="385" ht="20" spans="1:3">
+      <c r="A385" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="B386" s="9"/>
-      <c r="C386" s="7"/>
-    </row>
-    <row r="387" ht="19" spans="1:3">
-      <c r="A387" s="5" t="s">
+      <c r="B385" s="29"/>
+      <c r="C385" s="27"/>
+    </row>
+    <row r="386" ht="20" spans="1:3">
+      <c r="A386" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="B387" s="9"/>
-      <c r="C387" s="7"/>
-    </row>
-    <row r="388" ht="19" spans="1:3">
-      <c r="A388" s="5" t="s">
+      <c r="B386" s="29"/>
+      <c r="C386" s="27"/>
+    </row>
+    <row r="387" ht="20" spans="1:3">
+      <c r="A387" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="B388" s="9"/>
-      <c r="C388" s="7"/>
-    </row>
-    <row r="389" ht="19" spans="1:3">
-      <c r="A389" s="5" t="s">
+      <c r="B387" s="29"/>
+      <c r="C387" s="27"/>
+    </row>
+    <row r="388" ht="20" spans="1:3">
+      <c r="A388" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="B389" s="9"/>
-      <c r="C389" s="7"/>
-    </row>
-    <row r="390" ht="19" spans="1:3">
-      <c r="A390" s="5" t="s">
+      <c r="B388" s="29"/>
+      <c r="C388" s="27"/>
+    </row>
+    <row r="389" ht="20" spans="1:3">
+      <c r="A389" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="B390" s="9"/>
-      <c r="C390" s="7"/>
-    </row>
-    <row r="391" ht="19" spans="1:3">
-      <c r="A391" s="5" t="s">
+      <c r="B389" s="29"/>
+      <c r="C389" s="27"/>
+    </row>
+    <row r="390" ht="20" spans="1:3">
+      <c r="A390" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="B391" s="9"/>
-      <c r="C391" s="7"/>
-    </row>
-    <row r="392" ht="19" spans="1:3">
-      <c r="A392" s="5" t="s">
+      <c r="B390" s="29"/>
+      <c r="C390" s="27"/>
+    </row>
+    <row r="391" ht="20" spans="1:3">
+      <c r="A391" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="B392" s="9"/>
-      <c r="C392" s="7"/>
-    </row>
-    <row r="393" ht="19" spans="1:3">
-      <c r="A393" s="5" t="s">
+      <c r="B391" s="29"/>
+      <c r="C391" s="27"/>
+    </row>
+    <row r="392" ht="20" spans="1:3">
+      <c r="A392" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="B393" s="9"/>
-      <c r="C393" s="7"/>
-    </row>
-    <row r="394" ht="19" spans="1:3">
-      <c r="A394" s="5" t="s">
+      <c r="B392" s="29"/>
+      <c r="C392" s="27"/>
+    </row>
+    <row r="393" ht="20" spans="1:3">
+      <c r="A393" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="B394" s="9"/>
-      <c r="C394" s="7"/>
-    </row>
-    <row r="395" ht="19" spans="1:3">
-      <c r="A395" s="5" t="s">
+      <c r="B393" s="29"/>
+      <c r="C393" s="27"/>
+    </row>
+    <row r="394" ht="20" spans="1:3">
+      <c r="A394" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="B395" s="9"/>
-      <c r="C395" s="7"/>
-    </row>
-    <row r="396" ht="38" spans="1:3">
-      <c r="A396" s="5" t="s">
+      <c r="B394" s="29"/>
+      <c r="C394" s="27"/>
+    </row>
+    <row r="395" ht="20" spans="1:3">
+      <c r="A395" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="B396" s="9"/>
-      <c r="C396" s="7"/>
-    </row>
-    <row r="397" ht="19" spans="1:3">
-      <c r="A397" s="5" t="s">
+      <c r="B395" s="29"/>
+      <c r="C395" s="27"/>
+    </row>
+    <row r="396" ht="40" spans="1:3">
+      <c r="A396" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B397" s="9"/>
-      <c r="C397" s="7"/>
-    </row>
-    <row r="398" ht="19" spans="1:3">
-      <c r="A398" s="5" t="s">
+      <c r="B396" s="29"/>
+      <c r="C396" s="27"/>
+    </row>
+    <row r="397" ht="20" spans="1:3">
+      <c r="A397" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B398" s="9"/>
-      <c r="C398" s="7"/>
-    </row>
-    <row r="399" ht="19" spans="1:3">
-      <c r="A399" s="5" t="s">
+      <c r="B397" s="29"/>
+      <c r="C397" s="27"/>
+    </row>
+    <row r="398" ht="20" spans="1:3">
+      <c r="A398" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="B399" s="9"/>
-      <c r="C399" s="7"/>
-    </row>
-    <row r="400" ht="19" spans="1:3">
-      <c r="A400" s="5" t="s">
+      <c r="B398" s="29"/>
+      <c r="C398" s="27"/>
+    </row>
+    <row r="399" ht="20" spans="1:3">
+      <c r="A399" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="B400" s="9"/>
-      <c r="C400" s="7"/>
-    </row>
-    <row r="401" ht="19" spans="1:3">
-      <c r="A401" s="5" t="s">
+      <c r="B399" s="29"/>
+      <c r="C399" s="27"/>
+    </row>
+    <row r="400" ht="20" spans="1:3">
+      <c r="A400" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="B401" s="9"/>
-      <c r="C401" s="7"/>
-    </row>
-    <row r="402" ht="19" spans="1:3">
-      <c r="A402" s="5" t="s">
+      <c r="B400" s="29"/>
+      <c r="C400" s="27"/>
+    </row>
+    <row r="401" ht="20" spans="1:3">
+      <c r="A401" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="B402" s="9"/>
-      <c r="C402" s="7"/>
-    </row>
-    <row r="403" ht="19" spans="1:3">
-      <c r="A403" s="5" t="s">
+      <c r="B401" s="29"/>
+      <c r="C401" s="27"/>
+    </row>
+    <row r="402" ht="20" spans="1:3">
+      <c r="A402" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="B403" s="9"/>
-      <c r="C403" s="7"/>
-    </row>
-    <row r="404" ht="19" spans="1:3">
-      <c r="A404" s="5" t="s">
+      <c r="B402" s="29"/>
+      <c r="C402" s="27"/>
+    </row>
+    <row r="403" ht="20" spans="1:3">
+      <c r="A403" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="B404" s="9"/>
-      <c r="C404" s="7"/>
-    </row>
-    <row r="405" ht="19" spans="1:3">
-      <c r="A405" s="5" t="s">
+      <c r="B403" s="29"/>
+      <c r="C403" s="27"/>
+    </row>
+    <row r="404" ht="20" spans="1:3">
+      <c r="A404" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="B405" s="9"/>
-      <c r="C405" s="7"/>
-    </row>
-    <row r="406" ht="19" spans="1:3">
-      <c r="A406" s="5" t="s">
+      <c r="B404" s="29"/>
+      <c r="C404" s="27"/>
+    </row>
+    <row r="405" ht="20" spans="1:3">
+      <c r="A405" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="B406" s="9"/>
-      <c r="C406" s="7"/>
-    </row>
-    <row r="407" ht="19" spans="1:3">
-      <c r="A407" s="5" t="s">
+      <c r="B405" s="29"/>
+      <c r="C405" s="27"/>
+    </row>
+    <row r="406" ht="20" spans="1:3">
+      <c r="A406" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="B407" s="9"/>
-      <c r="C407" s="7"/>
-    </row>
-    <row r="408" ht="19" spans="1:3">
-      <c r="A408" s="5" t="s">
+      <c r="B406" s="29"/>
+      <c r="C406" s="27"/>
+    </row>
+    <row r="407" ht="20" spans="1:3">
+      <c r="A407" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="B408" s="9"/>
-      <c r="C408" s="7"/>
-    </row>
-    <row r="409" ht="19" spans="1:3">
-      <c r="A409" s="5" t="s">
+      <c r="B407" s="29"/>
+      <c r="C407" s="27"/>
+    </row>
+    <row r="408" ht="20" spans="1:3">
+      <c r="A408" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="B409" s="9"/>
-      <c r="C409" s="7"/>
-    </row>
-    <row r="410" ht="19" spans="1:3">
-      <c r="A410" s="5" t="s">
+      <c r="B408" s="29"/>
+      <c r="C408" s="27"/>
+    </row>
+    <row r="409" ht="20" spans="1:3">
+      <c r="A409" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="B410" s="9"/>
-      <c r="C410" s="7"/>
-    </row>
-    <row r="411" ht="19" spans="1:3">
-      <c r="A411" s="5" t="s">
+      <c r="B409" s="29"/>
+      <c r="C409" s="27"/>
+    </row>
+    <row r="410" ht="20" spans="1:3">
+      <c r="A410" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="B411" s="9"/>
-      <c r="C411" s="7"/>
-    </row>
-    <row r="412" ht="19" spans="1:3">
-      <c r="A412" s="5" t="s">
+      <c r="B410" s="29"/>
+      <c r="C410" s="27"/>
+    </row>
+    <row r="411" ht="20" spans="1:3">
+      <c r="A411" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="B412" s="9"/>
-      <c r="C412" s="7"/>
-    </row>
-    <row r="413" ht="19" spans="1:3">
-      <c r="A413" s="5" t="s">
+      <c r="B411" s="29"/>
+      <c r="C411" s="27"/>
+    </row>
+    <row r="412" ht="20" spans="1:3">
+      <c r="A412" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="B413" s="9"/>
-      <c r="C413" s="7"/>
-    </row>
-    <row r="414" ht="19" spans="1:3">
-      <c r="A414" s="5" t="s">
+      <c r="B412" s="29"/>
+      <c r="C412" s="27"/>
+    </row>
+    <row r="413" ht="20" spans="1:3">
+      <c r="A413" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="B414" s="9"/>
-      <c r="C414" s="7"/>
-    </row>
-    <row r="415" ht="19" spans="1:3">
-      <c r="A415" s="5" t="s">
+      <c r="B413" s="29"/>
+      <c r="C413" s="27"/>
+    </row>
+    <row r="414" ht="20" spans="1:3">
+      <c r="A414" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="B415" s="9"/>
-      <c r="C415" s="7"/>
-    </row>
-    <row r="416" ht="19" spans="1:3">
-      <c r="A416" s="5" t="s">
+      <c r="B414" s="29"/>
+      <c r="C414" s="27"/>
+    </row>
+    <row r="415" ht="20" spans="1:3">
+      <c r="A415" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="B416" s="9"/>
-      <c r="C416" s="7"/>
-    </row>
-    <row r="417" ht="19" spans="1:3">
-      <c r="A417" s="5" t="s">
+      <c r="B415" s="29"/>
+      <c r="C415" s="27"/>
+    </row>
+    <row r="416" ht="20" spans="1:3">
+      <c r="A416" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="B417" s="9"/>
-      <c r="C417" s="7"/>
-    </row>
-    <row r="418" ht="19" spans="1:3">
-      <c r="A418" s="5" t="s">
+      <c r="B416" s="29"/>
+      <c r="C416" s="27"/>
+    </row>
+    <row r="417" ht="20" spans="1:3">
+      <c r="A417" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B418" s="9"/>
-      <c r="C418" s="7"/>
+      <c r="B417" s="29"/>
+      <c r="C417" s="27"/>
+    </row>
+    <row r="418" ht="20" spans="1:3">
+      <c r="A418" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B418" s="29"/>
+      <c r="C418" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="C78:C82"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="C85:C100"/>
@@ -5090,4 +5819,1356 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D193"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="180.205357142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" style="2"/>
+    <col min="3" max="3" width="27.2232142857143" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="20.3839285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="D3" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" ht="18" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" ht="18" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="D7" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" ht="18" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" ht="18" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" ht="18" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" ht="18" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" ht="18" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" ht="18" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" ht="18" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" ht="18" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" ht="18" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" ht="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" ht="18" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" ht="18" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" ht="18" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" ht="18" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" ht="18" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" ht="18" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" ht="18" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" ht="18" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" ht="18" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" ht="18" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" ht="18" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" ht="18" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" ht="18" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" ht="18" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" ht="18" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" ht="18" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" ht="18" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" ht="18" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" ht="18" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" ht="18" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" ht="18" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" ht="18" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" ht="18" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" ht="18" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" ht="18" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" ht="18" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" ht="18" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" ht="18" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" ht="18" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" ht="18" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" ht="18" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" ht="18" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" ht="18" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" ht="18" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" ht="18" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" ht="18" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B54" s="13"/>
+    </row>
+    <row r="55" ht="18" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" ht="18" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" ht="18" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" ht="18" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" ht="18" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" ht="18" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" ht="18" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" ht="18" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" ht="18" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64" ht="18" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" ht="18" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" ht="18" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" ht="18" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" ht="18" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" ht="18" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" ht="18" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" ht="18" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" ht="18" spans="1:3">
+      <c r="A72" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="73" ht="18" spans="1:3">
+      <c r="A73" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="1:2">
+      <c r="A74" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" ht="18" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" ht="35" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" ht="18" spans="1:3">
+      <c r="A77" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78" ht="18" spans="1:3">
+      <c r="A78" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" ht="18" spans="1:3">
+      <c r="A79" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" ht="18" spans="1:3">
+      <c r="A80" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81" ht="18" spans="1:3">
+      <c r="A81" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" ht="18" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" ht="18" spans="1:3">
+      <c r="A83" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="84" ht="18" spans="1:3">
+      <c r="A84" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" ht="18" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" ht="18" spans="1:2">
+      <c r="A86" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" ht="18" spans="1:2">
+      <c r="A87" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" ht="18" spans="1:2">
+      <c r="A88" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B88" s="6"/>
+    </row>
+    <row r="89" ht="18" spans="1:2">
+      <c r="A89" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" ht="18" spans="1:2">
+      <c r="A90" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" ht="18" spans="1:2">
+      <c r="A91" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" ht="18" spans="1:2">
+      <c r="A92" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" ht="18" spans="1:2">
+      <c r="A93" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" ht="18" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" ht="18" spans="1:2">
+      <c r="A95" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" ht="18" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" ht="18" spans="1:3">
+      <c r="A97" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="98" ht="18" spans="1:3">
+      <c r="A98" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="99" ht="18" spans="1:3">
+      <c r="A99" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" ht="18" spans="1:2">
+      <c r="A100" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" ht="18" spans="1:2">
+      <c r="A101" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" ht="18" spans="1:3">
+      <c r="A102" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="103" ht="18" spans="1:3">
+      <c r="A103" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="104" ht="18" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B104" s="15"/>
+    </row>
+    <row r="105" ht="18" spans="1:3">
+      <c r="A105" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="106" ht="18" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="107" ht="18" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" ht="35" spans="1:2">
+      <c r="A108" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" ht="18" spans="1:2">
+      <c r="A109" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" ht="18" spans="1:2">
+      <c r="A110" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B110" s="14"/>
+    </row>
+    <row r="111" ht="18" spans="1:3">
+      <c r="A111" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="112" ht="18" spans="1:3">
+      <c r="A112" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="113" ht="18" spans="1:3">
+      <c r="A113" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="114" ht="18" spans="1:2">
+      <c r="A114" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B114" s="16"/>
+    </row>
+    <row r="115" ht="35" spans="1:2">
+      <c r="A115" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B115" s="16"/>
+    </row>
+    <row r="116" ht="18" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B116" s="16"/>
+    </row>
+    <row r="117" ht="18" spans="1:2">
+      <c r="A117" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B117" s="6"/>
+    </row>
+    <row r="118" ht="18" spans="1:2">
+      <c r="A118" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B118" s="6"/>
+    </row>
+    <row r="119" ht="18" spans="1:2">
+      <c r="A119" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" ht="18" spans="1:2">
+      <c r="A120" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" ht="18" spans="1:2">
+      <c r="A121" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122" ht="18" spans="1:2">
+      <c r="A122" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123" ht="18" spans="1:2">
+      <c r="A123" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B123" s="15"/>
+    </row>
+    <row r="124" ht="18" spans="1:2">
+      <c r="A124" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125" ht="18" spans="1:2">
+      <c r="A125" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" ht="18" spans="1:2">
+      <c r="A126" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" ht="18" spans="1:3">
+      <c r="A127" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" ht="18" spans="1:2">
+      <c r="A128" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B128" s="6"/>
+    </row>
+    <row r="129" ht="18" spans="1:3">
+      <c r="A129" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" ht="18" spans="1:2">
+      <c r="A130" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B130" s="16"/>
+    </row>
+    <row r="131" ht="18" spans="1:3">
+      <c r="A131" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="132" ht="18" spans="1:3">
+      <c r="A132" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B132" s="15"/>
+      <c r="C132" s="17"/>
+    </row>
+    <row r="133" ht="18" spans="1:2">
+      <c r="A133" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B133" s="16"/>
+    </row>
+    <row r="134" ht="35" spans="1:2">
+      <c r="A134" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B134" s="16"/>
+    </row>
+    <row r="135" ht="35" spans="1:2">
+      <c r="A135" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B135" s="16"/>
+    </row>
+    <row r="136" ht="35" spans="1:2">
+      <c r="A136" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B136" s="16"/>
+    </row>
+    <row r="137" ht="35" spans="1:2">
+      <c r="A137" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B137" s="16"/>
+    </row>
+    <row r="138" ht="18" spans="1:2">
+      <c r="A138" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B138" s="6"/>
+    </row>
+    <row r="139" ht="18" spans="1:2">
+      <c r="A139" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B139" s="6"/>
+    </row>
+    <row r="140" ht="18" spans="1:2">
+      <c r="A140" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B140" s="6"/>
+    </row>
+    <row r="141" ht="18" spans="1:2">
+      <c r="A141" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B141" s="6"/>
+    </row>
+    <row r="142" ht="18" spans="1:3">
+      <c r="A142" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="143" ht="18" spans="1:2">
+      <c r="A143" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" ht="18" spans="1:3">
+      <c r="A144" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B144" s="13"/>
+      <c r="C144" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="145" ht="18" spans="1:2">
+      <c r="A145" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B145" s="15"/>
+    </row>
+    <row r="146" ht="18" spans="1:2">
+      <c r="A146" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B146" s="6"/>
+    </row>
+    <row r="147" ht="35" spans="1:3">
+      <c r="A147" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="148" ht="18" spans="1:3">
+      <c r="A148" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B148" s="13"/>
+      <c r="C148" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="149" ht="18" spans="1:2">
+      <c r="A149" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B149" s="6"/>
+    </row>
+    <row r="150" ht="18" spans="1:2">
+      <c r="A150" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B150" s="6"/>
+    </row>
+    <row r="151" ht="18" spans="1:2">
+      <c r="A151" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B151" s="6"/>
+    </row>
+    <row r="152" ht="18" spans="1:2">
+      <c r="A152" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B152" s="6"/>
+    </row>
+    <row r="153" ht="18" spans="1:2">
+      <c r="A153" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B153" s="6"/>
+    </row>
+    <row r="154" ht="35" spans="1:2">
+      <c r="A154" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B154" s="16"/>
+    </row>
+    <row r="155" ht="18" spans="1:3">
+      <c r="A155" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B155" s="13"/>
+      <c r="C155" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="156" ht="18" spans="1:2">
+      <c r="A156" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B156" s="16"/>
+    </row>
+    <row r="157" ht="18" spans="1:3">
+      <c r="A157" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B157" s="13"/>
+      <c r="C157" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="158" ht="35" spans="1:2">
+      <c r="A158" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B158" s="16"/>
+    </row>
+    <row r="159" ht="35" spans="1:2">
+      <c r="A159" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B159" s="6"/>
+    </row>
+    <row r="160" ht="18" spans="1:3">
+      <c r="A160" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B160" s="13"/>
+      <c r="C160" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="161" ht="18" spans="1:3">
+      <c r="A161" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B161" s="13"/>
+      <c r="C161" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="162" ht="18" spans="1:2">
+      <c r="A162" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B162" s="14"/>
+    </row>
+    <row r="163" ht="18" spans="1:2">
+      <c r="A163" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B163" s="14"/>
+    </row>
+    <row r="164" ht="18" spans="1:2">
+      <c r="A164" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B164" s="14"/>
+    </row>
+    <row r="165" ht="18" spans="1:2">
+      <c r="A165" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B165" s="6"/>
+    </row>
+    <row r="166" ht="18" spans="1:2">
+      <c r="A166" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B166" s="14"/>
+    </row>
+    <row r="167" ht="18" spans="1:2">
+      <c r="A167" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B167" s="14"/>
+    </row>
+    <row r="168" ht="18" spans="1:2">
+      <c r="A168" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B168" s="6"/>
+    </row>
+    <row r="169" ht="18" spans="1:2">
+      <c r="A169" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B169" s="6"/>
+    </row>
+    <row r="170" ht="18" spans="1:2">
+      <c r="A170" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B170" s="6"/>
+    </row>
+    <row r="171" ht="18" spans="1:2">
+      <c r="A171" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B171" s="6"/>
+    </row>
+    <row r="172" ht="18" spans="1:2">
+      <c r="A172" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B172" s="14"/>
+    </row>
+    <row r="173" ht="18" spans="1:2">
+      <c r="A173" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B173" s="14"/>
+    </row>
+    <row r="174" ht="18" spans="1:2">
+      <c r="A174" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B174" s="14"/>
+    </row>
+    <row r="175" ht="35" spans="1:2">
+      <c r="A175" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B175" s="6"/>
+    </row>
+    <row r="176" ht="18" spans="1:2">
+      <c r="A176" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B176" s="6"/>
+    </row>
+    <row r="177" ht="18" spans="1:2">
+      <c r="A177" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B177" s="14"/>
+    </row>
+    <row r="178" ht="18" spans="1:2">
+      <c r="A178" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B178" s="14"/>
+    </row>
+    <row r="179" ht="18" spans="1:2">
+      <c r="A179" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B179" s="6"/>
+    </row>
+    <row r="180" ht="18" spans="1:3">
+      <c r="A180" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B180" s="13"/>
+      <c r="C180" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="181" ht="18" spans="1:3">
+      <c r="A181" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B181" s="13"/>
+      <c r="C181" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="182" ht="35" spans="1:2">
+      <c r="A182" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B182" s="16"/>
+    </row>
+    <row r="183" ht="35" spans="1:2">
+      <c r="A183" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B183" s="6"/>
+    </row>
+    <row r="184" ht="18" spans="1:2">
+      <c r="A184" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B184" s="6"/>
+    </row>
+    <row r="185" ht="35" spans="1:2">
+      <c r="A185" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B185" s="16"/>
+    </row>
+    <row r="186" ht="35" spans="1:2">
+      <c r="A186" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B186" s="18"/>
+    </row>
+    <row r="187" ht="35" spans="1:2">
+      <c r="A187" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B187" s="6"/>
+    </row>
+    <row r="188" ht="35" spans="1:2">
+      <c r="A188" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B188" s="6"/>
+    </row>
+    <row r="189" ht="35" spans="1:2">
+      <c r="A189" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B189" s="14"/>
+    </row>
+    <row r="190" ht="18" spans="1:2">
+      <c r="A190" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B190" s="6"/>
+    </row>
+    <row r="191" ht="18" spans="1:3">
+      <c r="A191" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B191" s="13"/>
+      <c r="C191" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="192" ht="35" spans="1:2">
+      <c r="A192" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B192" s="6"/>
+    </row>
+    <row r="193" ht="18" spans="1:3">
+      <c r="A193" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="87.0535714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/功能支持.xlsx
+++ b/功能支持.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13200" activeTab="2"/>
+    <workbookView windowWidth="28000" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -1953,8 +1953,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -2004,7 +2004,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2017,23 +2063,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2047,103 +2139,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2198,13 +2198,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,19 +2276,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2240,37 +2306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2282,13 +2318,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2300,19 +2342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2324,43 +2354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,8 +2388,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2397,8 +2397,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2414,6 +2423,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2458,181 +2482,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2693,9 +2693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2717,15 +2714,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2734,9 +2722,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3062,2738 +3047,2738 @@
   <sheetPr/>
   <dimension ref="A1:C418"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="148.366071428571" customWidth="1"/>
-    <col min="2" max="2" width="11.0089285714286" style="20" customWidth="1"/>
-    <col min="3" max="3" width="51.0357142857143" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.0089285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.0357142857143" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="20" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="20" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" ht="20" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" ht="20" spans="1:3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" ht="20" spans="1:3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" ht="20" spans="1:3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" ht="20" spans="1:3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" ht="20" spans="1:3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" ht="40" spans="1:3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" ht="40" spans="1:3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" ht="20" spans="1:3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" ht="20" spans="1:3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" ht="20" spans="1:3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" ht="40" spans="1:3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" ht="20" spans="1:1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" ht="20" spans="1:2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" ht="20" spans="1:2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" ht="20" spans="1:2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" ht="20" spans="1:2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" ht="20" spans="1:2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" ht="20" spans="1:2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" ht="20" spans="1:2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" ht="20" spans="1:1">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" ht="20" spans="1:2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" ht="20" spans="1:2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" ht="20" spans="1:2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" ht="20" spans="1:2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" ht="20" spans="1:2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" ht="20" spans="1:2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" ht="20" spans="1:2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" ht="20" spans="1:2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" ht="20" spans="1:2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" ht="20" spans="1:2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" ht="20" spans="1:2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" ht="20" spans="1:2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" ht="20" spans="1:2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" ht="20" spans="1:2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" ht="20" spans="1:2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" ht="20" spans="1:2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" ht="20" spans="1:2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" ht="20" spans="1:2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="28"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" ht="20" spans="1:2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="28"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" ht="20" spans="1:2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" ht="20" spans="1:2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" ht="20" spans="1:2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" ht="20" spans="1:2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" ht="20" spans="1:2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" ht="20" spans="1:2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" ht="20" spans="1:2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="30"/>
+      <c r="B50" s="13"/>
     </row>
     <row r="51" ht="20" spans="1:3">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="31" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="52" ht="40" spans="1:3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="31"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="27"/>
     </row>
     <row r="53" ht="40" spans="1:3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="28"/>
     </row>
     <row r="54" ht="40" spans="1:3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="32"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="28"/>
     </row>
     <row r="55" ht="36" spans="1:3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="32" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" ht="20" spans="1:3">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="28"/>
     </row>
     <row r="57" ht="20" spans="1:3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="32"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="28"/>
     </row>
     <row r="58" ht="20" spans="1:3">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="32"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="28"/>
     </row>
     <row r="59" ht="20" spans="1:2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" ht="20" spans="1:2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="28"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" ht="20" spans="1:2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="28"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" ht="20" spans="1:2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" ht="20" spans="1:2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="28"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" ht="20" spans="1:2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="28"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" ht="20" spans="1:2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="28"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" ht="20" spans="1:2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="28"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" ht="20" spans="1:2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" ht="20" spans="1:2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="28"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" ht="20" spans="1:2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="28"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70" ht="20" spans="1:2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="28"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" ht="20" spans="1:2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="28"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" ht="20" spans="1:2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" ht="20" spans="1:2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="28"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" ht="20" spans="1:2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="28"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" ht="20" spans="1:2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="28"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" ht="20" spans="1:2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="28"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" ht="20" spans="1:2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="28"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" ht="20" spans="1:3">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="27" t="s">
+      <c r="B78" s="6"/>
+      <c r="C78" s="26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="79" ht="20" spans="1:3">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="27"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="26"/>
     </row>
     <row r="80" ht="20" spans="1:3">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="27"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="26"/>
     </row>
     <row r="81" ht="40" spans="1:3">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="27"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="26"/>
     </row>
     <row r="82" ht="20" spans="1:3">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="27"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="26"/>
     </row>
     <row r="83" ht="20" spans="1:3">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="6"/>
+      <c r="C83" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="84" ht="20" spans="1:3">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="27"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="26"/>
     </row>
     <row r="85" ht="20" spans="1:3">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="27" t="s">
+      <c r="B85" s="6"/>
+      <c r="C85" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:3">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="27"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="26"/>
     </row>
     <row r="87" ht="20" spans="1:3">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="27"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="26"/>
     </row>
     <row r="88" ht="20" spans="1:3">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="27"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="26"/>
     </row>
     <row r="89" ht="20" spans="1:3">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="27"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="26"/>
     </row>
     <row r="90" ht="20" spans="1:3">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="27"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="26"/>
     </row>
     <row r="91" ht="20" spans="1:3">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="27"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="26"/>
     </row>
     <row r="92" ht="20" spans="1:3">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="27"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="26"/>
     </row>
     <row r="93" ht="20" spans="1:3">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="27"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="26"/>
     </row>
     <row r="94" ht="20" spans="1:3">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="27"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="26"/>
     </row>
     <row r="95" ht="20" spans="1:3">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="27"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="26"/>
     </row>
     <row r="96" ht="20" spans="1:3">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="27"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="26"/>
     </row>
     <row r="97" ht="20" spans="1:3">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="27"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="26"/>
     </row>
     <row r="98" ht="20" spans="1:3">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="27"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="26"/>
     </row>
     <row r="99" ht="20" spans="1:3">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="27"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="26"/>
     </row>
     <row r="100" ht="20" spans="1:3">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="27"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="26"/>
     </row>
     <row r="101" ht="20" spans="1:3">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="27" t="s">
+      <c r="B101" s="6"/>
+      <c r="C101" s="26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="102" ht="20" spans="1:3">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="27"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="26"/>
     </row>
     <row r="103" ht="20" spans="1:3">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="27"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="26"/>
     </row>
     <row r="104" ht="40" spans="1:3">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="29"/>
-      <c r="C104" s="27"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="26"/>
     </row>
     <row r="105" ht="20" spans="1:3">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="27"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="26"/>
     </row>
     <row r="106" ht="20" spans="1:3">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="29"/>
-      <c r="C106" s="27"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="26"/>
     </row>
     <row r="107" ht="20" spans="1:3">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="27"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="26"/>
     </row>
     <row r="108" ht="20" spans="1:3">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="27"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="26"/>
     </row>
     <row r="109" ht="20" spans="1:3">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="27"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="26"/>
     </row>
     <row r="110" ht="20" spans="1:3">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="29"/>
-      <c r="C110" s="27"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="26"/>
     </row>
     <row r="111" ht="20" spans="1:3">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="29"/>
-      <c r="C111" s="27"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="26"/>
     </row>
     <row r="112" ht="20" spans="1:3">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="29"/>
-      <c r="C112" s="27"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="26"/>
     </row>
     <row r="113" ht="20" spans="1:3">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="27"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="26"/>
     </row>
     <row r="114" ht="20" spans="1:3">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="29"/>
-      <c r="C114" s="27"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="26"/>
     </row>
     <row r="115" ht="20" spans="1:3">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="29"/>
-      <c r="C115" s="27"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="26"/>
     </row>
     <row r="116" ht="20" spans="1:3">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="27"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="26"/>
     </row>
     <row r="117" ht="20" spans="1:3">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="29"/>
-      <c r="C117" s="27"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="26"/>
     </row>
     <row r="118" ht="20" spans="1:3">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="27"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="26"/>
     </row>
     <row r="119" ht="20" spans="1:3">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="27" t="s">
+      <c r="B119" s="6"/>
+      <c r="C119" s="26" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="120" ht="20" spans="1:3">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="27"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="26"/>
     </row>
     <row r="121" ht="20" spans="1:3">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="27"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="26"/>
     </row>
     <row r="122" ht="20" spans="1:3">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="29"/>
-      <c r="C122" s="27"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="26"/>
     </row>
     <row r="123" ht="20" spans="1:3">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="29"/>
-      <c r="C123" s="27" t="s">
+      <c r="B123" s="6"/>
+      <c r="C123" s="26" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="124" ht="20" spans="1:3">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="27"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="26"/>
     </row>
     <row r="125" ht="20" spans="1:3">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B125" s="29"/>
-      <c r="C125" s="27"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="26"/>
     </row>
     <row r="126" ht="20" spans="1:3">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="27"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="26"/>
     </row>
     <row r="127" ht="20" spans="1:3">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="27"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="26"/>
     </row>
     <row r="128" ht="20" spans="1:3">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="29"/>
-      <c r="C128" s="27"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="26"/>
     </row>
     <row r="129" ht="20" spans="1:3">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B129" s="29"/>
-      <c r="C129" s="27"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="26"/>
     </row>
     <row r="130" ht="20" spans="1:3">
-      <c r="A130" s="25" t="s">
+      <c r="A130" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B130" s="29"/>
-      <c r="C130" s="27"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="26"/>
     </row>
     <row r="131" ht="20" spans="1:3">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B131" s="29"/>
-      <c r="C131" s="27"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="26"/>
     </row>
     <row r="132" ht="20" spans="1:2">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="29"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" ht="20" spans="1:2">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B133" s="29"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" ht="20" spans="1:2">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B134" s="28"/>
+      <c r="B134" s="14"/>
     </row>
     <row r="135" ht="20" spans="1:2">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B135" s="29"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" ht="20" spans="1:2">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B136" s="28"/>
+      <c r="B136" s="14"/>
     </row>
     <row r="137" ht="20" spans="1:2">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B137" s="28"/>
+      <c r="B137" s="14"/>
     </row>
     <row r="138" ht="40" spans="1:2">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B138" s="28"/>
+      <c r="B138" s="14"/>
     </row>
     <row r="139" ht="20" spans="1:2">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B139" s="28"/>
+      <c r="B139" s="14"/>
     </row>
     <row r="140" ht="20" spans="1:2">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B140" s="30"/>
+      <c r="B140" s="13"/>
     </row>
     <row r="141" ht="20" spans="1:2">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B141" s="28"/>
+      <c r="B141" s="14"/>
     </row>
     <row r="142" ht="20" spans="1:2">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B142" s="28"/>
+      <c r="B142" s="14"/>
     </row>
     <row r="143" ht="40" spans="1:2">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B143" s="28"/>
+      <c r="B143" s="14"/>
     </row>
     <row r="144" ht="20" spans="1:2">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B144" s="28"/>
+      <c r="B144" s="14"/>
     </row>
     <row r="145" ht="20" spans="1:2">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B145" s="28"/>
+      <c r="B145" s="14"/>
     </row>
     <row r="146" ht="40" spans="1:2">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B146" s="28"/>
+      <c r="B146" s="14"/>
     </row>
     <row r="147" ht="20" spans="1:2">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B147" s="29"/>
+      <c r="B147" s="6"/>
     </row>
     <row r="148" ht="20" spans="1:2">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B148" s="29"/>
+      <c r="B148" s="6"/>
     </row>
     <row r="149" ht="20" spans="1:2">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B149" s="29"/>
+      <c r="B149" s="6"/>
     </row>
     <row r="150" ht="20" spans="1:2">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B150" s="29"/>
+      <c r="B150" s="6"/>
     </row>
     <row r="151" ht="20" spans="1:2">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B151" s="29"/>
+      <c r="B151" s="6"/>
     </row>
     <row r="152" ht="20" spans="1:2">
-      <c r="A152" s="25" t="s">
+      <c r="A152" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B152" s="29"/>
+      <c r="B152" s="6"/>
     </row>
     <row r="153" ht="40" spans="1:2">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B153" s="29"/>
+      <c r="B153" s="6"/>
     </row>
     <row r="154" ht="40" spans="1:2">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B154" s="29"/>
+      <c r="B154" s="6"/>
     </row>
     <row r="155" ht="20" spans="1:2">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B155" s="29"/>
+      <c r="B155" s="6"/>
     </row>
     <row r="156" ht="20" spans="1:2">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B156" s="29"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157" ht="20" spans="1:2">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B157" s="29"/>
+      <c r="B157" s="6"/>
     </row>
     <row r="158" ht="20" spans="1:2">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B158" s="29"/>
+      <c r="B158" s="6"/>
     </row>
     <row r="159" ht="20" spans="1:2">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B159" s="29"/>
+      <c r="B159" s="6"/>
     </row>
     <row r="160" ht="20" spans="1:2">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B160" s="29"/>
+      <c r="B160" s="6"/>
     </row>
     <row r="161" ht="20" spans="1:2">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B161" s="28"/>
+      <c r="B161" s="14"/>
     </row>
     <row r="162" ht="20" spans="1:2">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B162" s="28"/>
+      <c r="B162" s="14"/>
     </row>
     <row r="163" ht="20" spans="1:2">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B163" s="28"/>
+      <c r="B163" s="14"/>
     </row>
     <row r="164" ht="20" spans="1:2">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B164" s="28"/>
+      <c r="B164" s="14"/>
     </row>
     <row r="165" ht="20" spans="1:2">
-      <c r="A165" s="25" t="s">
+      <c r="A165" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B165" s="29"/>
+      <c r="B165" s="6"/>
     </row>
     <row r="166" ht="20" spans="1:2">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B166" s="28"/>
+      <c r="B166" s="14"/>
     </row>
     <row r="167" ht="20" spans="1:2">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B167" s="29"/>
+      <c r="B167" s="6"/>
     </row>
     <row r="168" ht="20" spans="1:2">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B168" s="29"/>
+      <c r="B168" s="6"/>
     </row>
     <row r="169" ht="20" spans="1:2">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B169" s="29"/>
+      <c r="B169" s="6"/>
     </row>
     <row r="170" ht="20" spans="1:2">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B170" s="29"/>
+      <c r="B170" s="6"/>
     </row>
     <row r="171" ht="20" spans="1:2">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B171" s="29"/>
+      <c r="B171" s="6"/>
     </row>
     <row r="172" ht="20" spans="1:2">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B172" s="29"/>
+      <c r="B172" s="6"/>
     </row>
     <row r="173" ht="20" spans="1:2">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B173" s="29"/>
+      <c r="B173" s="6"/>
     </row>
     <row r="174" ht="20" spans="1:2">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B174" s="29"/>
+      <c r="B174" s="6"/>
     </row>
     <row r="175" ht="20" spans="1:2">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B175" s="29"/>
+      <c r="B175" s="6"/>
     </row>
     <row r="176" ht="40" spans="1:2">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B176" s="29"/>
+      <c r="B176" s="6"/>
     </row>
     <row r="177" ht="20" spans="1:2">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B177" s="30"/>
+      <c r="B177" s="13"/>
     </row>
     <row r="178" ht="20" spans="1:2">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B178" s="29"/>
+      <c r="B178" s="6"/>
     </row>
     <row r="179" ht="20" spans="1:2">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B179" s="29"/>
+      <c r="B179" s="6"/>
     </row>
     <row r="180" ht="20" spans="1:2">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B180" s="29"/>
+      <c r="B180" s="6"/>
     </row>
     <row r="181" ht="20" spans="1:2">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B181" s="29"/>
+      <c r="B181" s="6"/>
     </row>
     <row r="182" ht="20" spans="1:2">
-      <c r="A182" s="25" t="s">
+      <c r="A182" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B182" s="28"/>
+      <c r="B182" s="14"/>
     </row>
     <row r="183" ht="20" spans="1:2">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B183" s="29"/>
+      <c r="B183" s="6"/>
     </row>
     <row r="184" ht="20" spans="1:2">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B184" s="29"/>
+      <c r="B184" s="6"/>
     </row>
     <row r="185" ht="20" spans="1:2">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B185" s="29"/>
+      <c r="B185" s="6"/>
     </row>
     <row r="186" ht="20" spans="1:2">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B186" s="29"/>
+      <c r="B186" s="6"/>
     </row>
     <row r="187" ht="20" spans="1:2">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B187" s="29"/>
+      <c r="B187" s="6"/>
     </row>
     <row r="188" ht="20" spans="1:2">
-      <c r="A188" s="25" t="s">
+      <c r="A188" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B188" s="29"/>
+      <c r="B188" s="6"/>
     </row>
     <row r="189" ht="20" spans="1:2">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B189" s="29"/>
+      <c r="B189" s="6"/>
     </row>
     <row r="190" ht="20" spans="1:2">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B190" s="29"/>
+      <c r="B190" s="6"/>
     </row>
     <row r="191" ht="20" spans="1:2">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="B191" s="29"/>
+      <c r="B191" s="6"/>
     </row>
     <row r="192" ht="20" spans="1:2">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B192" s="29"/>
+      <c r="B192" s="6"/>
     </row>
     <row r="193" ht="20" spans="1:2">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B193" s="29"/>
+      <c r="B193" s="6"/>
     </row>
     <row r="194" ht="20" spans="1:2">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B194" s="29"/>
+      <c r="B194" s="6"/>
     </row>
     <row r="195" ht="20" spans="1:2">
-      <c r="A195" s="25" t="s">
+      <c r="A195" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B195" s="29"/>
+      <c r="B195" s="6"/>
     </row>
     <row r="196" ht="20" spans="1:2">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B196" s="29"/>
+      <c r="B196" s="6"/>
     </row>
     <row r="197" ht="20" spans="1:2">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B197" s="29"/>
+      <c r="B197" s="6"/>
     </row>
     <row r="198" ht="20" spans="1:2">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B198" s="29"/>
+      <c r="B198" s="6"/>
     </row>
     <row r="199" ht="20" spans="1:2">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B199" s="29"/>
+      <c r="B199" s="6"/>
     </row>
     <row r="200" ht="20" spans="1:2">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B200" s="29"/>
+      <c r="B200" s="6"/>
     </row>
     <row r="201" ht="40" spans="1:2">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="B201" s="29"/>
+      <c r="B201" s="6"/>
     </row>
     <row r="202" ht="20" spans="1:2">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B202" s="29"/>
+      <c r="B202" s="6"/>
     </row>
     <row r="203" ht="40" spans="1:2">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B203" s="28"/>
+      <c r="B203" s="14"/>
     </row>
     <row r="204" ht="40" spans="1:2">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B204" s="28"/>
+      <c r="B204" s="14"/>
     </row>
     <row r="205" ht="20" spans="1:2">
-      <c r="A205" s="25" t="s">
+      <c r="A205" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B205" s="28"/>
+      <c r="B205" s="14"/>
     </row>
     <row r="206" ht="40" spans="1:2">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B206" s="28"/>
+      <c r="B206" s="14"/>
     </row>
     <row r="207" ht="20" spans="1:2">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B207" s="28"/>
+      <c r="B207" s="14"/>
     </row>
     <row r="208" ht="20" spans="1:2">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B208" s="28"/>
+      <c r="B208" s="14"/>
     </row>
     <row r="209" ht="20" spans="1:2">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B209" s="29"/>
+      <c r="B209" s="6"/>
     </row>
     <row r="210" ht="20" spans="1:2">
-      <c r="A210" s="25" t="s">
+      <c r="A210" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B210" s="29"/>
+      <c r="B210" s="6"/>
     </row>
     <row r="211" ht="40" spans="1:2">
-      <c r="A211" s="25" t="s">
+      <c r="A211" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B211" s="28"/>
+      <c r="B211" s="14"/>
     </row>
     <row r="212" ht="20" spans="1:2">
-      <c r="A212" s="25" t="s">
+      <c r="A212" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B212" s="29"/>
+      <c r="B212" s="6"/>
     </row>
     <row r="213" ht="20" spans="1:2">
-      <c r="A213" s="25" t="s">
+      <c r="A213" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B213" s="28"/>
+      <c r="B213" s="14"/>
     </row>
     <row r="214" ht="20" spans="1:2">
-      <c r="A214" s="25" t="s">
+      <c r="A214" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B214" s="29"/>
+      <c r="B214" s="6"/>
     </row>
     <row r="215" ht="20" spans="1:2">
-      <c r="A215" s="25" t="s">
+      <c r="A215" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B215" s="29"/>
+      <c r="B215" s="6"/>
     </row>
     <row r="216" ht="20" spans="1:2">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B216" s="29"/>
+      <c r="B216" s="6"/>
     </row>
     <row r="217" ht="20" spans="1:2">
-      <c r="A217" s="25" t="s">
+      <c r="A217" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B217" s="28"/>
+      <c r="B217" s="14"/>
     </row>
     <row r="218" ht="20" spans="1:2">
-      <c r="A218" s="25" t="s">
+      <c r="A218" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B218" s="28"/>
+      <c r="B218" s="14"/>
     </row>
     <row r="219" ht="20" spans="1:2">
-      <c r="A219" s="25" t="s">
+      <c r="A219" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B219" s="28"/>
+      <c r="B219" s="14"/>
     </row>
     <row r="220" ht="20" spans="1:2">
-      <c r="A220" s="25" t="s">
+      <c r="A220" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B220" s="28"/>
+      <c r="B220" s="14"/>
     </row>
     <row r="221" ht="20" spans="1:3">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B221" s="29"/>
-      <c r="C221" s="27" t="s">
+      <c r="B221" s="6"/>
+      <c r="C221" s="26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="222" ht="20" spans="1:3">
-      <c r="A222" s="25" t="s">
+      <c r="A222" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B222" s="29"/>
-      <c r="C222" s="27"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="26"/>
     </row>
     <row r="223" ht="20" spans="1:3">
-      <c r="A223" s="25" t="s">
+      <c r="A223" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B223" s="29"/>
-      <c r="C223" s="27"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="26"/>
     </row>
     <row r="224" ht="20" spans="1:2">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B224" s="28"/>
+      <c r="B224" s="14"/>
     </row>
     <row r="225" ht="20" spans="1:2">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B225" s="28"/>
+      <c r="B225" s="14"/>
     </row>
     <row r="226" ht="20" spans="1:2">
-      <c r="A226" s="25" t="s">
+      <c r="A226" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="B226" s="28"/>
+      <c r="B226" s="14"/>
     </row>
     <row r="227" ht="20" spans="1:2">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B227" s="28"/>
+      <c r="B227" s="14"/>
     </row>
     <row r="228" ht="20" spans="1:2">
-      <c r="A228" s="25" t="s">
+      <c r="A228" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B228" s="29"/>
+      <c r="B228" s="6"/>
     </row>
     <row r="229" ht="20" spans="1:2">
-      <c r="A229" s="25" t="s">
+      <c r="A229" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B229" s="29"/>
+      <c r="B229" s="6"/>
     </row>
     <row r="230" ht="20" spans="1:2">
-      <c r="A230" s="25" t="s">
+      <c r="A230" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B230" s="28"/>
+      <c r="B230" s="14"/>
     </row>
     <row r="231" ht="20" spans="1:2">
-      <c r="A231" s="25" t="s">
+      <c r="A231" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B231" s="28"/>
+      <c r="B231" s="14"/>
     </row>
     <row r="232" ht="20" spans="1:2">
-      <c r="A232" s="25" t="s">
+      <c r="A232" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="B232" s="28"/>
+      <c r="B232" s="14"/>
     </row>
     <row r="233" ht="20" spans="1:2">
-      <c r="A233" s="25" t="s">
+      <c r="A233" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B233" s="28"/>
+      <c r="B233" s="14"/>
     </row>
     <row r="234" ht="20" spans="1:2">
-      <c r="A234" s="25" t="s">
+      <c r="A234" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B234" s="28"/>
+      <c r="B234" s="14"/>
     </row>
     <row r="235" ht="20" spans="1:2">
-      <c r="A235" s="25" t="s">
+      <c r="A235" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B235" s="28"/>
+      <c r="B235" s="14"/>
     </row>
     <row r="236" ht="20" spans="1:2">
-      <c r="A236" s="25" t="s">
+      <c r="A236" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B236" s="28"/>
+      <c r="B236" s="14"/>
     </row>
     <row r="237" ht="20" spans="1:2">
-      <c r="A237" s="25" t="s">
+      <c r="A237" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B237" s="29"/>
+      <c r="B237" s="6"/>
     </row>
     <row r="238" ht="20" spans="1:2">
-      <c r="A238" s="25" t="s">
+      <c r="A238" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B238" s="29"/>
+      <c r="B238" s="6"/>
     </row>
     <row r="239" ht="20" spans="1:2">
-      <c r="A239" s="25" t="s">
+      <c r="A239" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B239" s="28"/>
+      <c r="B239" s="14"/>
     </row>
     <row r="240" ht="20" spans="1:2">
-      <c r="A240" s="25" t="s">
+      <c r="A240" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B240" s="28"/>
+      <c r="B240" s="14"/>
     </row>
     <row r="241" ht="20" spans="1:2">
-      <c r="A241" s="25" t="s">
+      <c r="A241" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="B241" s="28"/>
+      <c r="B241" s="14"/>
     </row>
     <row r="242" ht="20" spans="1:3">
-      <c r="A242" s="25" t="s">
+      <c r="A242" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B242" s="29"/>
-      <c r="C242" s="33" t="s">
+      <c r="B242" s="6"/>
+      <c r="C242" s="29" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="243" ht="20" spans="1:3">
-      <c r="A243" s="25" t="s">
+      <c r="A243" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B243" s="29"/>
-      <c r="C243" s="33"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="29"/>
     </row>
     <row r="244" ht="20" spans="1:3">
-      <c r="A244" s="25" t="s">
+      <c r="A244" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B244" s="29"/>
-      <c r="C244" s="33"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="29"/>
     </row>
     <row r="245" ht="20" spans="1:3">
-      <c r="A245" s="25" t="s">
+      <c r="A245" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="B245" s="29"/>
-      <c r="C245" s="27" t="s">
+      <c r="B245" s="6"/>
+      <c r="C245" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="246" ht="20" spans="1:3">
-      <c r="A246" s="25" t="s">
+      <c r="A246" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B246" s="29"/>
-      <c r="C246" s="27"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="26"/>
     </row>
     <row r="247" ht="20" spans="1:3">
-      <c r="A247" s="25" t="s">
+      <c r="A247" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B247" s="29"/>
-      <c r="C247" s="27"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="26"/>
     </row>
     <row r="248" ht="20" spans="1:3">
-      <c r="A248" s="25" t="s">
+      <c r="A248" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="B248" s="29"/>
-      <c r="C248" s="27"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="26"/>
     </row>
     <row r="249" ht="20" spans="1:2">
-      <c r="A249" s="25" t="s">
+      <c r="A249" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="B249" s="28"/>
+      <c r="B249" s="14"/>
     </row>
     <row r="250" ht="20" spans="1:2">
-      <c r="A250" s="25" t="s">
+      <c r="A250" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B250" s="28"/>
+      <c r="B250" s="14"/>
     </row>
     <row r="251" ht="20" spans="1:2">
-      <c r="A251" s="25" t="s">
+      <c r="A251" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B251" s="28"/>
+      <c r="B251" s="14"/>
     </row>
     <row r="252" ht="20" spans="1:2">
-      <c r="A252" s="25" t="s">
+      <c r="A252" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="B252" s="28"/>
+      <c r="B252" s="14"/>
     </row>
     <row r="253" ht="20" spans="1:2">
-      <c r="A253" s="25" t="s">
+      <c r="A253" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B253" s="29"/>
+      <c r="B253" s="6"/>
     </row>
     <row r="254" ht="20" spans="1:2">
-      <c r="A254" s="25" t="s">
+      <c r="A254" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B254" s="28"/>
+      <c r="B254" s="14"/>
     </row>
     <row r="255" ht="20" spans="1:2">
-      <c r="A255" s="25" t="s">
+      <c r="A255" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B255" s="29"/>
+      <c r="B255" s="6"/>
     </row>
     <row r="256" ht="20" spans="1:2">
-      <c r="A256" s="25" t="s">
+      <c r="A256" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B256" s="29"/>
+      <c r="B256" s="6"/>
     </row>
     <row r="257" ht="40" spans="1:2">
-      <c r="A257" s="25" t="s">
+      <c r="A257" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B257" s="29"/>
+      <c r="B257" s="6"/>
     </row>
     <row r="258" ht="20" spans="1:2">
-      <c r="A258" s="25" t="s">
+      <c r="A258" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B258" s="29"/>
+      <c r="B258" s="6"/>
     </row>
     <row r="259" ht="20" spans="1:3">
-      <c r="A259" s="25" t="s">
+      <c r="A259" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="B259" s="29"/>
-      <c r="C259" s="27" t="s">
+      <c r="B259" s="6"/>
+      <c r="C259" s="26" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="260" ht="20" spans="1:3">
-      <c r="A260" s="25" t="s">
+      <c r="A260" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="B260" s="29"/>
-      <c r="C260" s="27"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="26"/>
     </row>
     <row r="261" ht="40" spans="1:3">
-      <c r="A261" s="25" t="s">
+      <c r="A261" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B261" s="29"/>
-      <c r="C261" s="27"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="26"/>
     </row>
     <row r="262" ht="40" spans="1:3">
-      <c r="A262" s="25" t="s">
+      <c r="A262" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B262" s="29"/>
-      <c r="C262" s="27"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="26"/>
     </row>
     <row r="263" ht="20" spans="1:3">
-      <c r="A263" s="25" t="s">
+      <c r="A263" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B263" s="29"/>
-      <c r="C263" s="27"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="26"/>
     </row>
     <row r="264" ht="20" spans="1:3">
-      <c r="A264" s="25" t="s">
+      <c r="A264" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="B264" s="29"/>
-      <c r="C264" s="27"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="26"/>
     </row>
     <row r="265" ht="20" spans="1:2">
-      <c r="A265" s="25" t="s">
+      <c r="A265" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B265" s="28"/>
+      <c r="B265" s="14"/>
     </row>
     <row r="266" ht="20" spans="1:2">
-      <c r="A266" s="25" t="s">
+      <c r="A266" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="B266" s="28"/>
+      <c r="B266" s="14"/>
     </row>
     <row r="267" ht="20" spans="1:2">
-      <c r="A267" s="25" t="s">
+      <c r="A267" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="B267" s="28"/>
+      <c r="B267" s="14"/>
     </row>
     <row r="268" ht="20" spans="1:2">
-      <c r="A268" s="25" t="s">
+      <c r="A268" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="B268" s="28"/>
+      <c r="B268" s="14"/>
     </row>
     <row r="269" ht="20" spans="1:2">
-      <c r="A269" s="25" t="s">
+      <c r="A269" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="B269" s="28"/>
+      <c r="B269" s="14"/>
     </row>
     <row r="270" ht="20" spans="1:3">
-      <c r="A270" s="25" t="s">
+      <c r="A270" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="B270" s="29"/>
-      <c r="C270" s="27" t="s">
+      <c r="B270" s="6"/>
+      <c r="C270" s="26" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="271" ht="20" spans="1:3">
-      <c r="A271" s="25" t="s">
+      <c r="A271" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B271" s="29"/>
-      <c r="C271" s="27"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="26"/>
     </row>
     <row r="272" ht="40" spans="1:3">
-      <c r="A272" s="25" t="s">
+      <c r="A272" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="B272" s="29"/>
-      <c r="C272" s="27"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="26"/>
     </row>
     <row r="273" ht="20" spans="1:3">
-      <c r="A273" s="25" t="s">
+      <c r="A273" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="B273" s="29"/>
-      <c r="C273" s="27"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="26"/>
     </row>
     <row r="274" ht="20" spans="1:3">
-      <c r="A274" s="25" t="s">
+      <c r="A274" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="B274" s="29"/>
-      <c r="C274" s="27"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="26"/>
     </row>
     <row r="275" ht="20" spans="1:2">
-      <c r="A275" s="25" t="s">
+      <c r="A275" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="B275" s="29"/>
+      <c r="B275" s="6"/>
     </row>
     <row r="276" ht="20" spans="1:2">
-      <c r="A276" s="25" t="s">
+      <c r="A276" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="B276" s="29"/>
+      <c r="B276" s="6"/>
     </row>
     <row r="277" ht="20" spans="1:2">
-      <c r="A277" s="25" t="s">
+      <c r="A277" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="B277" s="29"/>
+      <c r="B277" s="6"/>
     </row>
     <row r="278" ht="20" spans="1:2">
-      <c r="A278" s="25" t="s">
+      <c r="A278" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="B278" s="28"/>
+      <c r="B278" s="14"/>
     </row>
     <row r="279" ht="20" spans="1:2">
-      <c r="A279" s="25" t="s">
+      <c r="A279" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B279" s="28"/>
+      <c r="B279" s="14"/>
     </row>
     <row r="280" ht="20" spans="1:2">
-      <c r="A280" s="25" t="s">
+      <c r="A280" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="B280" s="29"/>
+      <c r="B280" s="6"/>
     </row>
     <row r="281" ht="20" spans="1:2">
-      <c r="A281" s="25" t="s">
+      <c r="A281" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="B281" s="29"/>
+      <c r="B281" s="6"/>
     </row>
     <row r="282" ht="20" spans="1:2">
-      <c r="A282" s="25" t="s">
+      <c r="A282" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="B282" s="28"/>
+      <c r="B282" s="14"/>
     </row>
     <row r="283" ht="20" spans="1:2">
-      <c r="A283" s="25" t="s">
+      <c r="A283" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="B283" s="29"/>
+      <c r="B283" s="6"/>
     </row>
     <row r="284" ht="20" spans="1:2">
-      <c r="A284" s="25" t="s">
+      <c r="A284" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="B284" s="29"/>
+      <c r="B284" s="6"/>
     </row>
     <row r="285" ht="20" spans="1:2">
-      <c r="A285" s="25" t="s">
+      <c r="A285" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="B285" s="30"/>
+      <c r="B285" s="13"/>
     </row>
     <row r="286" ht="20" spans="1:2">
-      <c r="A286" s="25" t="s">
+      <c r="A286" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="B286" s="29"/>
+      <c r="B286" s="6"/>
     </row>
     <row r="287" ht="20" spans="1:2">
-      <c r="A287" s="25" t="s">
+      <c r="A287" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="B287" s="29"/>
+      <c r="B287" s="6"/>
     </row>
     <row r="288" ht="20" spans="1:2">
-      <c r="A288" s="25" t="s">
+      <c r="A288" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="B288" s="29"/>
+      <c r="B288" s="6"/>
     </row>
     <row r="289" ht="20" spans="1:3">
-      <c r="A289" s="25" t="s">
+      <c r="A289" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="B289" s="29"/>
-      <c r="C289" s="27" t="s">
+      <c r="B289" s="6"/>
+      <c r="C289" s="26" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="290" ht="20" spans="1:3">
-      <c r="A290" s="25" t="s">
+      <c r="A290" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="B290" s="29"/>
-      <c r="C290" s="27"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="26"/>
     </row>
     <row r="291" ht="20" spans="1:3">
-      <c r="A291" s="25" t="s">
+      <c r="A291" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="B291" s="29"/>
-      <c r="C291" s="27"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="26"/>
     </row>
     <row r="292" ht="20" spans="1:2">
-      <c r="A292" s="25" t="s">
+      <c r="A292" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="B292" s="29"/>
+      <c r="B292" s="6"/>
     </row>
     <row r="293" ht="20" spans="1:2">
-      <c r="A293" s="25" t="s">
+      <c r="A293" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="B293" s="29"/>
+      <c r="B293" s="6"/>
     </row>
     <row r="294" ht="20" spans="1:2">
-      <c r="A294" s="25" t="s">
+      <c r="A294" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="B294" s="29"/>
+      <c r="B294" s="6"/>
     </row>
     <row r="295" ht="20" spans="1:1">
-      <c r="A295" s="22" t="s">
+      <c r="A295" s="21" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="296" ht="20" spans="1:2">
-      <c r="A296" s="25" t="s">
+      <c r="A296" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="B296" s="28"/>
+      <c r="B296" s="14"/>
     </row>
     <row r="297" ht="20" spans="1:2">
-      <c r="A297" s="25" t="s">
+      <c r="A297" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="B297" s="28"/>
+      <c r="B297" s="14"/>
     </row>
     <row r="298" ht="20" spans="1:2">
-      <c r="A298" s="25" t="s">
+      <c r="A298" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="B298" s="28"/>
+      <c r="B298" s="14"/>
     </row>
     <row r="299" ht="20" spans="1:2">
-      <c r="A299" s="25" t="s">
+      <c r="A299" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="B299" s="28"/>
+      <c r="B299" s="14"/>
     </row>
     <row r="300" ht="20" spans="1:2">
-      <c r="A300" s="25" t="s">
+      <c r="A300" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B300" s="28"/>
+      <c r="B300" s="14"/>
     </row>
     <row r="301" ht="20" spans="1:2">
-      <c r="A301" s="25" t="s">
+      <c r="A301" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="B301" s="28"/>
+      <c r="B301" s="14"/>
     </row>
     <row r="302" ht="20" spans="1:2">
-      <c r="A302" s="25" t="s">
+      <c r="A302" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="B302" s="28"/>
+      <c r="B302" s="14"/>
     </row>
     <row r="303" ht="40" spans="1:2">
-      <c r="A303" s="25" t="s">
+      <c r="A303" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="B303" s="28"/>
+      <c r="B303" s="14"/>
     </row>
     <row r="304" ht="40" spans="1:2">
-      <c r="A304" s="25" t="s">
+      <c r="A304" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="B304" s="28"/>
+      <c r="B304" s="14"/>
     </row>
     <row r="305" ht="20" spans="1:2">
-      <c r="A305" s="25" t="s">
+      <c r="A305" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="B305" s="29"/>
+      <c r="B305" s="6"/>
     </row>
     <row r="306" ht="40" spans="1:2">
-      <c r="A306" s="25" t="s">
+      <c r="A306" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="B306" s="29"/>
+      <c r="B306" s="6"/>
     </row>
     <row r="307" ht="40" spans="1:2">
-      <c r="A307" s="25" t="s">
+      <c r="A307" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B307" s="29"/>
+      <c r="B307" s="6"/>
     </row>
     <row r="308" ht="20" spans="1:2">
-      <c r="A308" s="25" t="s">
+      <c r="A308" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="B308" s="29"/>
+      <c r="B308" s="6"/>
     </row>
     <row r="309" ht="20" spans="1:2">
-      <c r="A309" s="25" t="s">
+      <c r="A309" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="B309" s="28"/>
+      <c r="B309" s="14"/>
     </row>
     <row r="310" ht="20" spans="1:2">
-      <c r="A310" s="25" t="s">
+      <c r="A310" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="B310" s="28"/>
+      <c r="B310" s="14"/>
     </row>
     <row r="311" ht="20" spans="1:3">
-      <c r="A311" s="25" t="s">
+      <c r="A311" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="B311" s="29"/>
-      <c r="C311" s="27" t="s">
+      <c r="B311" s="6"/>
+      <c r="C311" s="26" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="312" ht="20" spans="1:3">
-      <c r="A312" s="25" t="s">
+      <c r="A312" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="B312" s="29"/>
-      <c r="C312" s="27"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="26"/>
     </row>
     <row r="313" ht="20" spans="1:3">
-      <c r="A313" s="25" t="s">
+      <c r="A313" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="B313" s="29"/>
-      <c r="C313" s="27"/>
+      <c r="B313" s="6"/>
+      <c r="C313" s="26"/>
     </row>
     <row r="314" ht="20" spans="1:3">
-      <c r="A314" s="25" t="s">
+      <c r="A314" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="B314" s="29"/>
-      <c r="C314" s="27"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="26"/>
     </row>
     <row r="315" ht="20" spans="1:3">
-      <c r="A315" s="25" t="s">
+      <c r="A315" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="B315" s="29"/>
-      <c r="C315" s="27"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="26"/>
     </row>
     <row r="316" ht="40" spans="1:2">
-      <c r="A316" s="25" t="s">
+      <c r="A316" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="B316" s="28"/>
+      <c r="B316" s="14"/>
     </row>
     <row r="317" ht="40" spans="1:2">
-      <c r="A317" s="25" t="s">
+      <c r="A317" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="B317" s="28"/>
+      <c r="B317" s="14"/>
     </row>
     <row r="318" ht="20" spans="1:3">
-      <c r="A318" s="25" t="s">
+      <c r="A318" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="B318" s="29"/>
-      <c r="C318" s="27" t="s">
+      <c r="B318" s="6"/>
+      <c r="C318" s="26" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="319" ht="20" spans="1:3">
-      <c r="A319" s="25" t="s">
+      <c r="A319" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="B319" s="29"/>
-      <c r="C319" s="27"/>
+      <c r="B319" s="6"/>
+      <c r="C319" s="26"/>
     </row>
     <row r="320" ht="20" spans="1:2">
-      <c r="A320" s="25" t="s">
+      <c r="A320" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="B320" s="29"/>
+      <c r="B320" s="6"/>
     </row>
     <row r="321" ht="40" spans="1:2">
-      <c r="A321" s="25" t="s">
+      <c r="A321" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="B321" s="28"/>
+      <c r="B321" s="14"/>
     </row>
     <row r="322" ht="40" spans="1:2">
-      <c r="A322" s="25" t="s">
+      <c r="A322" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="B322" s="28"/>
+      <c r="B322" s="14"/>
     </row>
     <row r="323" ht="20" spans="1:2">
-      <c r="A323" s="25" t="s">
+      <c r="A323" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="B323" s="28"/>
+      <c r="B323" s="14"/>
     </row>
     <row r="324" ht="20" spans="1:3">
-      <c r="A324" s="25" t="s">
+      <c r="A324" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="B324" s="29"/>
-      <c r="C324" s="21" t="s">
+      <c r="B324" s="6"/>
+      <c r="C324" s="20" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="325" s="19" customFormat="1" ht="20" spans="1:3">
-      <c r="A325" s="22" t="s">
+      <c r="A325" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B325" s="34"/>
-      <c r="C325" s="35"/>
+      <c r="B325" s="9"/>
+      <c r="C325" s="30"/>
     </row>
     <row r="326" ht="20" spans="1:3">
-      <c r="A326" s="25" t="s">
+      <c r="A326" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B326" s="29"/>
-      <c r="C326" s="27" t="s">
+      <c r="B326" s="6"/>
+      <c r="C326" s="26" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="327" ht="40" spans="1:3">
-      <c r="A327" s="25" t="s">
+      <c r="A327" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="B327" s="29"/>
-      <c r="C327" s="27"/>
+      <c r="B327" s="6"/>
+      <c r="C327" s="26"/>
     </row>
     <row r="328" ht="20" spans="1:3">
-      <c r="A328" s="25" t="s">
+      <c r="A328" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="B328" s="29"/>
-      <c r="C328" s="27"/>
+      <c r="B328" s="6"/>
+      <c r="C328" s="26"/>
     </row>
     <row r="329" ht="20" spans="1:3">
-      <c r="A329" s="25" t="s">
+      <c r="A329" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="B329" s="29"/>
-      <c r="C329" s="27"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="26"/>
     </row>
     <row r="330" ht="20" spans="1:3">
-      <c r="A330" s="25" t="s">
+      <c r="A330" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="B330" s="29"/>
-      <c r="C330" s="27"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="26"/>
     </row>
     <row r="331" ht="20" spans="1:3">
-      <c r="A331" s="25" t="s">
+      <c r="A331" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="B331" s="29"/>
-      <c r="C331" s="27"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="26"/>
     </row>
     <row r="332" ht="20" spans="1:1">
-      <c r="A332" s="22" t="s">
+      <c r="A332" s="21" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="333" ht="20" spans="1:2">
-      <c r="A333" s="25" t="s">
+      <c r="A333" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="B333" s="28"/>
+      <c r="B333" s="14"/>
     </row>
     <row r="334" ht="20" spans="1:2">
-      <c r="A334" s="25" t="s">
+      <c r="A334" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="B334" s="28"/>
+      <c r="B334" s="14"/>
     </row>
     <row r="335" ht="20" spans="1:2">
-      <c r="A335" s="25" t="s">
+      <c r="A335" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="B335" s="28"/>
+      <c r="B335" s="14"/>
     </row>
     <row r="336" ht="20" spans="1:2">
-      <c r="A336" s="25" t="s">
+      <c r="A336" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="B336" s="28"/>
+      <c r="B336" s="14"/>
     </row>
     <row r="337" ht="20" spans="1:2">
-      <c r="A337" s="25" t="s">
+      <c r="A337" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="B337" s="28"/>
+      <c r="B337" s="14"/>
     </row>
     <row r="338" ht="20" spans="1:2">
-      <c r="A338" s="25" t="s">
+      <c r="A338" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="B338" s="28"/>
+      <c r="B338" s="14"/>
     </row>
     <row r="339" ht="20" spans="1:2">
-      <c r="A339" s="25" t="s">
+      <c r="A339" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="B339" s="28"/>
+      <c r="B339" s="14"/>
     </row>
     <row r="340" ht="20" spans="1:2">
-      <c r="A340" s="25" t="s">
+      <c r="A340" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="B340" s="28"/>
+      <c r="B340" s="14"/>
     </row>
     <row r="341" ht="20" spans="1:2">
-      <c r="A341" s="25" t="s">
+      <c r="A341" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="B341" s="28"/>
+      <c r="B341" s="14"/>
     </row>
     <row r="342" ht="20" spans="1:2">
-      <c r="A342" s="25" t="s">
+      <c r="A342" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="B342" s="28"/>
+      <c r="B342" s="14"/>
     </row>
     <row r="343" ht="20" spans="1:2">
-      <c r="A343" s="25" t="s">
+      <c r="A343" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="B343" s="28"/>
+      <c r="B343" s="14"/>
     </row>
     <row r="344" ht="20" spans="1:2">
-      <c r="A344" s="25" t="s">
+      <c r="A344" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="B344" s="28"/>
+      <c r="B344" s="14"/>
     </row>
     <row r="345" ht="20" spans="1:2">
-      <c r="A345" s="25" t="s">
+      <c r="A345" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="B345" s="29"/>
+      <c r="B345" s="6"/>
     </row>
     <row r="346" ht="20" spans="1:2">
-      <c r="A346" s="25" t="s">
+      <c r="A346" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="B346" s="29"/>
+      <c r="B346" s="6"/>
     </row>
     <row r="347" ht="20" spans="1:2">
-      <c r="A347" s="25" t="s">
+      <c r="A347" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="B347" s="29"/>
+      <c r="B347" s="6"/>
     </row>
     <row r="348" ht="20" spans="1:2">
-      <c r="A348" s="25" t="s">
+      <c r="A348" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="B348" s="29"/>
+      <c r="B348" s="6"/>
     </row>
     <row r="349" ht="20" spans="1:2">
-      <c r="A349" s="25" t="s">
+      <c r="A349" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="B349" s="29"/>
+      <c r="B349" s="6"/>
     </row>
     <row r="350" ht="20" spans="1:2">
-      <c r="A350" s="25" t="s">
+      <c r="A350" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B350" s="29"/>
+      <c r="B350" s="6"/>
     </row>
     <row r="351" ht="20" spans="1:2">
-      <c r="A351" s="25" t="s">
+      <c r="A351" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="B351" s="29"/>
+      <c r="B351" s="6"/>
     </row>
     <row r="352" ht="20" spans="1:2">
-      <c r="A352" s="25" t="s">
+      <c r="A352" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="B352" s="29"/>
+      <c r="B352" s="6"/>
     </row>
     <row r="353" ht="20" spans="1:2">
-      <c r="A353" s="25" t="s">
+      <c r="A353" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="B353" s="29"/>
+      <c r="B353" s="6"/>
     </row>
     <row r="354" ht="20" spans="1:2">
-      <c r="A354" s="25" t="s">
+      <c r="A354" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="B354" s="29"/>
+      <c r="B354" s="6"/>
     </row>
     <row r="355" ht="20" spans="1:2">
-      <c r="A355" s="25" t="s">
+      <c r="A355" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="B355" s="29"/>
+      <c r="B355" s="6"/>
     </row>
     <row r="356" ht="20" spans="1:2">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="B356" s="29"/>
+      <c r="B356" s="6"/>
     </row>
     <row r="357" ht="20" spans="1:1">
-      <c r="A357" s="25" t="s">
+      <c r="A357" s="24" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="358" ht="20" spans="1:1">
-      <c r="A358" s="22" t="s">
+      <c r="A358" s="21" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="359" ht="20" spans="1:3">
-      <c r="A359" s="25" t="s">
+      <c r="A359" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="B359" s="29"/>
-      <c r="C359" s="27" t="s">
+      <c r="B359" s="6"/>
+      <c r="C359" s="26" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="360" ht="20" spans="1:3">
-      <c r="A360" s="25" t="s">
+      <c r="A360" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="B360" s="29"/>
-      <c r="C360" s="27"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="26"/>
     </row>
     <row r="361" ht="20" spans="1:3">
-      <c r="A361" s="25" t="s">
+      <c r="A361" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="B361" s="29"/>
-      <c r="C361" s="27"/>
+      <c r="B361" s="6"/>
+      <c r="C361" s="26"/>
     </row>
     <row r="362" ht="20" spans="1:3">
-      <c r="A362" s="25" t="s">
+      <c r="A362" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="B362" s="29"/>
-      <c r="C362" s="27"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="26"/>
     </row>
     <row r="363" ht="20" spans="1:3">
-      <c r="A363" s="25" t="s">
+      <c r="A363" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="B363" s="29"/>
-      <c r="C363" s="27"/>
+      <c r="B363" s="6"/>
+      <c r="C363" s="26"/>
     </row>
     <row r="364" ht="20" spans="1:3">
-      <c r="A364" s="25" t="s">
+      <c r="A364" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="B364" s="29"/>
-      <c r="C364" s="27"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="26"/>
     </row>
     <row r="365" ht="20" spans="1:3">
-      <c r="A365" s="25" t="s">
+      <c r="A365" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="B365" s="29"/>
-      <c r="C365" s="27"/>
+      <c r="B365" s="6"/>
+      <c r="C365" s="26"/>
     </row>
     <row r="366" ht="20" spans="1:3">
-      <c r="A366" s="25" t="s">
+      <c r="A366" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="B366" s="29"/>
-      <c r="C366" s="27"/>
+      <c r="B366" s="6"/>
+      <c r="C366" s="26"/>
     </row>
     <row r="367" ht="20" spans="1:3">
-      <c r="A367" s="25" t="s">
+      <c r="A367" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="B367" s="29"/>
-      <c r="C367" s="27"/>
+      <c r="B367" s="6"/>
+      <c r="C367" s="26"/>
     </row>
     <row r="368" ht="20" spans="1:3">
-      <c r="A368" s="25" t="s">
+      <c r="A368" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="B368" s="29"/>
-      <c r="C368" s="27"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="26"/>
     </row>
     <row r="369" ht="20" spans="1:3">
-      <c r="A369" s="25" t="s">
+      <c r="A369" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="B369" s="29"/>
-      <c r="C369" s="27"/>
+      <c r="B369" s="6"/>
+      <c r="C369" s="26"/>
     </row>
     <row r="370" ht="20" spans="1:3">
-      <c r="A370" s="25" t="s">
+      <c r="A370" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="B370" s="29"/>
-      <c r="C370" s="27"/>
+      <c r="B370" s="6"/>
+      <c r="C370" s="26"/>
     </row>
     <row r="371" ht="20" spans="1:3">
-      <c r="A371" s="25" t="s">
+      <c r="A371" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="B371" s="29"/>
-      <c r="C371" s="27"/>
+      <c r="B371" s="6"/>
+      <c r="C371" s="26"/>
     </row>
     <row r="372" ht="20" spans="1:3">
-      <c r="A372" s="25" t="s">
+      <c r="A372" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B372" s="29"/>
-      <c r="C372" s="27"/>
+      <c r="B372" s="6"/>
+      <c r="C372" s="26"/>
     </row>
     <row r="373" ht="20" spans="1:3">
-      <c r="A373" s="25" t="s">
+      <c r="A373" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="B373" s="29"/>
-      <c r="C373" s="27"/>
+      <c r="B373" s="6"/>
+      <c r="C373" s="26"/>
     </row>
     <row r="374" ht="20" spans="1:3">
-      <c r="A374" s="25" t="s">
+      <c r="A374" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="B374" s="29"/>
-      <c r="C374" s="27"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="26"/>
     </row>
     <row r="375" ht="20" spans="1:3">
-      <c r="A375" s="25" t="s">
+      <c r="A375" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B375" s="29"/>
-      <c r="C375" s="27"/>
+      <c r="B375" s="6"/>
+      <c r="C375" s="26"/>
     </row>
     <row r="376" ht="20" spans="1:3">
-      <c r="A376" s="25" t="s">
+      <c r="A376" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="B376" s="29"/>
-      <c r="C376" s="27"/>
+      <c r="B376" s="6"/>
+      <c r="C376" s="26"/>
     </row>
     <row r="377" ht="20" spans="1:3">
-      <c r="A377" s="25" t="s">
+      <c r="A377" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="B377" s="29"/>
-      <c r="C377" s="27"/>
+      <c r="B377" s="6"/>
+      <c r="C377" s="26"/>
     </row>
     <row r="378" ht="20" spans="1:3">
-      <c r="A378" s="25" t="s">
+      <c r="A378" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="B378" s="29"/>
-      <c r="C378" s="27"/>
+      <c r="B378" s="6"/>
+      <c r="C378" s="26"/>
     </row>
     <row r="379" ht="20" spans="1:3">
-      <c r="A379" s="25" t="s">
+      <c r="A379" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="B379" s="29"/>
-      <c r="C379" s="27"/>
+      <c r="B379" s="6"/>
+      <c r="C379" s="26"/>
     </row>
     <row r="380" ht="20" spans="1:3">
-      <c r="A380" s="25" t="s">
+      <c r="A380" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="B380" s="29"/>
-      <c r="C380" s="27"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="26"/>
     </row>
     <row r="381" ht="20" spans="1:3">
-      <c r="A381" s="25" t="s">
+      <c r="A381" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="B381" s="29"/>
-      <c r="C381" s="27"/>
+      <c r="B381" s="6"/>
+      <c r="C381" s="26"/>
     </row>
     <row r="382" ht="20" spans="1:3">
-      <c r="A382" s="25" t="s">
+      <c r="A382" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="B382" s="29"/>
-      <c r="C382" s="27"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="26"/>
     </row>
     <row r="383" ht="20" spans="1:3">
-      <c r="A383" s="25" t="s">
+      <c r="A383" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="B383" s="29"/>
-      <c r="C383" s="27"/>
+      <c r="B383" s="6"/>
+      <c r="C383" s="26"/>
     </row>
     <row r="384" ht="20" spans="1:3">
-      <c r="A384" s="25" t="s">
+      <c r="A384" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="B384" s="29"/>
-      <c r="C384" s="27"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="26"/>
     </row>
     <row r="385" ht="20" spans="1:3">
-      <c r="A385" s="25" t="s">
+      <c r="A385" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="B385" s="29"/>
-      <c r="C385" s="27"/>
+      <c r="B385" s="6"/>
+      <c r="C385" s="26"/>
     </row>
     <row r="386" ht="20" spans="1:3">
-      <c r="A386" s="25" t="s">
+      <c r="A386" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="B386" s="29"/>
-      <c r="C386" s="27"/>
+      <c r="B386" s="6"/>
+      <c r="C386" s="26"/>
     </row>
     <row r="387" ht="20" spans="1:3">
-      <c r="A387" s="25" t="s">
+      <c r="A387" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="B387" s="29"/>
-      <c r="C387" s="27"/>
+      <c r="B387" s="6"/>
+      <c r="C387" s="26"/>
     </row>
     <row r="388" ht="20" spans="1:3">
-      <c r="A388" s="25" t="s">
+      <c r="A388" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="B388" s="29"/>
-      <c r="C388" s="27"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="26"/>
     </row>
     <row r="389" ht="20" spans="1:3">
-      <c r="A389" s="25" t="s">
+      <c r="A389" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="B389" s="29"/>
-      <c r="C389" s="27"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="26"/>
     </row>
     <row r="390" ht="20" spans="1:3">
-      <c r="A390" s="25" t="s">
+      <c r="A390" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="B390" s="29"/>
-      <c r="C390" s="27"/>
+      <c r="B390" s="6"/>
+      <c r="C390" s="26"/>
     </row>
     <row r="391" ht="20" spans="1:3">
-      <c r="A391" s="25" t="s">
+      <c r="A391" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="B391" s="29"/>
-      <c r="C391" s="27"/>
+      <c r="B391" s="6"/>
+      <c r="C391" s="26"/>
     </row>
     <row r="392" ht="20" spans="1:3">
-      <c r="A392" s="25" t="s">
+      <c r="A392" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="B392" s="29"/>
-      <c r="C392" s="27"/>
+      <c r="B392" s="6"/>
+      <c r="C392" s="26"/>
     </row>
     <row r="393" ht="20" spans="1:3">
-      <c r="A393" s="25" t="s">
+      <c r="A393" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="B393" s="29"/>
-      <c r="C393" s="27"/>
+      <c r="B393" s="6"/>
+      <c r="C393" s="26"/>
     </row>
     <row r="394" ht="20" spans="1:3">
-      <c r="A394" s="25" t="s">
+      <c r="A394" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B394" s="29"/>
-      <c r="C394" s="27"/>
+      <c r="B394" s="6"/>
+      <c r="C394" s="26"/>
     </row>
     <row r="395" ht="20" spans="1:3">
-      <c r="A395" s="25" t="s">
+      <c r="A395" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="B395" s="29"/>
-      <c r="C395" s="27"/>
+      <c r="B395" s="6"/>
+      <c r="C395" s="26"/>
     </row>
     <row r="396" ht="40" spans="1:3">
-      <c r="A396" s="25" t="s">
+      <c r="A396" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="B396" s="29"/>
-      <c r="C396" s="27"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="26"/>
     </row>
     <row r="397" ht="20" spans="1:3">
-      <c r="A397" s="25" t="s">
+      <c r="A397" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="B397" s="29"/>
-      <c r="C397" s="27"/>
+      <c r="B397" s="6"/>
+      <c r="C397" s="26"/>
     </row>
     <row r="398" ht="20" spans="1:3">
-      <c r="A398" s="25" t="s">
+      <c r="A398" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="B398" s="29"/>
-      <c r="C398" s="27"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="26"/>
     </row>
     <row r="399" ht="20" spans="1:3">
-      <c r="A399" s="25" t="s">
+      <c r="A399" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="B399" s="29"/>
-      <c r="C399" s="27"/>
+      <c r="B399" s="6"/>
+      <c r="C399" s="26"/>
     </row>
     <row r="400" ht="20" spans="1:3">
-      <c r="A400" s="25" t="s">
+      <c r="A400" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="B400" s="29"/>
-      <c r="C400" s="27"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="26"/>
     </row>
     <row r="401" ht="20" spans="1:3">
-      <c r="A401" s="25" t="s">
+      <c r="A401" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B401" s="29"/>
-      <c r="C401" s="27"/>
+      <c r="B401" s="6"/>
+      <c r="C401" s="26"/>
     </row>
     <row r="402" ht="20" spans="1:3">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="B402" s="29"/>
-      <c r="C402" s="27"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" ht="20" spans="1:3">
-      <c r="A403" s="25" t="s">
+      <c r="A403" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="B403" s="29"/>
-      <c r="C403" s="27"/>
+      <c r="B403" s="6"/>
+      <c r="C403" s="26"/>
     </row>
     <row r="404" ht="20" spans="1:3">
-      <c r="A404" s="25" t="s">
+      <c r="A404" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="B404" s="29"/>
-      <c r="C404" s="27"/>
+      <c r="B404" s="6"/>
+      <c r="C404" s="26"/>
     </row>
     <row r="405" ht="20" spans="1:3">
-      <c r="A405" s="25" t="s">
+      <c r="A405" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="B405" s="29"/>
-      <c r="C405" s="27"/>
+      <c r="B405" s="6"/>
+      <c r="C405" s="26"/>
     </row>
     <row r="406" ht="20" spans="1:3">
-      <c r="A406" s="25" t="s">
+      <c r="A406" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="B406" s="29"/>
-      <c r="C406" s="27"/>
+      <c r="B406" s="6"/>
+      <c r="C406" s="26"/>
     </row>
     <row r="407" ht="20" spans="1:3">
-      <c r="A407" s="25" t="s">
+      <c r="A407" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="B407" s="29"/>
-      <c r="C407" s="27"/>
+      <c r="B407" s="6"/>
+      <c r="C407" s="26"/>
     </row>
     <row r="408" ht="20" spans="1:3">
-      <c r="A408" s="25" t="s">
+      <c r="A408" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="B408" s="29"/>
-      <c r="C408" s="27"/>
+      <c r="B408" s="6"/>
+      <c r="C408" s="26"/>
     </row>
     <row r="409" ht="20" spans="1:3">
-      <c r="A409" s="25" t="s">
+      <c r="A409" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="B409" s="29"/>
-      <c r="C409" s="27"/>
+      <c r="B409" s="6"/>
+      <c r="C409" s="26"/>
     </row>
     <row r="410" ht="20" spans="1:3">
-      <c r="A410" s="25" t="s">
+      <c r="A410" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="B410" s="29"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="6"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" ht="20" spans="1:3">
-      <c r="A411" s="25" t="s">
+      <c r="A411" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="B411" s="29"/>
-      <c r="C411" s="27"/>
+      <c r="B411" s="6"/>
+      <c r="C411" s="26"/>
     </row>
     <row r="412" ht="20" spans="1:3">
-      <c r="A412" s="25" t="s">
+      <c r="A412" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="B412" s="29"/>
-      <c r="C412" s="27"/>
+      <c r="B412" s="6"/>
+      <c r="C412" s="26"/>
     </row>
     <row r="413" ht="20" spans="1:3">
-      <c r="A413" s="25" t="s">
+      <c r="A413" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="B413" s="29"/>
-      <c r="C413" s="27"/>
+      <c r="B413" s="6"/>
+      <c r="C413" s="26"/>
     </row>
     <row r="414" ht="20" spans="1:3">
-      <c r="A414" s="25" t="s">
+      <c r="A414" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="B414" s="29"/>
-      <c r="C414" s="27"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="26"/>
     </row>
     <row r="415" ht="20" spans="1:3">
-      <c r="A415" s="25" t="s">
+      <c r="A415" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="B415" s="29"/>
-      <c r="C415" s="27"/>
+      <c r="B415" s="6"/>
+      <c r="C415" s="26"/>
     </row>
     <row r="416" ht="20" spans="1:3">
-      <c r="A416" s="25" t="s">
+      <c r="A416" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="B416" s="29"/>
-      <c r="C416" s="27"/>
+      <c r="B416" s="6"/>
+      <c r="C416" s="26"/>
     </row>
     <row r="417" ht="20" spans="1:3">
-      <c r="A417" s="25" t="s">
+      <c r="A417" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="B417" s="29"/>
-      <c r="C417" s="27"/>
+      <c r="B417" s="6"/>
+      <c r="C417" s="26"/>
     </row>
     <row r="418" ht="20" spans="1:3">
-      <c r="A418" s="25" t="s">
+      <c r="A418" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="B418" s="29"/>
-      <c r="C418" s="27"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5839,7 +5824,7 @@
     <col min="7" max="7" width="20.3839285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:4">
+    <row r="1" ht="18" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>438</v>
       </c>
@@ -7143,7 +7128,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
